--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">psy_or_med</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t xml:space="preserve">comorbid_mental?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall_mean_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall_percent_women</t>
   </si>
   <si>
     <t xml:space="preserve">cohens_d_active</t>
@@ -1096,23 +1102,29 @@
       <c r="BG1" t="s">
         <v>58</v>
       </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1158,7 +1170,7 @@
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1" t="n">
@@ -1175,26 +1187,28 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1251,7 +1265,7 @@
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
@@ -1266,16 +1280,18 @@
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>3</v>
@@ -1283,7 +1299,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>59.2</v>
@@ -1324,7 +1340,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1354,19 +1370,23 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX4" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX4" s="2" t="n">
+        <v>13.1</v>
+      </c>
       <c r="AY4" s="2" t="n">
         <v>13.1</v>
       </c>
       <c r="AZ4" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BA4" s="2"/>
+      <c r="BA4" s="2" t="n">
+        <v>52.2654545454546</v>
+      </c>
       <c r="BB4" s="2" t="n">
         <v>54.7</v>
       </c>
@@ -1375,18 +1395,24 @@
       </c>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
+      <c r="BF4" s="2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="BG4" s="2" t="n">
+        <v>52.2654545454546</v>
+      </c>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>4</v>
@@ -1394,7 +1420,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>58.8</v>
@@ -1435,7 +1461,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1465,19 +1491,23 @@
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX5" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX5" s="2" t="n">
+        <v>13.1</v>
+      </c>
       <c r="AY5" s="2" t="n">
         <v>13.1</v>
       </c>
       <c r="AZ5" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BA5" s="2"/>
+      <c r="BA5" s="2" t="n">
+        <v>50.8827272727273</v>
+      </c>
       <c r="BB5" s="2" t="n">
         <v>52.1</v>
       </c>
@@ -1486,18 +1516,24 @@
       </c>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
+      <c r="BF5" s="2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="BG5" s="2" t="n">
+        <v>50.8827272727273</v>
+      </c>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>5</v>
@@ -1505,7 +1541,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>25.9</v>
@@ -1554,7 +1590,7 @@
         <v>91</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA6" s="2" t="n">
         <v>107</v>
@@ -1591,22 +1627,26 @@
         <v>12</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX6" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AX6" s="2" t="n">
+        <v>15.6014545454545</v>
+      </c>
       <c r="AY6" s="2" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ6" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="BA6" s="2"/>
+      <c r="BA6" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="BB6" s="2" t="n">
         <v>67</v>
       </c>
@@ -1615,18 +1655,24 @@
       </c>
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
+      <c r="BF6" s="2" t="n">
+        <v>15.6014545454545</v>
+      </c>
+      <c r="BG6" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>8</v>
@@ -1634,7 +1680,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>23</v>
@@ -1683,7 +1729,7 @@
         <v>90</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1708,22 +1754,26 @@
         <v>12</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX7" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AX7" s="2" t="n">
+        <v>15.6014545454545</v>
+      </c>
       <c r="AY7" s="2" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ7" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="BA7" s="2"/>
+      <c r="BA7" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="BB7" s="2" t="n">
         <v>67</v>
       </c>
@@ -1732,18 +1782,24 @@
       </c>
       <c r="BD7" s="2"/>
       <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
+      <c r="BF7" s="2" t="n">
+        <v>15.6014545454545</v>
+      </c>
+      <c r="BG7" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>6</v>
@@ -1751,7 +1807,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1815,22 +1871,26 @@
         <v>12</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX8" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AX8" s="2" t="n">
+        <v>15.6014545454545</v>
+      </c>
       <c r="AY8" s="2" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ8" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="BA8" s="2"/>
+      <c r="BA8" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="BB8" s="2" t="n">
         <v>67</v>
       </c>
@@ -1839,18 +1899,24 @@
       </c>
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
+      <c r="BF8" s="2" t="n">
+        <v>15.6014545454545</v>
+      </c>
+      <c r="BG8" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>7</v>
@@ -1858,7 +1924,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1879,7 +1945,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA9" s="2" t="n">
         <v>119</v>
@@ -1916,13 +1982,13 @@
         <v>12</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AX9" s="2"/>
       <c r="AY9" s="2" t="n">
@@ -1942,16 +2008,18 @@
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>9</v>
@@ -1959,7 +2027,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2007,13 +2075,13 @@
         <v>8</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AX10" s="2"/>
       <c r="AY10" s="2"/>
@@ -2022,21 +2090,23 @@
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>10</v>
@@ -2044,7 +2114,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2092,13 +2162,13 @@
         <v>8</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
@@ -2110,16 +2180,18 @@
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>11</v>
@@ -2127,7 +2199,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2148,7 +2220,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -2177,13 +2249,13 @@
         <v>8</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
@@ -2195,16 +2267,18 @@
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>12</v>
@@ -2212,7 +2286,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>61.2</v>
@@ -2249,7 +2323,7 @@
         <v>93</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -2274,13 +2348,13 @@
         <v>8</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
@@ -2292,16 +2366,18 @@
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>15</v>
@@ -2309,7 +2385,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2330,7 +2406,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA14" s="2" t="n">
         <v>27</v>
@@ -2367,13 +2443,13 @@
         <v>8</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2" t="n">
@@ -2393,16 +2469,18 @@
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>18</v>
@@ -2410,7 +2488,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2431,7 +2509,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA15" s="2" t="n">
         <v>57</v>
@@ -2464,13 +2542,13 @@
         <v>9</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AV15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AX15" s="2"/>
       <c r="AY15" s="2" t="n">
@@ -2490,16 +2568,18 @@
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>19</v>
@@ -2507,7 +2587,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2568,10 +2648,10 @@
       </c>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
@@ -2583,16 +2663,18 @@
       <c r="BE16" s="2"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>20</v>
@@ -2600,7 +2682,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2653,10 +2735,10 @@
       </c>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
@@ -2668,16 +2750,18 @@
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>21</v>
@@ -2685,7 +2769,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2706,7 +2790,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA18" s="2" t="n">
         <v>61</v>
@@ -2744,10 +2828,10 @@
       </c>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW18" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
@@ -2759,16 +2843,18 @@
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>22</v>
@@ -2776,7 +2862,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>60.7</v>
@@ -2810,7 +2896,7 @@
         <v>-22.58</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>1.47</v>
+        <v>14.77</v>
       </c>
       <c r="V19" s="2" t="n">
         <v>101</v>
@@ -2819,7 +2905,7 @@
         <v>-23.38</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="Y19" s="2" t="n">
         <v>100</v>
@@ -2848,22 +2934,26 @@
         <v>8</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX19" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX19" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="AY19" s="2" t="n">
         <v>12</v>
       </c>
       <c r="AZ19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="BA19" s="2"/>
+      <c r="BA19" s="2" t="n">
+        <v>46.8</v>
+      </c>
       <c r="BB19" s="2" t="n">
         <v>46.8</v>
       </c>
@@ -2871,21 +2961,27 @@
         <v>46.8</v>
       </c>
       <c r="BD19" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
+      <c r="BF19" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG19" s="2" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>23</v>
@@ -2893,7 +2989,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2914,7 +3010,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA20" s="2" t="n">
         <v>49</v>
@@ -2951,13 +3047,13 @@
         <v>8</v>
       </c>
       <c r="AU20" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2" t="n">
@@ -2977,16 +3073,18 @@
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>27</v>
@@ -2994,7 +3092,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>18.2</v>
@@ -3031,7 +3129,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AA21" s="2" t="n">
         <v>85</v>
@@ -3069,19 +3167,23 @@
       </c>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX21" s="2" t="n">
+        <v>12.2501483679525</v>
+      </c>
       <c r="AY21" s="2" t="n">
         <v>12.2</v>
       </c>
       <c r="AZ21" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BA21" s="2"/>
+      <c r="BA21" s="2" t="n">
+        <v>45.5044510385757</v>
+      </c>
       <c r="BB21" s="2" t="n">
         <v>44</v>
       </c>
@@ -3090,18 +3192,24 @@
       </c>
       <c r="BD21" s="2"/>
       <c r="BE21" s="2"/>
-      <c r="BF21" s="2"/>
-      <c r="BG21" s="2"/>
+      <c r="BF21" s="2" t="n">
+        <v>12.2501483679525</v>
+      </c>
+      <c r="BG21" s="2" t="n">
+        <v>45.5044510385757</v>
+      </c>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>26</v>
@@ -3109,7 +3217,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>25.6</v>
@@ -3146,7 +3254,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AA22" s="2" t="n">
         <v>81</v>
@@ -3184,19 +3292,23 @@
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX22" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX22" s="2" t="n">
+        <v>12.2501483679525</v>
+      </c>
       <c r="AY22" s="2" t="n">
         <v>12.2</v>
       </c>
       <c r="AZ22" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BA22" s="2"/>
+      <c r="BA22" s="2" t="n">
+        <v>45.5044510385757</v>
+      </c>
       <c r="BB22" s="2" t="n">
         <v>44</v>
       </c>
@@ -3204,21 +3316,27 @@
         <v>47</v>
       </c>
       <c r="BD22" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BE22" s="2"/>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2"/>
+      <c r="BF22" s="2" t="n">
+        <v>12.2501483679525</v>
+      </c>
+      <c r="BG22" s="2" t="n">
+        <v>45.5044510385757</v>
+      </c>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>24</v>
@@ -3226,7 +3344,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>54.4</v>
@@ -3267,7 +3385,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA23" s="2" t="n">
         <v>43</v>
@@ -3325,10 +3443,10 @@
       </c>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW23" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AX23" s="2"/>
       <c r="AY23" s="2"/>
@@ -3337,21 +3455,23 @@
       <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
       <c r="BD23" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>25</v>
@@ -3359,7 +3479,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>57.3</v>
@@ -3400,7 +3520,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA24" s="2" t="n">
         <v>77</v>
@@ -3458,10 +3578,10 @@
       </c>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW24" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AX24" s="2"/>
       <c r="AY24" s="2"/>
@@ -3470,21 +3590,23 @@
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
       <c r="BD24" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>28</v>
@@ -3492,7 +3614,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>57.6</v>
@@ -3537,7 +3659,7 @@
         <v>157</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA25" s="2" t="n">
         <v>91</v>
@@ -3574,22 +3696,26 @@
         <v>8</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AV25" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX25" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="AX25" s="2" t="n">
+        <v>14.5990353697749</v>
+      </c>
       <c r="AY25" s="2" t="n">
         <v>14.7</v>
       </c>
       <c r="AZ25" s="2" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA25" s="2"/>
+      <c r="BA25" s="2" t="n">
+        <v>58.9961414790997</v>
+      </c>
       <c r="BB25" s="2" t="n">
         <v>59.4</v>
       </c>
@@ -3597,21 +3723,27 @@
         <v>58.6</v>
       </c>
       <c r="BD25" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
+      <c r="BF25" s="2" t="n">
+        <v>14.5990353697749</v>
+      </c>
+      <c r="BG25" s="2" t="n">
+        <v>58.9961414790997</v>
+      </c>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>29</v>
@@ -3619,7 +3751,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3640,7 +3772,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="2" t="n">
         <v>99</v>
@@ -3677,13 +3809,13 @@
         <v>8</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AV26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AX26" s="2"/>
       <c r="AY26" s="2" t="n">
@@ -3703,16 +3835,18 @@
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>30</v>
@@ -3720,7 +3854,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>59.3</v>
@@ -3769,7 +3903,7 @@
         <v>117</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -3799,19 +3933,23 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AW27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX27" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX27" s="2" t="n">
+        <v>13.0060869565217</v>
+      </c>
       <c r="AY27" s="2" t="n">
         <v>12.9</v>
       </c>
       <c r="AZ27" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BA27" s="2"/>
+      <c r="BA27" s="2" t="n">
+        <v>56.1304347826087</v>
+      </c>
       <c r="BB27" s="2" t="n">
         <v>55.6</v>
       </c>
@@ -3819,21 +3957,27 @@
         <v>56.6</v>
       </c>
       <c r="BD27" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BE27" s="2"/>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2"/>
+      <c r="BF27" s="2" t="n">
+        <v>13.0060869565217</v>
+      </c>
+      <c r="BG27" s="2" t="n">
+        <v>56.1304347826087</v>
+      </c>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>31</v>
@@ -3841,7 +3985,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>59.8</v>
@@ -3890,7 +4034,7 @@
         <v>117</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -3920,19 +4064,23 @@
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AW28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX28" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX28" s="2" t="n">
+        <v>13.0025210084034</v>
+      </c>
       <c r="AY28" s="2" t="n">
         <v>12.9</v>
       </c>
       <c r="AZ28" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BA28" s="2"/>
+      <c r="BA28" s="2" t="n">
+        <v>48.7529411764706</v>
+      </c>
       <c r="BB28" s="2" t="n">
         <v>40.5</v>
       </c>
@@ -3941,18 +4089,24 @@
       </c>
       <c r="BD28" s="2"/>
       <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2"/>
+      <c r="BF28" s="2" t="n">
+        <v>13.0025210084034</v>
+      </c>
+      <c r="BG28" s="2" t="n">
+        <v>48.7529411764706</v>
+      </c>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>32</v>
@@ -3960,7 +4114,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>57.9</v>
@@ -3995,7 +4149,7 @@
         <v>117</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>22.6</v>
+        <v>-22.6</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2" t="n">
@@ -4009,7 +4163,7 @@
         <v>117</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -4039,19 +4193,23 @@
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AW29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX29" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX29" s="2" t="n">
+        <v>13.0510460251046</v>
+      </c>
       <c r="AY29" s="2" t="n">
         <v>13</v>
       </c>
       <c r="AZ29" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BA29" s="2"/>
+      <c r="BA29" s="2" t="n">
+        <v>54.3970711297071</v>
+      </c>
       <c r="BB29" s="2" t="n">
         <v>52.1</v>
       </c>
@@ -4060,18 +4218,24 @@
       </c>
       <c r="BD29" s="2"/>
       <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2"/>
+      <c r="BF29" s="2" t="n">
+        <v>13.0510460251046</v>
+      </c>
+      <c r="BG29" s="2" t="n">
+        <v>54.3970711297071</v>
+      </c>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>35</v>
@@ -4079,7 +4243,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -4100,7 +4264,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA30" s="2" t="n">
         <v>9</v>
@@ -4137,13 +4301,13 @@
         <v>8</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AV30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AX30" s="2"/>
       <c r="AY30" s="2" t="n">
@@ -4163,16 +4327,18 @@
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>40</v>
@@ -4180,7 +4346,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -4201,7 +4367,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA31" s="2" t="n">
         <v>4</v>
@@ -4238,11 +4404,11 @@
         <v>6</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AX31" s="2"/>
       <c r="AY31" s="2"/>
@@ -4254,16 +4420,18 @@
       <c r="BE31" s="2"/>
       <c r="BF31" s="2"/>
       <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>41</v>
@@ -4271,7 +4439,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -4292,7 +4460,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA32" s="2" t="n">
         <v>2</v>
@@ -4329,11 +4497,11 @@
         <v>6</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AX32" s="2"/>
       <c r="AY32" s="2"/>
@@ -4345,16 +4513,18 @@
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>47</v>
@@ -4362,7 +4532,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4383,7 +4553,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA33" s="2" t="n">
         <v>49</v>
@@ -4420,13 +4590,13 @@
         <v>8</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AV33" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AX33" s="2"/>
       <c r="AY33" s="2" t="n">
@@ -4446,16 +4616,18 @@
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>44</v>
@@ -4463,7 +4635,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4484,7 +4656,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA34" s="2" t="n">
         <v>59</v>
@@ -4521,13 +4693,13 @@
         <v>8</v>
       </c>
       <c r="AU34" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AV34" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AX34" s="2"/>
       <c r="AY34" s="2" t="n">
@@ -4547,16 +4719,18 @@
       <c r="BE34" s="2"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>50</v>
@@ -4564,7 +4738,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -4585,7 +4759,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA35" s="2" t="n">
         <v>12</v>
@@ -4622,13 +4796,13 @@
         <v>6</v>
       </c>
       <c r="AU35" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AV35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW35" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AX35" s="2"/>
       <c r="AY35" s="2" t="n">
@@ -4648,16 +4822,18 @@
       <c r="BE35" s="2"/>
       <c r="BF35" s="2"/>
       <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>53</v>
@@ -4665,7 +4841,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4722,19 +4898,23 @@
       </c>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AW36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX36" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AX36" s="2" t="n">
+        <v>17.8</v>
+      </c>
       <c r="AY36" s="2" t="n">
         <v>17.8</v>
       </c>
       <c r="AZ36" s="2" t="n">
         <v>17.8</v>
       </c>
-      <c r="BA36" s="2"/>
+      <c r="BA36" s="2" t="n">
+        <v>70</v>
+      </c>
       <c r="BB36" s="2" t="n">
         <v>70</v>
       </c>
@@ -4743,28 +4923,34 @@
       </c>
       <c r="BD36" s="2"/>
       <c r="BE36" s="2"/>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2"/>
+      <c r="BF36" s="2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="BG36" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -4809,7 +4995,7 @@
       <c r="AT37" s="2"/>
       <c r="AU37" s="2"/>
       <c r="AV37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2" t="n">
@@ -4826,16 +5012,18 @@
       <c r="BE37" s="2"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>58</v>
@@ -4843,7 +5031,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -4864,7 +5052,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA38" s="2" t="n">
         <v>66</v>
@@ -4901,13 +5089,13 @@
         <v>12</v>
       </c>
       <c r="AU38" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AV38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW38" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AX38" s="2"/>
       <c r="AY38" s="2" t="n">
@@ -4927,16 +5115,18 @@
       <c r="BE38" s="2"/>
       <c r="BF38" s="2"/>
       <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>1</v>
@@ -4944,7 +5134,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -4977,7 +5167,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
@@ -5004,16 +5194,20 @@
       <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX39" s="2" t="n">
+        <v>12.3349206349206</v>
+      </c>
       <c r="AY39" s="2" t="n">
         <v>12.3</v>
       </c>
       <c r="AZ39" s="2" t="n">
         <v>12.4</v>
       </c>
-      <c r="BA39" s="2"/>
+      <c r="BA39" s="2" t="n">
+        <v>50.8126984126984</v>
+      </c>
       <c r="BB39" s="2" t="n">
         <v>47.6</v>
       </c>
@@ -5021,21 +5215,27 @@
         <v>56.8</v>
       </c>
       <c r="BD39" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
+      <c r="BF39" s="2" t="n">
+        <v>12.3349206349206</v>
+      </c>
+      <c r="BG39" s="2" t="n">
+        <v>50.8126984126984</v>
+      </c>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>2</v>
@@ -5043,7 +5243,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -5076,7 +5276,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
@@ -5103,16 +5303,20 @@
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
       <c r="AW40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX40" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX40" s="2" t="n">
+        <v>12.0384615384615</v>
+      </c>
       <c r="AY40" s="2" t="n">
         <v>11.9</v>
       </c>
       <c r="AZ40" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BA40" s="2"/>
+      <c r="BA40" s="2" t="n">
+        <v>50.1730769230769</v>
+      </c>
       <c r="BB40" s="2" t="n">
         <v>50</v>
       </c>
@@ -5121,18 +5325,24 @@
       </c>
       <c r="BD40" s="2"/>
       <c r="BE40" s="2"/>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
+      <c r="BF40" s="2" t="n">
+        <v>12.0384615384615</v>
+      </c>
+      <c r="BG40" s="2" t="n">
+        <v>50.1730769230769</v>
+      </c>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>59</v>
@@ -5140,7 +5350,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -5166,7 +5376,7 @@
         <v>-16.5</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>2.45</v>
+        <v>13.19</v>
       </c>
       <c r="V41" s="2" t="n">
         <v>29</v>
@@ -5175,7 +5385,7 @@
         <v>-11.9</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>2.54</v>
+        <v>13.2</v>
       </c>
       <c r="Y41" s="2" t="n">
         <v>27</v>
@@ -5205,19 +5415,23 @@
       </c>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AW41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX41" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX41" s="2" t="n">
+        <v>14.5928571428571</v>
+      </c>
       <c r="AY41" s="2" t="n">
         <v>14.4</v>
       </c>
       <c r="AZ41" s="2" t="n">
         <v>14.8</v>
       </c>
-      <c r="BA41" s="2"/>
+      <c r="BA41" s="2" t="n">
+        <v>60.7446428571429</v>
+      </c>
       <c r="BB41" s="2" t="n">
         <v>55.2</v>
       </c>
@@ -5226,18 +5440,24 @@
       </c>
       <c r="BD41" s="2"/>
       <c r="BE41" s="2"/>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2"/>
+      <c r="BF41" s="2" t="n">
+        <v>14.5928571428571</v>
+      </c>
+      <c r="BG41" s="2" t="n">
+        <v>60.7446428571429</v>
+      </c>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>60</v>
@@ -5245,7 +5465,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -5266,7 +5486,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA42" s="2" t="n">
         <v>15</v>
@@ -5304,10 +5524,10 @@
       </c>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AW42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AX42" s="2"/>
       <c r="AY42" s="2" t="n">
@@ -5327,26 +5547,28 @@
       <c r="BE42" s="2"/>
       <c r="BF42" s="2"/>
       <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -5399,7 +5621,7 @@
       <c r="AT43" s="2"/>
       <c r="AU43" s="2"/>
       <c r="AV43" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2" t="n">
@@ -5416,26 +5638,28 @@
       <c r="BE43" s="2"/>
       <c r="BF43" s="2"/>
       <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -5480,7 +5704,7 @@
       <c r="AT44" s="2"/>
       <c r="AU44" s="2"/>
       <c r="AV44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AW44" s="2"/>
       <c r="AX44" s="2" t="n">
@@ -5497,26 +5721,28 @@
       <c r="BE44" s="2"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -5561,7 +5787,7 @@
       <c r="AT45" s="2"/>
       <c r="AU45" s="2"/>
       <c r="AV45" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AW45" s="2"/>
       <c r="AX45" s="2" t="n">
@@ -5578,16 +5804,18 @@
       <c r="BE45" s="2"/>
       <c r="BF45" s="2"/>
       <c r="BG45" s="2"/>
+      <c r="BH45" s="2"/>
+      <c r="BI45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>63</v>
@@ -5595,7 +5823,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
@@ -5632,7 +5860,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
@@ -5662,12 +5890,14 @@
       </c>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AW46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX46" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AX46" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="AY46" s="2" t="n">
         <v>16</v>
       </c>
@@ -5678,21 +5908,25 @@
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
       <c r="BD46" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BE46" s="2"/>
-      <c r="BF46" s="2"/>
+      <c r="BF46" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>62</v>
@@ -5700,7 +5934,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>32</v>
@@ -5737,7 +5971,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -5767,12 +6001,14 @@
       </c>
       <c r="AU47" s="2"/>
       <c r="AV47" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AW47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX47" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AX47" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="AY47" s="2" t="n">
         <v>16</v>
       </c>
@@ -5784,18 +6020,22 @@
       <c r="BC47" s="2"/>
       <c r="BD47" s="2"/>
       <c r="BE47" s="2"/>
-      <c r="BF47" s="2"/>
+      <c r="BF47" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>64</v>
@@ -5803,7 +6043,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>64.3</v>
@@ -5844,7 +6084,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AA48" s="2" t="n">
         <v>128</v>
@@ -5881,18 +6121,20 @@
         <v>10</v>
       </c>
       <c r="AU48" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AV48" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AW48" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AX48" s="2"/>
       <c r="AY48" s="2"/>
       <c r="AZ48" s="2"/>
-      <c r="BA48" s="2"/>
+      <c r="BA48" s="2" t="n">
+        <v>51.0324468085106</v>
+      </c>
       <c r="BB48" s="2" t="n">
         <v>57.1</v>
       </c>
@@ -5902,17 +6144,21 @@
       <c r="BD48" s="2"/>
       <c r="BE48" s="2"/>
       <c r="BF48" s="2"/>
-      <c r="BG48" s="2"/>
+      <c r="BG48" s="2" t="n">
+        <v>51.0324468085106</v>
+      </c>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>65</v>
@@ -5920,7 +6166,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -5941,7 +6187,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA49" s="2" t="n">
         <v>117</v>
@@ -5978,13 +6224,13 @@
         <v>10</v>
       </c>
       <c r="AU49" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AV49" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AW49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AX49" s="2"/>
       <c r="AY49" s="2"/>
@@ -6000,16 +6246,18 @@
       <c r="BE49" s="2"/>
       <c r="BF49" s="2"/>
       <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>66</v>
@@ -6017,7 +6265,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>58.8</v>
@@ -6054,7 +6302,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA50" s="2" t="n">
         <v>32</v>
@@ -6091,22 +6339,26 @@
         <v>8</v>
       </c>
       <c r="AU50" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AV50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW50" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX50" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AX50" s="2" t="n">
+        <v>12.1</v>
+      </c>
       <c r="AY50" s="2" t="n">
         <v>12.1</v>
       </c>
       <c r="AZ50" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="BA50" s="2"/>
+      <c r="BA50" s="2" t="n">
+        <v>53.4350574712644</v>
+      </c>
       <c r="BB50" s="2" t="n">
         <v>52.8</v>
       </c>
@@ -6115,18 +6367,24 @@
       </c>
       <c r="BD50" s="2"/>
       <c r="BE50" s="2"/>
-      <c r="BF50" s="2"/>
-      <c r="BG50" s="2"/>
+      <c r="BF50" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BG50" s="2" t="n">
+        <v>53.4350574712644</v>
+      </c>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>67</v>
@@ -6134,7 +6392,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -6155,7 +6413,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA51" s="2" t="n">
         <v>42</v>
@@ -6192,13 +6450,13 @@
         <v>8</v>
       </c>
       <c r="AU51" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AV51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AX51" s="2"/>
       <c r="AY51" s="2" t="n">
@@ -6218,16 +6476,18 @@
       <c r="BE51" s="2"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="2"/>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>68</v>
@@ -6235,7 +6495,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>54.5</v>
@@ -6272,7 +6532,7 @@
         <v>132</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA52" s="2" t="n">
         <v>59</v>
@@ -6309,22 +6569,26 @@
         <v>8</v>
       </c>
       <c r="AU52" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AV52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX52" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="AX52" s="2" t="n">
+        <v>12.3</v>
+      </c>
       <c r="AY52" s="2" t="n">
         <v>12.3</v>
       </c>
       <c r="AZ52" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BA52" s="2"/>
+      <c r="BA52" s="2" t="n">
+        <v>51.9</v>
+      </c>
       <c r="BB52" s="2" t="n">
         <v>51.9</v>
       </c>
@@ -6333,18 +6597,24 @@
       </c>
       <c r="BD52" s="2"/>
       <c r="BE52" s="2"/>
-      <c r="BF52" s="2"/>
-      <c r="BG52" s="2"/>
+      <c r="BF52" s="2" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="BG52" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>69</v>
@@ -6352,7 +6622,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -6373,7 +6643,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA53" s="2" t="n">
         <v>81</v>
@@ -6410,13 +6680,13 @@
         <v>8</v>
       </c>
       <c r="AU53" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AV53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AX53" s="2"/>
       <c r="AY53" s="2" t="n">
@@ -6436,26 +6706,28 @@
       <c r="BE53" s="2"/>
       <c r="BF53" s="2"/>
       <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -6504,7 +6776,7 @@
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
       <c r="AV54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AW54" s="2"/>
       <c r="AX54" s="2" t="n">
@@ -6521,26 +6793,28 @@
       <c r="BE54" s="2"/>
       <c r="BF54" s="2"/>
       <c r="BG54" s="2"/>
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -6589,7 +6863,7 @@
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
       <c r="AV55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AW55" s="2"/>
       <c r="AX55" s="2" t="n">
@@ -6606,26 +6880,28 @@
       <c r="BE55" s="2"/>
       <c r="BF55" s="2"/>
       <c r="BG55" s="2"/>
+      <c r="BH55" s="2"/>
+      <c r="BI55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H56" s="3" t="n">
         <v>17.44</v>
@@ -6706,7 +6982,7 @@
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
       <c r="AV56" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AW56" s="3"/>
       <c r="AX56" s="3" t="n">
@@ -6723,6 +6999,8 @@
       <c r="BE56" s="3"/>
       <c r="BF56" s="3"/>
       <c r="BG56" s="3"/>
+      <c r="BH56" s="3"/>
+      <c r="BI56" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t xml:space="preserve">psy_or_med</t>
   </si>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">Atkinson</t>
   </si>
   <si>
-    <t xml:space="preserve">2014.0</t>
+    <t xml:space="preserve">2014</t>
   </si>
   <si>
     <t xml:space="preserve">cdrs</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">Berard</t>
   </si>
   <si>
-    <t xml:space="preserve">2006.0</t>
+    <t xml:space="preserve">2006</t>
   </si>
   <si>
     <t xml:space="preserve">madrs</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">Emslie</t>
   </si>
   <si>
-    <t xml:space="preserve">1997.0</t>
+    <t xml:space="preserve">1997</t>
   </si>
   <si>
     <t xml:space="preserve">Dysthymia, anxiety disordes, ADHD, oppositional/conduct disorder</t>
@@ -353,9 +353,6 @@
     <t xml:space="preserve">*Did not report demographics (e.g. mean age, % of women) per trial. Instead, demographics were reported for the two trials combined, hence the (combined)</t>
   </si>
   <si>
-    <t xml:space="preserve">2009.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">40% improvement from baseline score</t>
   </si>
   <si>
@@ -383,7 +380,7 @@
     <t xml:space="preserve">Hughes</t>
   </si>
   <si>
-    <t xml:space="preserve">1990.0</t>
+    <t xml:space="preserve">1990</t>
   </si>
   <si>
     <t xml:space="preserve">50% reduction in CDRS</t>
@@ -398,7 +395,7 @@
     <t xml:space="preserve">Keller</t>
   </si>
   <si>
-    <t xml:space="preserve">2001.0</t>
+    <t xml:space="preserve">2001</t>
   </si>
   <si>
     <t xml:space="preserve">Anxiety disorders (e.g. separation anxiety, social anxiety disorder) and externalising disorders</t>
@@ -410,7 +407,7 @@
     <t xml:space="preserve">Klein</t>
   </si>
   <si>
-    <t xml:space="preserve">1998.0</t>
+    <t xml:space="preserve">1998</t>
   </si>
   <si>
     <t xml:space="preserve">Anxiety disorders and behaviour disorders</t>
@@ -422,7 +419,7 @@
     <t xml:space="preserve">Kutcher</t>
   </si>
   <si>
-    <t xml:space="preserve">1994.0</t>
+    <t xml:space="preserve">1994</t>
   </si>
   <si>
     <t xml:space="preserve">Canada</t>
@@ -446,7 +443,7 @@
     <t xml:space="preserve">March</t>
   </si>
   <si>
-    <t xml:space="preserve">2004.0</t>
+    <t xml:space="preserve">2004</t>
   </si>
   <si>
     <t xml:space="preserve">Anxiety, disruptive behaviour, obsessive-compulsice/tic, substance use, attention-deficit/hyperactivity</t>
@@ -467,9 +464,6 @@
     <t xml:space="preserve">Sanford, 2006</t>
   </si>
   <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
     <t xml:space="preserve">Family Psychoeducation (FPE) + cau</t>
   </si>
   <si>
@@ -512,7 +506,7 @@
     <t xml:space="preserve">Wagner</t>
   </si>
   <si>
-    <t xml:space="preserve">2003.0</t>
+    <t xml:space="preserve">2003</t>
   </si>
   <si>
     <t xml:space="preserve">40% improvement</t>
@@ -3606,7 +3600,7 @@
         <v>96</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>28</v>
@@ -3659,7 +3653,7 @@
         <v>157</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA25" s="2" t="n">
         <v>91</v>
@@ -3696,7 +3690,7 @@
         <v>8</v>
       </c>
       <c r="AU25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AV25" s="2" t="s">
         <v>76</v>
@@ -3723,7 +3717,7 @@
         <v>58.6</v>
       </c>
       <c r="BD25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BE25" s="2"/>
       <c r="BF25" s="2" t="n">
@@ -3743,7 +3737,7 @@
         <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>29</v>
@@ -3809,7 +3803,7 @@
         <v>8</v>
       </c>
       <c r="AU26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AV26" s="2" t="s">
         <v>76</v>
@@ -3903,7 +3897,7 @@
         <v>117</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -3933,7 +3927,7 @@
       </c>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AW27" s="2" t="s">
         <v>77</v>
@@ -3957,7 +3951,7 @@
         <v>56.6</v>
       </c>
       <c r="BD27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BE27" s="2"/>
       <c r="BF27" s="2" t="n">
@@ -4034,7 +4028,7 @@
         <v>117</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -4064,7 +4058,7 @@
       </c>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AW28" s="2" t="s">
         <v>77</v>
@@ -4163,7 +4157,7 @@
         <v>117</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -4193,7 +4187,7 @@
       </c>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AW29" s="2" t="s">
         <v>77</v>
@@ -4232,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>35</v>
@@ -4301,7 +4295,7 @@
         <v>8</v>
       </c>
       <c r="AU30" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AV30" s="2" t="s">
         <v>76</v>
@@ -4335,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>40</v>
@@ -4367,7 +4361,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA31" s="2" t="n">
         <v>4</v>
@@ -4404,11 +4398,11 @@
         <v>6</v>
       </c>
       <c r="AU31" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AX31" s="2"/>
       <c r="AY31" s="2"/>
@@ -4428,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>41</v>
@@ -4460,7 +4454,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AA32" s="2" t="n">
         <v>2</v>
@@ -4497,11 +4491,11 @@
         <v>6</v>
       </c>
       <c r="AU32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AX32" s="2"/>
       <c r="AY32" s="2"/>
@@ -4521,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>47</v>
@@ -4590,13 +4584,13 @@
         <v>8</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AV33" s="2" t="s">
         <v>103</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX33" s="2"/>
       <c r="AY33" s="2" t="n">
@@ -4624,10 +4618,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>44</v>
@@ -4693,13 +4687,13 @@
         <v>8</v>
       </c>
       <c r="AU34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AV34" s="2" t="s">
         <v>103</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX34" s="2"/>
       <c r="AY34" s="2" t="n">
@@ -4727,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>50</v>
@@ -4796,13 +4790,13 @@
         <v>6</v>
       </c>
       <c r="AU35" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AV35" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AW35" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX35" s="2"/>
       <c r="AY35" s="2" t="n">
@@ -4830,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>53</v>
@@ -4898,10 +4892,10 @@
       </c>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW36" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="AW36" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="AX36" s="2" t="n">
         <v>17.8</v>
@@ -4937,20 +4931,20 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -5020,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>58</v>
@@ -5089,7 +5083,7 @@
         <v>12</v>
       </c>
       <c r="AU38" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AV38" s="2" t="s">
         <v>76</v>
@@ -5123,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>91</v>
@@ -5215,7 +5209,7 @@
         <v>56.8</v>
       </c>
       <c r="BD39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BE39" s="2"/>
       <c r="BF39" s="2" t="n">
@@ -5232,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>95</v>
@@ -5339,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>59</v>
@@ -5415,7 +5409,7 @@
       </c>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AW41" s="2" t="s">
         <v>77</v>
@@ -5454,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>60</v>
@@ -5524,7 +5518,7 @@
       </c>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AW42" s="2" t="s">
         <v>77</v>
@@ -5555,20 +5549,20 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -5621,7 +5615,7 @@
       <c r="AT43" s="2"/>
       <c r="AU43" s="2"/>
       <c r="AV43" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2" t="n">
@@ -5646,20 +5640,20 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -5729,10 +5723,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
@@ -5812,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>79</v>
@@ -5890,10 +5884,10 @@
       </c>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AW46" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX46" s="2" t="n">
         <v>16</v>
@@ -5908,7 +5902,7 @@
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
       <c r="BD46" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BE46" s="2"/>
       <c r="BF46" s="2" t="n">
@@ -5923,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>79</v>
@@ -5971,7 +5965,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -6001,10 +5995,10 @@
       </c>
       <c r="AU47" s="2"/>
       <c r="AV47" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AW47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX47" s="2" t="n">
         <v>16</v>
@@ -6032,10 +6026,10 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>64</v>
@@ -6084,7 +6078,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA48" s="2" t="n">
         <v>128</v>
@@ -6121,13 +6115,13 @@
         <v>10</v>
       </c>
       <c r="AU48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV48" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW48" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="AV48" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW48" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="AX48" s="2"/>
       <c r="AY48" s="2"/>
@@ -6155,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>65</v>
@@ -6224,10 +6218,10 @@
         <v>10</v>
       </c>
       <c r="AU49" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AV49" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AW49" s="2" t="s">
         <v>77</v>
@@ -6254,10 +6248,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>66</v>
@@ -6302,7 +6296,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AA50" s="2" t="n">
         <v>32</v>
@@ -6339,7 +6333,7 @@
         <v>8</v>
       </c>
       <c r="AU50" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AV50" s="2" t="s">
         <v>76</v>
@@ -6381,10 +6375,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>67</v>
@@ -6450,7 +6444,7 @@
         <v>8</v>
       </c>
       <c r="AU51" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AV51" s="2" t="s">
         <v>76</v>
@@ -6484,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>79</v>
@@ -6532,7 +6526,7 @@
         <v>132</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AA52" s="2" t="n">
         <v>59</v>
@@ -6569,13 +6563,13 @@
         <v>8</v>
       </c>
       <c r="AU52" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AV52" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AX52" s="2" t="n">
         <v>12.3</v>
@@ -6611,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>79</v>
@@ -6680,13 +6674,13 @@
         <v>8</v>
       </c>
       <c r="AU53" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AV53" s="2" t="s">
         <v>76</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AX53" s="2"/>
       <c r="AY53" s="2" t="n">
@@ -6714,17 +6708,17 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>74</v>
@@ -6801,20 +6795,20 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -6888,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>67</v>
@@ -6898,7 +6892,7 @@
         <v>63</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>70</v>
@@ -6982,7 +6976,7 @@
       <c r="AT56" s="3"/>
       <c r="AU56" s="3"/>
       <c r="AV56" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AW56" s="3"/>
       <c r="AX56" s="3" t="n">

--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -4982,7 +4982,7 @@
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
       <c r="AQ37" s="2" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AR37" s="2"/>
       <c r="AS37" s="2"/>
@@ -5608,7 +5608,7 @@
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR43" s="2"/>
       <c r="AS43" s="2"/>
@@ -5691,7 +5691,7 @@
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
       <c r="AQ44" s="2" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AR44" s="2"/>
       <c r="AS44" s="2"/>
@@ -5774,7 +5774,7 @@
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="2" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AR45" s="2"/>
       <c r="AS45" s="2"/>
@@ -6763,7 +6763,7 @@
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
       <c r="AQ54" s="2" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
@@ -6850,7 +6850,7 @@
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
       <c r="AQ55" s="2" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
@@ -6965,7 +6965,7 @@
       <c r="AO56" s="3"/>
       <c r="AP56" s="3"/>
       <c r="AQ56" s="3" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AR56" s="3" t="n">
         <v>30</v>

--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t xml:space="preserve">psy_or_med</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
+    <t xml:space="preserve">control_type</t>
+  </si>
+  <si>
     <t xml:space="preserve">descr_active</t>
   </si>
   <si>
@@ -203,12 +206,12 @@
     <t xml:space="preserve">2009</t>
   </si>
   <si>
+    <t xml:space="preserve">cau</t>
+  </si>
+  <si>
     <t xml:space="preserve">cbt</t>
   </si>
   <si>
-    <t xml:space="preserve">cau</t>
-  </si>
-  <si>
     <t xml:space="preserve">eu</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
     <t xml:space="preserve">2002</t>
   </si>
   <si>
+    <t xml:space="preserve">wl</t>
+  </si>
+  <si>
     <t xml:space="preserve">cbt + family education</t>
   </si>
   <si>
@@ -236,6 +242,9 @@
     <t xml:space="preserve">2014</t>
   </si>
   <si>
+    <t xml:space="preserve">Placebo</t>
+  </si>
+  <si>
     <t xml:space="preserve">cdrs</t>
   </si>
   <si>
@@ -440,12 +449,18 @@
     <t xml:space="preserve">mfq</t>
   </si>
   <si>
+    <t xml:space="preserve">March, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rads</t>
+  </si>
+  <si>
     <t xml:space="preserve">March</t>
   </si>
   <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anxiety, disruptive behaviour, obsessive-compulsice/tic, substance use, attention-deficit/hyperactivity</t>
   </si>
   <si>
@@ -467,9 +482,6 @@
     <t xml:space="preserve">Family Psychoeducation (FPE) + cau</t>
   </si>
   <si>
-    <t xml:space="preserve">rads</t>
-  </si>
-  <si>
     <t xml:space="preserve">can</t>
   </si>
   <si>
@@ -477,6 +489,9 @@
   </si>
   <si>
     <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other ctr</t>
   </si>
   <si>
     <t xml:space="preserve">psychoeducation</t>
@@ -1102,25 +1117,30 @@
       <c r="BI1" t="s">
         <v>60</v>
       </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1156,26 +1176,26 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
-      <c r="AQ2" s="1" t="n">
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
-      <c r="AV2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1" t="n">
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1" t="n">
         <v>14.5</v>
       </c>
-      <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
-      <c r="BA2" s="1" t="n">
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
@@ -1183,52 +1203,55 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="n">
         <v>9.54</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="P3" s="2" t="n">
         <v>7.1</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="Q3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="R3" s="2" t="n">
         <v>12.33</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="S3" s="2" t="n">
         <v>10.56</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="T3" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1251,24 +1274,24 @@
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
-      <c r="AQ3" s="2" t="n">
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
-      <c r="BA3" s="2" t="n">
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
@@ -1276,77 +1299,80 @@
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>59.2</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>10.5</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="K4" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="L4" s="2" t="n">
         <v>60.2</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="M4" s="2" t="n">
         <v>11.7</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="O4" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="R4" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="AB4" s="2"/>
-      <c r="AC4" s="2" t="n">
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="n">
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
@@ -1359,18 +1385,16 @@
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="2" t="n">
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AV4" s="2"/>
       <c r="AW4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX4" s="2" t="n">
-        <v>13.1</v>
+        <v>79</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="AY4" s="2" t="n">
         <v>13.1</v>
@@ -1379,95 +1403,100 @@
         <v>13.1</v>
       </c>
       <c r="BA4" s="2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="BB4" s="2" t="n">
         <v>52.2654545454546</v>
       </c>
-      <c r="BB4" s="2" t="n">
+      <c r="BC4" s="2" t="n">
         <v>54.7</v>
       </c>
-      <c r="BC4" s="2" t="n">
+      <c r="BD4" s="2" t="n">
         <v>49.5</v>
       </c>
-      <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
-      <c r="BF4" s="2" t="n">
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BG4" s="2" t="n">
+      <c r="BH4" s="2" t="n">
         <v>52.2654545454546</v>
       </c>
-      <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2" t="n">
         <v>58.8</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>10.6</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="K5" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="L5" s="2" t="n">
         <v>60.2</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="M5" s="2" t="n">
         <v>11.7</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="O5" s="2" t="n">
         <v>35.6</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="Q5" s="2" t="n">
+      <c r="R5" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2" t="n">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="AB5" s="2"/>
-      <c r="AC5" s="2" t="n">
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2" t="n">
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
@@ -1480,18 +1509,16 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="2" t="n">
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AV5" s="2"/>
       <c r="AW5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX5" s="2" t="n">
-        <v>13.1</v>
+        <v>79</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="AY5" s="2" t="n">
         <v>13.1</v>
@@ -1500,111 +1527,116 @@
         <v>13.1</v>
       </c>
       <c r="BA5" s="2" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="BB5" s="2" t="n">
         <v>50.8827272727273</v>
       </c>
-      <c r="BB5" s="2" t="n">
+      <c r="BC5" s="2" t="n">
         <v>52.1</v>
       </c>
-      <c r="BC5" s="2" t="n">
+      <c r="BD5" s="2" t="n">
         <v>49.5</v>
       </c>
-      <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
-      <c r="BF5" s="2" t="n">
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BG5" s="2" t="n">
+      <c r="BH5" s="2" t="n">
         <v>50.8827272727273</v>
       </c>
-      <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="2" t="n">
         <v>25.9</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>6.75</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="K6" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="L6" s="2" t="n">
         <v>25.9</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="M6" s="2" t="n">
         <v>5.79</v>
       </c>
-      <c r="M6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="U6" s="2" t="n">
         <v>-13.6</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="V6" s="2" t="n">
         <v>10.91</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="W6" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="W6" s="2" t="n">
+      <c r="X6" s="2" t="n">
         <v>-12.8</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="Y6" s="2" t="n">
         <v>10.3</v>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Z6" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA6" s="2" t="n">
+      <c r="AA6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB6" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="AB6" s="2" t="n">
+      <c r="AC6" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="AC6" s="2" t="n">
+      <c r="AD6" s="2" t="n">
         <v>0.604519774011299</v>
       </c>
-      <c r="AD6" s="2" t="n">
+      <c r="AE6" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="AE6" s="2" t="n">
+      <c r="AF6" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="AF6" s="2" t="n">
+      <c r="AG6" s="2" t="n">
         <v>0.582417582417582</v>
       </c>
-      <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
@@ -1617,29 +1649,27 @@
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="2" t="n">
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AU6" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="AV6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX6" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY6" s="2" t="n">
         <v>15.6014545454545</v>
       </c>
-      <c r="AY6" s="2" t="n">
+      <c r="AZ6" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="AZ6" s="2" t="n">
+      <c r="BA6" s="2" t="n">
         <v>15.8</v>
-      </c>
-      <c r="BA6" s="2" t="n">
-        <v>67</v>
       </c>
       <c r="BB6" s="2" t="n">
         <v>67</v>
@@ -1647,85 +1677,90 @@
       <c r="BC6" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD6" s="2"/>
+      <c r="BD6" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="BE6" s="2"/>
-      <c r="BF6" s="2" t="n">
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2" t="n">
         <v>15.6014545454545</v>
       </c>
-      <c r="BG6" s="2" t="n">
+      <c r="BH6" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <v>10.79</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="K7" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="L7" s="2" t="n">
         <v>22.4</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="M7" s="2" t="n">
         <v>11.57</v>
       </c>
-      <c r="M7" s="2" t="n">
+      <c r="N7" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2" t="n">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="U7" s="2" t="n">
         <v>-12.5</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="V7" s="2" t="n">
         <v>10.82</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="W7" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="X7" s="2" t="n">
         <v>-12.07</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="Y7" s="2" t="n">
         <v>10.25</v>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Z7" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -1744,29 +1779,27 @@
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="2" t="n">
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AU7" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="AV7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX7" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY7" s="2" t="n">
         <v>15.6014545454545</v>
       </c>
-      <c r="AY7" s="2" t="n">
+      <c r="AZ7" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="AZ7" s="2" t="n">
+      <c r="BA7" s="2" t="n">
         <v>15.8</v>
-      </c>
-      <c r="BA7" s="2" t="n">
-        <v>67</v>
       </c>
       <c r="BB7" s="2" t="n">
         <v>67</v>
@@ -1774,74 +1807,79 @@
       <c r="BC7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD7" s="2"/>
+      <c r="BD7" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="BE7" s="2"/>
-      <c r="BF7" s="2" t="n">
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2" t="n">
         <v>15.6014545454545</v>
       </c>
-      <c r="BG7" s="2" t="n">
+      <c r="BH7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BH7" s="2"/>
       <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2" t="n">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="U8" s="2" t="n">
         <v>-9.33</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="V8" s="2" t="n">
         <v>7.06</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="W8" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="X8" s="2" t="n">
         <v>-8.92</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="Y8" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="Y8" s="2" t="n">
+      <c r="Z8" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -1861,29 +1899,27 @@
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="2" t="n">
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AU8" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="AV8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX8" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY8" s="2" t="n">
         <v>15.6014545454545</v>
       </c>
-      <c r="AY8" s="2" t="n">
+      <c r="AZ8" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="AZ8" s="2" t="n">
+      <c r="BA8" s="2" t="n">
         <v>15.8</v>
-      </c>
-      <c r="BA8" s="2" t="n">
-        <v>67</v>
       </c>
       <c r="BB8" s="2" t="n">
         <v>67</v>
@@ -1891,36 +1927,41 @@
       <c r="BC8" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD8" s="2"/>
+      <c r="BD8" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="BE8" s="2"/>
-      <c r="BF8" s="2" t="n">
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2" t="n">
         <v>15.6014545454545</v>
       </c>
-      <c r="BG8" s="2" t="n">
+      <c r="BH8" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BH8" s="2"/>
       <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1938,28 +1979,28 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>0.691860465116279</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF9" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="AA9" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="AB9" s="2" t="n">
-        <v>172</v>
-      </c>
-      <c r="AC9" s="2" t="n">
-        <v>0.691860465116279</v>
-      </c>
-      <c r="AD9" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE9" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="AF9" s="2" t="n">
+      <c r="AG9" s="2" t="n">
         <v>0.573033707865168</v>
       </c>
-      <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
@@ -1972,58 +2013,61 @@
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="2" t="n">
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AU9" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="AV9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="AZ9" s="2" t="n">
+      <c r="BA9" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2" t="n">
-        <v>67</v>
-      </c>
+      <c r="BB9" s="2"/>
       <c r="BC9" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD9" s="2"/>
+      <c r="BD9" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2035,15 +2079,15 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2" t="n">
         <v>-25.8</v>
       </c>
-      <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2" t="n">
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="n">
         <v>-22.1</v>
       </c>
-      <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
@@ -2065,52 +2109,55 @@
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="2" t="n">
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU10" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AV10" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX10" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
-      <c r="BD10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2122,15 +2169,15 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="2"/>
+      <c r="U11" s="2" t="n">
         <v>-9.9</v>
       </c>
-      <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2" t="n">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -2152,19 +2199,19 @@
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
-      <c r="AT11" s="2" t="n">
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU11" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AV11" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX11" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
@@ -2176,26 +2223,29 @@
       <c r="BG11" s="2"/>
       <c r="BH11" s="2"/>
       <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2213,20 +2263,20 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="AB12" s="2"/>
-      <c r="AC12" s="2" t="n">
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="2" t="n">
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2" t="n">
         <v>0.44</v>
       </c>
-      <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
@@ -2239,19 +2289,19 @@
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="2" t="n">
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU12" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AV12" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX12" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AX12" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
@@ -2263,63 +2313,66 @@
       <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
       <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>61.2</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="L13" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="n">
+      <c r="M13" s="2"/>
+      <c r="N13" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="n">
         <v>-23.2</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="2"/>
+      <c r="W13" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="W13" s="2" t="n">
+      <c r="X13" s="2" t="n">
         <v>-21.6</v>
       </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2" t="n">
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="Z13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -2338,19 +2391,19 @@
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="2" t="n">
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU13" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="AV13" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX13" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
@@ -2362,26 +2415,29 @@
       <c r="BG13" s="2"/>
       <c r="BH13" s="2"/>
       <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2399,28 +2455,28 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA14" s="2" t="n">
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB14" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="AB14" s="2" t="n">
+      <c r="AC14" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="AC14" s="2" t="n">
+      <c r="AD14" s="2" t="n">
         <v>0.5625</v>
       </c>
-      <c r="AD14" s="2" t="n">
+      <c r="AE14" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="AE14" s="2" t="n">
+      <c r="AF14" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="AF14" s="2" t="n">
+      <c r="AG14" s="2" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
@@ -2433,58 +2489,61 @@
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
-      <c r="AT14" s="2" t="n">
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU14" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="AV14" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AX14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2" t="n">
         <v>12.2</v>
       </c>
-      <c r="AZ14" s="2" t="n">
+      <c r="BA14" s="2" t="n">
         <v>12.5</v>
       </c>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2" t="n">
-        <v>46</v>
-      </c>
+      <c r="BB14" s="2"/>
       <c r="BC14" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="BD14" s="2"/>
+      <c r="BD14" s="2" t="n">
+        <v>46</v>
+      </c>
       <c r="BE14" s="2"/>
       <c r="BF14" s="2"/>
       <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2502,24 +2561,24 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA15" s="2" t="n">
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB15" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AC15" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="AC15" s="2" t="n">
+      <c r="AD15" s="2" t="n">
         <v>0.522935779816514</v>
       </c>
-      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="2" t="n">
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2" t="n">
         <v>0.368</v>
       </c>
-      <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
@@ -2532,92 +2591,95 @@
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
-      <c r="AT15" s="2" t="n">
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AU15" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="AV15" s="2" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2" t="n">
-        <v>12.7</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY15" s="2"/>
       <c r="AZ15" s="2" t="n">
         <v>12.7</v>
       </c>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="BA15" s="2" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="BB15" s="2"/>
       <c r="BC15" s="2" t="n">
         <v>49.5</v>
       </c>
-      <c r="BD15" s="2"/>
+      <c r="BD15" s="2" t="n">
+        <v>49.5</v>
+      </c>
       <c r="BE15" s="2"/>
       <c r="BF15" s="2"/>
       <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2" t="n">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="2"/>
+      <c r="T16" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="U16" s="2" t="n">
         <v>-26.5</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="2"/>
+      <c r="W16" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="X16" s="2" t="n">
         <v>-22.5</v>
       </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2" t="n">
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
@@ -2637,17 +2699,17 @@
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
-      <c r="AT16" s="2" t="n">
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AV16" s="2"/>
       <c r="AW16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
@@ -2659,26 +2721,29 @@
       <c r="BG16" s="2"/>
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2690,21 +2755,21 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="2"/>
+      <c r="U17" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="2"/>
+      <c r="W17" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="W17" s="2" t="n">
+      <c r="X17" s="2" t="n">
         <v>-8.2</v>
       </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2" t="n">
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
@@ -2724,17 +2789,17 @@
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
-      <c r="AT17" s="2" t="n">
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AV17" s="2"/>
       <c r="AW17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX17" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
@@ -2746,26 +2811,29 @@
       <c r="BG17" s="2"/>
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2783,28 +2851,28 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA18" s="2" t="n">
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB18" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="AB18" s="2" t="n">
+      <c r="AC18" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="AC18" s="2" t="n">
+      <c r="AD18" s="2" t="n">
         <v>0.616161616161616</v>
       </c>
-      <c r="AD18" s="2" t="n">
+      <c r="AE18" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="AE18" s="2" t="n">
+      <c r="AF18" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="AF18" s="2" t="n">
+      <c r="AG18" s="2" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
@@ -2817,17 +2885,17 @@
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
-      <c r="AT18" s="2" t="n">
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AV18" s="2"/>
       <c r="AW18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX18" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
@@ -2839,72 +2907,75 @@
       <c r="BG18" s="2"/>
       <c r="BH18" s="2"/>
       <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="2" t="n">
         <v>60.7</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="J19" s="2" t="n">
         <v>9.37</v>
       </c>
-      <c r="J19" s="2" t="n">
+      <c r="K19" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="L19" s="2" t="n">
         <v>62.6</v>
       </c>
-      <c r="L19" s="2" t="n">
+      <c r="M19" s="2" t="n">
         <v>8.96</v>
       </c>
-      <c r="M19" s="2" t="n">
+      <c r="N19" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="U19" s="2" t="n">
         <v>-22.58</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="V19" s="2" t="n">
         <v>14.77</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="W19" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="X19" s="2" t="n">
         <v>-23.38</v>
       </c>
-      <c r="X19" s="2" t="n">
+      <c r="Y19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="Y19" s="2" t="n">
+      <c r="Z19" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -2924,20 +2995,18 @@
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
-      <c r="AT19" s="2" t="n">
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU19" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="AV19" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX19" s="2" t="n">
-        <v>12</v>
+        <v>106</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="AY19" s="2" t="n">
         <v>12</v>
@@ -2946,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="BA19" s="2" t="n">
-        <v>46.8</v>
+        <v>12</v>
       </c>
       <c r="BB19" s="2" t="n">
         <v>46.8</v>
@@ -2954,38 +3023,43 @@
       <c r="BC19" s="2" t="n">
         <v>46.8</v>
       </c>
-      <c r="BD19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2" t="n">
+      <c r="BD19" s="2" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="BE19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="BG19" s="2" t="n">
+      <c r="BH19" s="2" t="n">
         <v>46.8</v>
       </c>
-      <c r="BH19" s="2"/>
       <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -3003,28 +3077,28 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA20" s="2" t="n">
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB20" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="AB20" s="2" t="n">
+      <c r="AC20" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="AC20" s="2" t="n">
+      <c r="AD20" s="2" t="n">
         <v>0.485148514851485</v>
       </c>
-      <c r="AD20" s="2" t="n">
+      <c r="AE20" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="AE20" s="2" t="n">
+      <c r="AF20" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="AF20" s="2" t="n">
+      <c r="AG20" s="2" t="n">
         <v>0.46</v>
       </c>
-      <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
@@ -3037,113 +3111,116 @@
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
-      <c r="AT20" s="2" t="n">
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU20" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="AV20" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX20" s="2"/>
-      <c r="AY20" s="2" t="n">
-        <v>12</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY20" s="2"/>
       <c r="AZ20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="BA20" s="2"/>
-      <c r="BB20" s="2" t="n">
-        <v>46.8</v>
-      </c>
+      <c r="BA20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB20" s="2"/>
       <c r="BC20" s="2" t="n">
         <v>46.8</v>
       </c>
-      <c r="BD20" s="2"/>
+      <c r="BD20" s="2" t="n">
+        <v>46.8</v>
+      </c>
       <c r="BE20" s="2"/>
       <c r="BF20" s="2"/>
       <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="J21" s="2" t="n">
         <v>5.6</v>
       </c>
-      <c r="J21" s="2" t="n">
+      <c r="K21" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="K21" s="2" t="n">
+      <c r="L21" s="2" t="n">
         <v>18.1</v>
       </c>
-      <c r="L21" s="2" t="n">
+      <c r="M21" s="2" t="n">
         <v>5.6</v>
       </c>
-      <c r="M21" s="2" t="n">
+      <c r="N21" s="2" t="n">
         <v>169</v>
       </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="2"/>
+      <c r="T21" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA21" s="2" t="n">
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB21" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="AB21" s="2" t="n">
+      <c r="AC21" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="AC21" s="2" t="n">
+      <c r="AD21" s="2" t="n">
         <v>0.512048192771084</v>
       </c>
-      <c r="AD21" s="2" t="n">
+      <c r="AE21" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="AE21" s="2" t="n">
+      <c r="AF21" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="AF21" s="2" t="n">
+      <c r="AG21" s="2" t="n">
         <v>0.487654320987654</v>
       </c>
-      <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
@@ -3156,119 +3233,122 @@
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
       <c r="AS21" s="2"/>
-      <c r="AT21" s="2" t="n">
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU21" s="2"/>
-      <c r="AV21" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AV21" s="2"/>
       <c r="AW21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX21" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AX21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY21" s="2" t="n">
         <v>12.2501483679525</v>
       </c>
-      <c r="AY21" s="2" t="n">
+      <c r="AZ21" s="2" t="n">
         <v>12.2</v>
       </c>
-      <c r="AZ21" s="2" t="n">
+      <c r="BA21" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BA21" s="2" t="n">
+      <c r="BB21" s="2" t="n">
         <v>45.5044510385757</v>
       </c>
-      <c r="BB21" s="2" t="n">
+      <c r="BC21" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="BC21" s="2" t="n">
+      <c r="BD21" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="BD21" s="2"/>
       <c r="BE21" s="2"/>
-      <c r="BF21" s="2" t="n">
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2" t="n">
         <v>12.2501483679525</v>
       </c>
-      <c r="BG21" s="2" t="n">
+      <c r="BH21" s="2" t="n">
         <v>45.5044510385757</v>
       </c>
-      <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="2" t="n">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="2" t="n">
         <v>25.6</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="J22" s="2" t="n">
         <v>6.6</v>
       </c>
-      <c r="J22" s="2" t="n">
+      <c r="K22" s="2" t="n">
         <v>168</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="L22" s="2" t="n">
         <v>25.1</v>
       </c>
-      <c r="L22" s="2" t="n">
+      <c r="M22" s="2" t="n">
         <v>6.1</v>
       </c>
-      <c r="M22" s="2" t="n">
+      <c r="N22" s="2" t="n">
         <v>169</v>
       </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="2"/>
+      <c r="T22" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA22" s="2" t="n">
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB22" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="AB22" s="2" t="n">
+      <c r="AC22" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="AC22" s="2" t="n">
+      <c r="AD22" s="2" t="n">
         <v>0.50625</v>
       </c>
-      <c r="AD22" s="2" t="n">
+      <c r="AE22" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="AE22" s="2" t="n">
+      <c r="AF22" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="AF22" s="2" t="n">
+      <c r="AG22" s="2" t="n">
         <v>0.46583850931677</v>
       </c>
-      <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
@@ -3281,399 +3361,408 @@
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
-      <c r="AT22" s="2" t="n">
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AV22" s="2"/>
       <c r="AW22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX22" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY22" s="2" t="n">
         <v>12.2501483679525</v>
       </c>
-      <c r="AY22" s="2" t="n">
+      <c r="AZ22" s="2" t="n">
         <v>12.2</v>
       </c>
-      <c r="AZ22" s="2" t="n">
+      <c r="BA22" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BA22" s="2" t="n">
+      <c r="BB22" s="2" t="n">
         <v>45.5044510385757</v>
       </c>
-      <c r="BB22" s="2" t="n">
+      <c r="BC22" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="BC22" s="2" t="n">
+      <c r="BD22" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="BD22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="2" t="n">
+      <c r="BE22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2" t="n">
         <v>12.2501483679525</v>
       </c>
-      <c r="BG22" s="2" t="n">
+      <c r="BH22" s="2" t="n">
         <v>45.5044510385757</v>
       </c>
-      <c r="BH22" s="2"/>
       <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="2" t="n">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="2" t="n">
         <v>54.4</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="n">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="K23" s="2" t="n">
+      <c r="L23" s="2" t="n">
         <v>54.4</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2" t="n">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="N23" s="2" t="n">
+      <c r="O23" s="2" t="n">
         <v>36.3</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="P23" s="2" t="n">
         <v>13.19</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="Q23" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="Q23" s="2" t="n">
+      <c r="R23" s="2" t="n">
         <v>38.3</v>
       </c>
-      <c r="R23" s="2" t="n">
+      <c r="S23" s="2" t="n">
         <v>12.82</v>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="T23" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA23" s="2" t="n">
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB23" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="AB23" s="2" t="n">
+      <c r="AC23" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="AC23" s="2" t="n">
+      <c r="AD23" s="2" t="n">
         <v>0.632352941176471</v>
       </c>
-      <c r="AD23" s="2" t="n">
+      <c r="AE23" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="AE23" s="2" t="n">
+      <c r="AF23" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="AF23" s="2" t="n">
+      <c r="AG23" s="2" t="n">
         <v>0.506849315068493</v>
       </c>
-      <c r="AG23" s="2" t="n">
+      <c r="AH23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="AH23" s="2" t="n">
+      <c r="AI23" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AI23" s="2" t="n">
+      <c r="AJ23" s="2" t="n">
         <v>0.275</v>
       </c>
-      <c r="AJ23" s="2" t="n">
+      <c r="AK23" s="2" t="n">
         <v>0.176470588235294</v>
       </c>
-      <c r="AK23" s="2" t="n">
+      <c r="AL23" s="2" t="n">
         <v>0.323529411764706</v>
       </c>
-      <c r="AL23" s="2" t="n">
+      <c r="AM23" s="2" t="n">
         <v>0.205479452054795</v>
       </c>
-      <c r="AM23" s="2" t="n">
+      <c r="AN23" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="AN23" s="2" t="n">
+      <c r="AO23" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="AO23" s="2" t="n">
+      <c r="AP23" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="AP23" s="2" t="n">
+      <c r="AQ23" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
-      <c r="AT23" s="2" t="n">
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AV23" s="2"/>
       <c r="AW23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
       <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
-      <c r="BD23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
       <c r="BH23" s="2"/>
       <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="2" t="n">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="2" t="n">
         <v>57.3</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="n">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="K24" s="2" t="n">
+      <c r="L24" s="2" t="n">
         <v>57.3</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2" t="n">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="N24" s="2" t="n">
+      <c r="O24" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="P24" s="2" t="n">
         <v>13.06</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="Q24" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="Q24" s="2" t="n">
+      <c r="R24" s="2" t="n">
         <v>34.5</v>
       </c>
-      <c r="R24" s="2" t="n">
+      <c r="S24" s="2" t="n">
         <v>13.43</v>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="T24" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA24" s="2" t="n">
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB24" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="AB24" s="2" t="n">
+      <c r="AC24" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="AC24" s="2" t="n">
+      <c r="AD24" s="2" t="n">
         <v>0.762376237623762</v>
       </c>
-      <c r="AD24" s="2" t="n">
+      <c r="AE24" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="AE24" s="2" t="n">
+      <c r="AF24" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="AF24" s="2" t="n">
+      <c r="AG24" s="2" t="n">
         <v>0.673913043478261</v>
       </c>
-      <c r="AG24" s="2" t="n">
+      <c r="AH24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AH24" s="2" t="n">
+      <c r="AI24" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="AI24" s="2" t="n">
+      <c r="AJ24" s="2" t="n">
         <v>0.294117647058824</v>
       </c>
-      <c r="AJ24" s="2" t="n">
+      <c r="AK24" s="2" t="n">
         <v>0.340425531914894</v>
       </c>
-      <c r="AK24" s="2" t="n">
+      <c r="AL24" s="2" t="n">
         <v>0.297029702970297</v>
       </c>
-      <c r="AL24" s="2" t="n">
+      <c r="AM24" s="2" t="n">
         <v>0.347826086956522</v>
       </c>
-      <c r="AM24" s="2" t="n">
+      <c r="AN24" s="2" t="n">
         <v>73</v>
-      </c>
-      <c r="AN24" s="2" t="n">
-        <v>64</v>
       </c>
       <c r="AO24" s="2" t="n">
         <v>64</v>
       </c>
       <c r="AP24" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AQ24" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
-      <c r="AT24" s="2" t="n">
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AV24" s="2"/>
       <c r="AW24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AX24" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="AY24" s="2"/>
       <c r="AZ24" s="2"/>
       <c r="BA24" s="2"/>
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
-      <c r="BD24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="BE24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2"/>
       <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="2" t="n">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="2" t="n">
         <v>57.6</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="J25" s="2" t="n">
         <v>8.19</v>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="K25" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="L25" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="M25" s="2" t="n">
         <v>8.27</v>
       </c>
-      <c r="M25" s="2" t="n">
+      <c r="N25" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="2"/>
+      <c r="U25" s="2" t="n">
         <v>-22.1</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="V25" s="2" t="n">
         <v>15.14</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="W25" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="X25" s="2" t="n">
         <v>-18.8</v>
       </c>
-      <c r="X25" s="2" t="n">
+      <c r="Y25" s="2" t="n">
         <v>15.91</v>
       </c>
-      <c r="Y25" s="2" t="n">
+      <c r="Z25" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="Z25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA25" s="2" t="n">
+      <c r="AA25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB25" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="AB25" s="2" t="n">
+      <c r="AC25" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="AC25" s="2" t="n">
+      <c r="AD25" s="2" t="n">
         <v>0.590909090909091</v>
       </c>
-      <c r="AD25" s="2" t="n">
+      <c r="AE25" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="AE25" s="2" t="n">
+      <c r="AF25" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="AF25" s="2" t="n">
+      <c r="AG25" s="2" t="n">
         <v>0.484076433121019</v>
       </c>
-      <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
@@ -3686,68 +3775,71 @@
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
-      <c r="AT25" s="2" t="n">
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU25" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="AV25" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX25" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AX25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY25" s="2" t="n">
         <v>14.5990353697749</v>
       </c>
-      <c r="AY25" s="2" t="n">
+      <c r="AZ25" s="2" t="n">
         <v>14.7</v>
       </c>
-      <c r="AZ25" s="2" t="n">
+      <c r="BA25" s="2" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA25" s="2" t="n">
+      <c r="BB25" s="2" t="n">
         <v>58.9961414790997</v>
       </c>
-      <c r="BB25" s="2" t="n">
+      <c r="BC25" s="2" t="n">
         <v>59.4</v>
       </c>
-      <c r="BC25" s="2" t="n">
+      <c r="BD25" s="2" t="n">
         <v>58.6</v>
       </c>
-      <c r="BD25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2" t="n">
+      <c r="BE25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2" t="n">
         <v>14.5990353697749</v>
       </c>
-      <c r="BG25" s="2" t="n">
+      <c r="BH25" s="2" t="n">
         <v>58.9961414790997</v>
       </c>
-      <c r="BH25" s="2"/>
       <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -3765,28 +3857,28 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA26" s="2" t="n">
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB26" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="AB26" s="2" t="n">
+      <c r="AC26" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="AC26" s="2" t="n">
+      <c r="AD26" s="2" t="n">
         <v>0.642857142857143</v>
       </c>
-      <c r="AD26" s="2" t="n">
+      <c r="AE26" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="AE26" s="2" t="n">
+      <c r="AF26" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="AF26" s="2" t="n">
+      <c r="AG26" s="2" t="n">
         <v>0.528662420382166</v>
       </c>
-      <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
@@ -3799,117 +3891,120 @@
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
-      <c r="AT26" s="2" t="n">
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU26" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="AV26" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2" t="n">
         <v>14.7</v>
       </c>
-      <c r="AZ26" s="2" t="n">
+      <c r="BA26" s="2" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2" t="n">
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2" t="n">
         <v>59.4</v>
       </c>
-      <c r="BC26" s="2" t="n">
+      <c r="BD26" s="2" t="n">
         <v>58.6</v>
       </c>
-      <c r="BD26" s="2"/>
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
       <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="2" t="n">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="2" t="n">
         <v>59.3</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="J27" s="2" t="n">
         <v>10.9</v>
       </c>
-      <c r="J27" s="2" t="n">
+      <c r="K27" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="L27" s="2" t="n">
         <v>58.2</v>
       </c>
-      <c r="L27" s="2" t="n">
+      <c r="M27" s="2" t="n">
         <v>9.4</v>
       </c>
-      <c r="M27" s="2" t="n">
+      <c r="N27" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="N27" s="2" t="n">
+      <c r="O27" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="R27" s="2" t="n">
         <v>37.4</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="U27" s="2" t="n">
         <v>-23.9</v>
       </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="2"/>
+      <c r="W27" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="X27" s="2" t="n">
         <v>-21.6</v>
       </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2" t="n">
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="Z27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="2" t="n">
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2" t="n">
         <v>0.69</v>
       </c>
-      <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="2" t="n">
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
@@ -3922,125 +4017,128 @@
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
       <c r="AS27" s="2"/>
-      <c r="AT27" s="2" t="n">
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="AV27" s="2"/>
       <c r="AW27" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX27" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AX27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY27" s="2" t="n">
         <v>13.0060869565217</v>
       </c>
-      <c r="AY27" s="2" t="n">
+      <c r="AZ27" s="2" t="n">
         <v>12.9</v>
       </c>
-      <c r="AZ27" s="2" t="n">
+      <c r="BA27" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BA27" s="2" t="n">
+      <c r="BB27" s="2" t="n">
         <v>56.1304347826087</v>
       </c>
-      <c r="BB27" s="2" t="n">
+      <c r="BC27" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="BC27" s="2" t="n">
+      <c r="BD27" s="2" t="n">
         <v>56.6</v>
       </c>
-      <c r="BD27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE27" s="2"/>
-      <c r="BF27" s="2" t="n">
+      <c r="BE27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2" t="n">
         <v>13.0060869565217</v>
       </c>
-      <c r="BG27" s="2" t="n">
+      <c r="BH27" s="2" t="n">
         <v>56.1304347826087</v>
       </c>
-      <c r="BH27" s="2"/>
       <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="2" t="n">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="2" t="n">
         <v>59.8</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="J28" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="J28" s="2" t="n">
+      <c r="K28" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="L28" s="2" t="n">
         <v>58.2</v>
       </c>
-      <c r="L28" s="2" t="n">
+      <c r="M28" s="2" t="n">
         <v>9.4</v>
       </c>
-      <c r="M28" s="2" t="n">
+      <c r="N28" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="O28" s="2" t="n">
         <v>34.4</v>
       </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="R28" s="2" t="n">
         <v>37.4</v>
       </c>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="2"/>
+      <c r="T28" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="U28" s="2" t="n">
         <v>-24.6</v>
       </c>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="2"/>
+      <c r="W28" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="X28" s="2" t="n">
         <v>-21.6</v>
       </c>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2" t="n">
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="Z28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA28" s="2"/>
+      <c r="AA28" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="AB28" s="2"/>
-      <c r="AC28" s="2" t="n">
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2" t="n">
         <v>0.69</v>
       </c>
-      <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AF28" s="2" t="n">
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
@@ -4053,123 +4151,126 @@
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
       <c r="AS28" s="2"/>
-      <c r="AT28" s="2" t="n">
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="AV28" s="2"/>
       <c r="AW28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX28" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AX28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY28" s="2" t="n">
         <v>13.0025210084034</v>
       </c>
-      <c r="AY28" s="2" t="n">
+      <c r="AZ28" s="2" t="n">
         <v>12.9</v>
       </c>
-      <c r="AZ28" s="2" t="n">
+      <c r="BA28" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BA28" s="2" t="n">
+      <c r="BB28" s="2" t="n">
         <v>48.7529411764706</v>
       </c>
-      <c r="BB28" s="2" t="n">
+      <c r="BC28" s="2" t="n">
         <v>40.5</v>
       </c>
-      <c r="BC28" s="2" t="n">
+      <c r="BD28" s="2" t="n">
         <v>56.6</v>
       </c>
-      <c r="BD28" s="2"/>
       <c r="BE28" s="2"/>
-      <c r="BF28" s="2" t="n">
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2" t="n">
         <v>13.0025210084034</v>
       </c>
-      <c r="BG28" s="2" t="n">
+      <c r="BH28" s="2" t="n">
         <v>48.7529411764706</v>
       </c>
-      <c r="BH28" s="2"/>
       <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="2" t="n">
         <v>57.9</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="J29" s="2" t="n">
         <v>10.1</v>
       </c>
-      <c r="J29" s="2" t="n">
+      <c r="K29" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="L29" s="2" t="n">
         <v>58.2</v>
       </c>
-      <c r="L29" s="2" t="n">
+      <c r="M29" s="2" t="n">
         <v>9.4</v>
       </c>
-      <c r="M29" s="2" t="n">
+      <c r="N29" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="N29" s="2" t="n">
+      <c r="O29" s="2" t="n">
         <v>36.4</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2" t="n">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="Q29" s="2" t="n">
+      <c r="R29" s="2" t="n">
         <v>37.4</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="2"/>
+      <c r="T29" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="U29" s="2" t="n">
         <v>-22.6</v>
       </c>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="2"/>
+      <c r="W29" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="X29" s="2" t="n">
         <v>-21.6</v>
       </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2" t="n">
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="Z29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA29" s="2"/>
+      <c r="AA29" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="2" t="n">
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
-      <c r="AF29" s="2" t="n">
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
@@ -4182,64 +4283,67 @@
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
-      <c r="AT29" s="2" t="n">
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="AV29" s="2"/>
       <c r="AW29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX29" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AX29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY29" s="2" t="n">
         <v>13.0510460251046</v>
       </c>
-      <c r="AY29" s="2" t="n">
+      <c r="AZ29" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="AZ29" s="2" t="n">
+      <c r="BA29" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BA29" s="2" t="n">
+      <c r="BB29" s="2" t="n">
         <v>54.3970711297071</v>
       </c>
-      <c r="BB29" s="2" t="n">
+      <c r="BC29" s="2" t="n">
         <v>52.1</v>
       </c>
-      <c r="BC29" s="2" t="n">
+      <c r="BD29" s="2" t="n">
         <v>56.6</v>
       </c>
-      <c r="BD29" s="2"/>
       <c r="BE29" s="2"/>
-      <c r="BF29" s="2" t="n">
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2" t="n">
         <v>13.0510460251046</v>
       </c>
-      <c r="BG29" s="2" t="n">
+      <c r="BH29" s="2" t="n">
         <v>54.3970711297071</v>
       </c>
-      <c r="BH29" s="2"/>
       <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -4257,28 +4361,28 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA30" s="2" t="n">
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB30" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AB30" s="2" t="n">
+      <c r="AC30" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="AC30" s="2" t="n">
+      <c r="AD30" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD30" s="2" t="n">
+      <c r="AE30" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AE30" s="2" t="n">
+      <c r="AF30" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="AF30" s="2" t="n">
+      <c r="AG30" s="2" t="n">
         <v>0.375</v>
       </c>
-      <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
@@ -4291,58 +4395,61 @@
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
-      <c r="AT30" s="2" t="n">
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU30" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="AV30" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX30" s="2"/>
-      <c r="AY30" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="AX30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2" t="n">
         <v>16.55</v>
       </c>
-      <c r="AZ30" s="2" t="n">
+      <c r="BA30" s="2" t="n">
         <v>16.35</v>
       </c>
-      <c r="BA30" s="2"/>
-      <c r="BB30" s="2" t="n">
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="BC30" s="2" t="n">
+      <c r="BD30" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="BD30" s="2"/>
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
       <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -4360,28 +4467,28 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA31" s="2" t="n">
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB31" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AB31" s="2" t="n">
+      <c r="AC31" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AC31" s="2" t="n">
+      <c r="AD31" s="2" t="n">
         <v>0.571428571428571</v>
       </c>
-      <c r="AD31" s="2" t="n">
+      <c r="AE31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AE31" s="2" t="n">
+      <c r="AF31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AF31" s="2" t="n">
+      <c r="AG31" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
@@ -4394,17 +4501,17 @@
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
-      <c r="AT31" s="2" t="n">
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AU31" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX31" s="2"/>
+      <c r="AV31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
@@ -4416,26 +4523,29 @@
       <c r="BG31" s="2"/>
       <c r="BH31" s="2"/>
       <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -4453,28 +4563,28 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA32" s="2" t="n">
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="AB32" s="2" t="n">
+      <c r="AC32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AC32" s="2" t="n">
+      <c r="AD32" s="2" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="AD32" s="2" t="n">
+      <c r="AE32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AE32" s="2" t="n">
+      <c r="AF32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AF32" s="2" t="n">
+      <c r="AG32" s="2" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
@@ -4487,17 +4597,17 @@
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
-      <c r="AT32" s="2" t="n">
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AU32" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX32" s="2"/>
+      <c r="AV32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
@@ -4509,26 +4619,29 @@
       <c r="BG32" s="2"/>
       <c r="BH32" s="2"/>
       <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -4546,28 +4659,28 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA33" s="2" t="n">
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB33" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="AB33" s="2" t="n">
+      <c r="AC33" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="AC33" s="2" t="n">
+      <c r="AD33" s="2" t="n">
         <v>0.521276595744681</v>
       </c>
-      <c r="AD33" s="2" t="n">
+      <c r="AE33" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="AE33" s="2" t="n">
+      <c r="AF33" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="AF33" s="2" t="n">
+      <c r="AG33" s="2" t="n">
         <v>0.482758620689655</v>
       </c>
-      <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
@@ -4580,58 +4693,61 @@
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
-      <c r="AT33" s="2" t="n">
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU33" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="AV33" s="2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="AX33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2" t="n">
         <v>14.9</v>
       </c>
-      <c r="AZ33" s="2" t="n">
+      <c r="BA33" s="2" t="n">
         <v>15.1</v>
       </c>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2" t="n">
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2" t="n">
         <v>58.9</v>
       </c>
-      <c r="BC33" s="2" t="n">
+      <c r="BD33" s="2" t="n">
         <v>65.5</v>
       </c>
-      <c r="BD33" s="2"/>
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="2"/>
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -4649,28 +4765,28 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA34" s="2" t="n">
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB34" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="AB34" s="2" t="n">
+      <c r="AC34" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="AC34" s="2" t="n">
+      <c r="AD34" s="2" t="n">
         <v>0.655555555555556</v>
       </c>
-      <c r="AD34" s="2" t="n">
+      <c r="AE34" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="AE34" s="2" t="n">
+      <c r="AF34" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="AF34" s="2" t="n">
+      <c r="AG34" s="2" t="n">
         <v>0.482758620689655</v>
       </c>
-      <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
@@ -4683,58 +4799,61 @@
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
-      <c r="AT34" s="2" t="n">
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU34" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="AV34" s="2" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="AX34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2" t="n">
         <v>14.8</v>
       </c>
-      <c r="AZ34" s="2" t="n">
+      <c r="BA34" s="2" t="n">
         <v>15.1</v>
       </c>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2" t="n">
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2" t="n">
         <v>62.4</v>
       </c>
-      <c r="BC34" s="2" t="n">
+      <c r="BD34" s="2" t="n">
         <v>65.5</v>
       </c>
-      <c r="BD34" s="2"/>
       <c r="BE34" s="2"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
       <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -4752,28 +4871,28 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA35" s="2" t="n">
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB35" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AB35" s="2" t="n">
+      <c r="AC35" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="AC35" s="2" t="n">
+      <c r="AD35" s="2" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="AD35" s="2" t="n">
+      <c r="AE35" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AE35" s="2" t="n">
+      <c r="AF35" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="AF35" s="2" t="n">
+      <c r="AG35" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
@@ -4786,82 +4905,85 @@
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
-      <c r="AT35" s="2" t="n">
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AU35" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="AV35" s="2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AW35" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX35" s="2"/>
-      <c r="AY35" s="2" t="n">
-        <v>15.66</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AX35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY35" s="2"/>
       <c r="AZ35" s="2" t="n">
         <v>15.66</v>
       </c>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2" t="n">
-        <v>67</v>
-      </c>
+      <c r="BA35" s="2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="BB35" s="2"/>
       <c r="BC35" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD35" s="2"/>
+      <c r="BD35" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="BE35" s="2"/>
       <c r="BF35" s="2"/>
       <c r="BG35" s="2"/>
       <c r="BH35" s="2"/>
       <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2" t="n">
+      <c r="J36" s="2"/>
+      <c r="K36" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2" t="n">
+      <c r="M36" s="2"/>
+      <c r="N36" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="N36" s="2" t="n">
+      <c r="O36" s="2" t="n">
         <v>13.3</v>
       </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2" t="n">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="Q36" s="2" t="n">
+      <c r="R36" s="2" t="n">
         <v>17.2</v>
       </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="2"/>
+      <c r="T36" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -4887,18 +5009,16 @@
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
       <c r="AS36" s="2"/>
-      <c r="AT36" s="2" t="n">
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AU36" s="2"/>
-      <c r="AV36" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="AV36" s="2"/>
       <c r="AW36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX36" s="2" t="n">
-        <v>17.8</v>
+        <v>139</v>
+      </c>
+      <c r="AX36" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AY36" s="2" t="n">
         <v>17.8</v>
@@ -4907,7 +5027,7 @@
         <v>17.8</v>
       </c>
       <c r="BA36" s="2" t="n">
-        <v>70</v>
+        <v>17.8</v>
       </c>
       <c r="BB36" s="2" t="n">
         <v>70</v>
@@ -4915,38 +5035,43 @@
       <c r="BC36" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="BD36" s="2"/>
+      <c r="BD36" s="2" t="n">
+        <v>70</v>
+      </c>
       <c r="BE36" s="2"/>
-      <c r="BF36" s="2" t="n">
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2" t="n">
         <v>17.8</v>
       </c>
-      <c r="BG36" s="2" t="n">
+      <c r="BH36" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="BH36" s="2"/>
       <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -4981,26 +5106,26 @@
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
-      <c r="AQ37" s="2" t="n">
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="AR37" s="2"/>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2"/>
-      <c r="AV37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW37" s="2"/>
-      <c r="AX37" s="2" t="n">
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2" t="n">
         <v>13.5</v>
       </c>
-      <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
-      <c r="BA37" s="2" t="n">
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
       <c r="BD37" s="2"/>
       <c r="BE37" s="2"/>
@@ -5008,35 +5133,48 @@
       <c r="BG37" s="2"/>
       <c r="BH37" s="2"/>
       <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>58</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>59.64</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>111</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="O38" s="2" t="n">
+        <v>42.06</v>
+      </c>
+      <c r="P38" s="2" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="Q38" s="2" t="n">
+        <v>111</v>
+      </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -5045,124 +5183,111 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA38" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="AB38" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="AC38" s="2" t="n">
-        <v>0.605504587155963</v>
-      </c>
-      <c r="AD38" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="AE38" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="AF38" s="2" t="n">
-        <v>0.348214285714286</v>
-      </c>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
+      <c r="AH38" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
+      <c r="AJ38" s="2" t="n">
+        <v>0.108108108108108</v>
+      </c>
       <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
+      <c r="AL38" s="2" t="n">
+        <v>0.108108108108108</v>
+      </c>
       <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="2"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV38" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="AR38" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS38" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
       <c r="AW38" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="AX38" s="2"/>
       <c r="AY38" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="AZ38" s="2" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
       <c r="BB38" s="2" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="BC38" s="2" t="n">
-        <v>54.4</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BC38" s="2"/>
       <c r="BD38" s="2"/>
       <c r="BE38" s="2"/>
       <c r="BF38" s="2"/>
       <c r="BG38" s="2"/>
       <c r="BH38" s="2"/>
-      <c r="BI38" s="2"/>
+      <c r="BI38" s="2" t="n">
+        <v>-2.56642335766423</v>
+      </c>
+      <c r="BJ38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>78.69</v>
+      </c>
       <c r="J39" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="K39" s="2"/>
+        <v>10.59</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>111</v>
+      </c>
       <c r="L39" s="2"/>
-      <c r="M39" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="O39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2" t="n">
+        <v>67.96</v>
+      </c>
       <c r="P39" s="2" t="n">
-        <v>82</v>
+        <v>14.18</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>37.24</v>
+        <v>111</v>
       </c>
       <c r="R39" s="2"/>
-      <c r="S39" s="2" t="n">
-        <v>44</v>
-      </c>
+      <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -5170,115 +5295,112 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
+      <c r="AH39" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
+      <c r="AJ39" s="2" t="n">
+        <v>0.045045045045045</v>
+      </c>
       <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
+      <c r="AL39" s="2" t="n">
+        <v>0.045045045045045</v>
+      </c>
       <c r="AM39" s="2"/>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
+      <c r="AR39" s="2" t="n">
+        <v>56</v>
+      </c>
       <c r="AS39" s="2"/>
-      <c r="AT39" s="2" t="n">
-        <v>8</v>
-      </c>
+      <c r="AT39" s="2"/>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
       <c r="AW39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX39" s="2" t="n">
-        <v>12.3349206349206</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AX39" s="2"/>
       <c r="AY39" s="2" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AZ39" s="2" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="BA39" s="2" t="n">
-        <v>50.8126984126984</v>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
       <c r="BB39" s="2" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="BC39" s="2" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="BD39" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
       <c r="BE39" s="2"/>
-      <c r="BF39" s="2" t="n">
-        <v>12.3349206349206</v>
-      </c>
-      <c r="BG39" s="2" t="n">
-        <v>50.8126984126984</v>
-      </c>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
       <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
+      <c r="BI39" s="2" t="n">
+        <v>-0.866370609608398</v>
+      </c>
+      <c r="BJ39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2" t="n">
-        <v>85</v>
-      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>35.39</v>
-      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="Q40" s="2" t="n">
-        <v>38.76</v>
-      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2" t="n">
-        <v>41</v>
-      </c>
+      <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2" t="s">
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
+      <c r="AB40" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="AC40" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="AD40" s="2" t="n">
+        <v>0.605504587155963</v>
+      </c>
+      <c r="AE40" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="AF40" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="AG40" s="2" t="n">
+        <v>0.348214285714286</v>
+      </c>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
@@ -5291,101 +5413,94 @@
       <c r="AQ40" s="2"/>
       <c r="AR40" s="2"/>
       <c r="AS40" s="2"/>
-      <c r="AT40" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV40" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="AW40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX40" s="2" t="n">
-        <v>12.0384615384615</v>
-      </c>
-      <c r="AY40" s="2" t="n">
-        <v>11.9</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AX40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY40" s="2"/>
       <c r="AZ40" s="2" t="n">
-        <v>12.3</v>
+        <v>14.6</v>
       </c>
       <c r="BA40" s="2" t="n">
-        <v>50.1730769230769</v>
-      </c>
-      <c r="BB40" s="2" t="n">
-        <v>50</v>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="BB40" s="2"/>
       <c r="BC40" s="2" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="BD40" s="2"/>
+        <v>54.4</v>
+      </c>
+      <c r="BD40" s="2" t="n">
+        <v>54.4</v>
+      </c>
       <c r="BE40" s="2"/>
-      <c r="BF40" s="2" t="n">
-        <v>12.0384615384615</v>
-      </c>
-      <c r="BG40" s="2" t="n">
-        <v>50.1730769230769</v>
-      </c>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
       <c r="BH40" s="2"/>
       <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="K41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2" t="n">
+        <v>82</v>
+      </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2" t="n">
-        <v>27</v>
-      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="O41" s="2" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="R41" s="2" t="n">
+        <v>37.24</v>
+      </c>
+      <c r="S41" s="2"/>
       <c r="T41" s="2" t="n">
-        <v>-16.5</v>
-      </c>
-      <c r="U41" s="2" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="V41" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="W41" s="2" t="n">
-        <v>-11.9</v>
-      </c>
-      <c r="X41" s="2" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>27</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
+      <c r="AA41" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
@@ -5404,102 +5519,105 @@
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
       <c r="AS41" s="2"/>
-      <c r="AT41" s="2" t="n">
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX41" s="2" t="n">
-        <v>14.5928571428571</v>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="AY41" s="2" t="n">
-        <v>14.4</v>
+        <v>12.3349206349206</v>
       </c>
       <c r="AZ41" s="2" t="n">
-        <v>14.8</v>
+        <v>12.3</v>
       </c>
       <c r="BA41" s="2" t="n">
-        <v>60.7446428571429</v>
+        <v>12.4</v>
       </c>
       <c r="BB41" s="2" t="n">
-        <v>55.2</v>
+        <v>50.8126984126984</v>
       </c>
       <c r="BC41" s="2" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="BD41" s="2"/>
-      <c r="BE41" s="2"/>
-      <c r="BF41" s="2" t="n">
-        <v>14.5928571428571</v>
-      </c>
+        <v>47.6</v>
+      </c>
+      <c r="BD41" s="2" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="BE41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF41" s="2"/>
       <c r="BG41" s="2" t="n">
-        <v>60.7446428571429</v>
-      </c>
-      <c r="BH41" s="2"/>
+        <v>12.3349206349206</v>
+      </c>
+      <c r="BH41" s="2" t="n">
+        <v>50.8126984126984</v>
+      </c>
       <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2" t="n">
+        <v>85</v>
+      </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="N42" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="O42" s="2" t="n">
+        <v>35.39</v>
+      </c>
       <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
+      <c r="Q42" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>38.76</v>
+      </c>
       <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
+      <c r="T42" s="2" t="n">
+        <v>41</v>
+      </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA42" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB42" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC42" s="2" t="n">
-        <v>0.517241379310345</v>
-      </c>
-      <c r="AD42" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE42" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF42" s="2" t="n">
-        <v>0.407407407407407</v>
-      </c>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
@@ -5513,84 +5631,103 @@
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
       <c r="AS42" s="2"/>
-      <c r="AT42" s="2" t="n">
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="AY42" s="2" t="n">
-        <v>14.4</v>
+        <v>12.0384615384615</v>
       </c>
       <c r="AZ42" s="2" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="BA42" s="2"/>
+        <v>11.9</v>
+      </c>
+      <c r="BA42" s="2" t="n">
+        <v>12.3</v>
+      </c>
       <c r="BB42" s="2" t="n">
-        <v>55.2</v>
+        <v>50.1730769230769</v>
       </c>
       <c r="BC42" s="2" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="BD42" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="BD42" s="2" t="n">
+        <v>50.5</v>
+      </c>
       <c r="BE42" s="2"/>
       <c r="BF42" s="2"/>
-      <c r="BG42" s="2"/>
-      <c r="BH42" s="2"/>
+      <c r="BG42" s="2" t="n">
+        <v>12.0384615384615</v>
+      </c>
+      <c r="BH42" s="2" t="n">
+        <v>50.1730769230769</v>
+      </c>
       <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>59</v>
+      </c>
       <c r="E43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H43" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="K43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2" t="n">
+        <v>29</v>
+      </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2" t="n">
+        <v>27</v>
+      </c>
       <c r="O43" s="2"/>
-      <c r="P43" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2" t="n">
+        <v>29</v>
+      </c>
       <c r="R43" s="2"/>
-      <c r="S43" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="U43" s="2" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W43" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="X43" s="2" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="Y43" s="2" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="Z43" s="2" t="n">
+        <v>27</v>
+      </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -5607,55 +5744,70 @@
       <c r="AN43" s="2"/>
       <c r="AO43" s="2"/>
       <c r="AP43" s="2"/>
-      <c r="AQ43" s="2" t="n">
-        <v>75</v>
-      </c>
+      <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW43" s="2"/>
-      <c r="AX43" s="2" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="AY43" s="2"/>
-      <c r="AZ43" s="2"/>
+      <c r="AU43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY43" s="2" t="n">
+        <v>14.5928571428571</v>
+      </c>
+      <c r="AZ43" s="2" t="n">
+        <v>14.4</v>
+      </c>
       <c r="BA43" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
-      <c r="BD43" s="2"/>
+        <v>14.8</v>
+      </c>
+      <c r="BB43" s="2" t="n">
+        <v>60.7446428571429</v>
+      </c>
+      <c r="BC43" s="2" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="BD43" s="2" t="n">
+        <v>66.7</v>
+      </c>
       <c r="BE43" s="2"/>
       <c r="BF43" s="2"/>
-      <c r="BG43" s="2"/>
-      <c r="BH43" s="2"/>
+      <c r="BG43" s="2" t="n">
+        <v>14.5928571428571</v>
+      </c>
+      <c r="BH43" s="2" t="n">
+        <v>60.7446428571429</v>
+      </c>
       <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>60</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -5674,13 +5826,27 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
+      <c r="AA44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB44" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC44" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD44" s="2" t="n">
+        <v>0.517241379310345</v>
+      </c>
+      <c r="AE44" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF44" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG44" s="2" t="n">
+        <v>0.407407407407407</v>
+      </c>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
@@ -5690,67 +5856,84 @@
       <c r="AN44" s="2"/>
       <c r="AO44" s="2"/>
       <c r="AP44" s="2"/>
-      <c r="AQ44" s="2" t="n">
-        <v>77</v>
-      </c>
+      <c r="AQ44" s="2"/>
       <c r="AR44" s="2"/>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
-      <c r="AU44" s="2"/>
-      <c r="AV44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW44" s="2"/>
-      <c r="AX44" s="2" t="n">
-        <v>15</v>
+      <c r="AU44" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV44" s="2"/>
+      <c r="AW44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX44" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="AY44" s="2"/>
-      <c r="AZ44" s="2"/>
+      <c r="AZ44" s="2" t="n">
+        <v>14.4</v>
+      </c>
       <c r="BA44" s="2" t="n">
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="BB44" s="2"/>
-      <c r="BC44" s="2"/>
-      <c r="BD44" s="2"/>
+      <c r="BC44" s="2" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="BD44" s="2" t="n">
+        <v>66.7</v>
+      </c>
       <c r="BE44" s="2"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="2"/>
       <c r="BH44" s="2"/>
       <c r="BI44" s="2"/>
+      <c r="BJ44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
+      <c r="Q45" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+      <c r="T45" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
@@ -5773,26 +5956,26 @@
       <c r="AN45" s="2"/>
       <c r="AO45" s="2"/>
       <c r="AP45" s="2"/>
-      <c r="AQ45" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="AR45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2" t="n">
+        <v>75</v>
+      </c>
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2"/>
-      <c r="AV45" s="2" t="s">
+      <c r="AV45" s="2"/>
+      <c r="AW45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="AW45" s="2"/>
-      <c r="AX45" s="2" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="AY45" s="2"/>
-      <c r="AZ45" s="2"/>
-      <c r="BA45" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
       <c r="BD45" s="2"/>
       <c r="BE45" s="2"/>
@@ -5800,72 +5983,55 @@
       <c r="BG45" s="2"/>
       <c r="BH45" s="2"/>
       <c r="BI45" s="2"/>
+      <c r="BJ45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="L46" s="2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>120</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2" t="n">
-        <v>79</v>
-      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2" t="n">
-        <v>74</v>
-      </c>
+      <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
-      <c r="AC46" s="2" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
-      <c r="AF46" s="2" t="n">
-        <v>0.59</v>
-      </c>
+      <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
@@ -5877,106 +6043,81 @@
       <c r="AO46" s="2"/>
       <c r="AP46" s="2"/>
       <c r="AQ46" s="2"/>
-      <c r="AR46" s="2"/>
+      <c r="AR46" s="2" t="n">
+        <v>77</v>
+      </c>
       <c r="AS46" s="2"/>
-      <c r="AT46" s="2" t="n">
-        <v>12</v>
-      </c>
+      <c r="AT46" s="2"/>
       <c r="AU46" s="2"/>
-      <c r="AV46" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="AV46" s="2"/>
       <c r="AW46" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX46" s="2" t="n">
-        <v>16</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AX46" s="2"/>
       <c r="AY46" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ46" s="2" t="n">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AZ46" s="2"/>
       <c r="BA46" s="2"/>
-      <c r="BB46" s="2"/>
+      <c r="BB46" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="BC46" s="2"/>
-      <c r="BD46" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="BD46" s="2"/>
       <c r="BE46" s="2"/>
-      <c r="BF46" s="2" t="n">
-        <v>16</v>
-      </c>
+      <c r="BF46" s="2"/>
       <c r="BG46" s="2"/>
       <c r="BH46" s="2"/>
       <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="K47" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="L47" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>120</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2" t="n">
-        <v>79</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2" t="n">
-        <v>74</v>
-      </c>
+      <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
-      <c r="AC47" s="2" t="n">
-        <v>0.6</v>
-      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
-      <c r="AF47" s="2" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
@@ -5988,117 +6129,102 @@
       <c r="AO47" s="2"/>
       <c r="AP47" s="2"/>
       <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
+      <c r="AR47" s="2" t="n">
+        <v>96</v>
+      </c>
       <c r="AS47" s="2"/>
-      <c r="AT47" s="2" t="n">
-        <v>12</v>
-      </c>
+      <c r="AT47" s="2"/>
       <c r="AU47" s="2"/>
-      <c r="AV47" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="AV47" s="2"/>
       <c r="AW47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX47" s="2" t="n">
-        <v>16</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AX47" s="2"/>
       <c r="AY47" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ47" s="2" t="n">
-        <v>16</v>
-      </c>
+        <v>16.6</v>
+      </c>
+      <c r="AZ47" s="2"/>
       <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
+      <c r="BB47" s="2" t="n">
+        <v>82</v>
+      </c>
       <c r="BC47" s="2"/>
       <c r="BD47" s="2"/>
       <c r="BE47" s="2"/>
-      <c r="BF47" s="2" t="n">
-        <v>16</v>
-      </c>
+      <c r="BF47" s="2"/>
       <c r="BG47" s="2"/>
       <c r="BH47" s="2"/>
       <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J48" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K48" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="L48" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="M48" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N48" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2" t="n">
         <v>74</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>189</v>
-      </c>
-      <c r="K48" s="2" t="n">
-        <v>64.6</v>
-      </c>
-      <c r="L48" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>187</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="T48" s="2" t="n">
-        <v>-22.84</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="2" t="n">
-        <v>-20.19</v>
-      </c>
+      <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
-      <c r="Z48" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA48" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="AB48" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="AC48" s="2" t="n">
-        <v>0.691891891891892</v>
-      </c>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
       <c r="AD48" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="AE48" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="AF48" s="2" t="n">
-        <v>0.592178770949721</v>
-      </c>
-      <c r="AG48" s="2"/>
+        <v>0.61</v>
+      </c>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2" t="n">
+        <v>0.59</v>
+      </c>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
@@ -6111,97 +6237,108 @@
       <c r="AQ48" s="2"/>
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
-      <c r="AT48" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU48" s="2" t="s">
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AX48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY48" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ48" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA48" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AV48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW48" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX48" s="2"/>
-      <c r="AY48" s="2"/>
-      <c r="AZ48" s="2"/>
-      <c r="BA48" s="2" t="n">
-        <v>51.0324468085106</v>
-      </c>
-      <c r="BB48" s="2" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="BC48" s="2" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="BD48" s="2"/>
-      <c r="BE48" s="2"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="2" t="n">
-        <v>51.0324468085106</v>
+        <v>16</v>
       </c>
       <c r="BH48" s="2"/>
       <c r="BI48" s="2"/>
+      <c r="BJ48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="L49" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="M49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" s="2" t="n">
+        <v>120</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
+      <c r="Q49" s="2" t="n">
+        <v>79</v>
+      </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
+      <c r="T49" s="2" t="n">
+        <v>74</v>
+      </c>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
-      <c r="Z49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA49" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="AB49" s="2" t="n">
-        <v>185</v>
-      </c>
-      <c r="AC49" s="2" t="n">
-        <v>0.632432432432432</v>
-      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
       <c r="AD49" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE49" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="AF49" s="2" t="n">
-        <v>0.53072625698324</v>
-      </c>
-      <c r="AG49" s="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2" t="n">
+        <v>0.61</v>
+      </c>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
@@ -6214,109 +6351,118 @@
       <c r="AQ49" s="2"/>
       <c r="AR49" s="2"/>
       <c r="AS49" s="2"/>
-      <c r="AT49" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU49" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV49" s="2" t="s">
-        <v>167</v>
-      </c>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV49" s="2"/>
       <c r="AW49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX49" s="2"/>
-      <c r="AY49" s="2"/>
-      <c r="AZ49" s="2"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="2" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="BC49" s="2" t="n">
-        <v>44.9</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="AX49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
       <c r="BD49" s="2"/>
       <c r="BE49" s="2"/>
       <c r="BF49" s="2"/>
-      <c r="BG49" s="2"/>
+      <c r="BG49" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="BH49" s="2"/>
       <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>58.8</v>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>10.9</v>
+        <v>64.3</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>57.8</v>
+        <v>189</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>11.1</v>
+        <v>64.6</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="N50" s="2" t="n">
+        <v>187</v>
+      </c>
       <c r="O50" s="2"/>
-      <c r="P50" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2" t="n">
+        <v>185</v>
+      </c>
       <c r="R50" s="2"/>
-      <c r="S50" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="U50" s="2" t="n">
+        <v>-22.84</v>
+      </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
+      <c r="X50" s="2" t="n">
+        <v>-20.19</v>
+      </c>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA50" s="2" t="n">
-        <v>32</v>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="AB50" s="2" t="n">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>0.359550561797753</v>
+        <v>185</v>
       </c>
       <c r="AD50" s="2" t="n">
-        <v>20</v>
+        <v>0.691891891891892</v>
       </c>
       <c r="AE50" s="2" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="AF50" s="2" t="n">
-        <v>0.235294117647059</v>
-      </c>
-      <c r="AG50" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="AG50" s="2" t="n">
+        <v>0.592178770949721</v>
+      </c>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
@@ -6329,66 +6475,61 @@
       <c r="AQ50" s="2"/>
       <c r="AR50" s="2"/>
       <c r="AS50" s="2"/>
-      <c r="AT50" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU50" s="2" t="s">
-        <v>170</v>
+      <c r="AT50" s="2"/>
+      <c r="AU50" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="AV50" s="2" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AW50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX50" s="2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AY50" s="2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AZ50" s="2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="BA50" s="2" t="n">
-        <v>53.4350574712644</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AX50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="2"/>
       <c r="BB50" s="2" t="n">
-        <v>52.8</v>
+        <v>51.0324468085106</v>
       </c>
       <c r="BC50" s="2" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="BD50" s="2"/>
+        <v>57.1</v>
+      </c>
+      <c r="BD50" s="2" t="n">
+        <v>44.9</v>
+      </c>
       <c r="BE50" s="2"/>
-      <c r="BF50" s="2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="BG50" s="2" t="n">
-        <v>53.4350574712644</v>
-      </c>
-      <c r="BH50" s="2"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="2" t="n">
+        <v>51.0324468085106</v>
+      </c>
       <c r="BI50" s="2"/>
+      <c r="BJ50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -6406,28 +6547,28 @@
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
-      <c r="Z51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA51" s="2" t="n">
-        <v>42</v>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AB51" s="2" t="n">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0.471910112359551</v>
+        <v>185</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>38</v>
+        <v>0.632432432432432</v>
       </c>
       <c r="AE51" s="2" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AF51" s="2" t="n">
-        <v>0.447058823529412</v>
-      </c>
-      <c r="AG51" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="AG51" s="2" t="n">
+        <v>0.53072625698324</v>
+      </c>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
@@ -6440,113 +6581,112 @@
       <c r="AQ51" s="2"/>
       <c r="AR51" s="2"/>
       <c r="AS51" s="2"/>
-      <c r="AT51" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU51" s="2" t="s">
-        <v>170</v>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="AV51" s="2" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AW51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX51" s="2"/>
-      <c r="AY51" s="2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AZ51" s="2" t="n">
-        <v>12.1</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AX51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
-      <c r="BB51" s="2" t="n">
-        <v>52.8</v>
-      </c>
+      <c r="BB51" s="2"/>
       <c r="BC51" s="2" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="BD51" s="2"/>
+        <v>57.1</v>
+      </c>
+      <c r="BD51" s="2" t="n">
+        <v>44.9</v>
+      </c>
       <c r="BE51" s="2"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="2"/>
       <c r="BH51" s="2"/>
       <c r="BI51" s="2"/>
+      <c r="BJ51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="I52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>58.8</v>
+      </c>
       <c r="J52" s="2" t="n">
-        <v>131</v>
+        <v>10.9</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="L52" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <v>57.8</v>
+      </c>
       <c r="M52" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>11.1</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <v>85</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
+      <c r="Q52" s="2" t="n">
+        <v>89</v>
+      </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2" t="n">
-        <v>-21.9</v>
+        <v>85</v>
       </c>
       <c r="U52" s="2"/>
-      <c r="V52" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="W52" s="2" t="n">
-        <v>-20.2</v>
-      </c>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA52" s="2" t="n">
-        <v>59</v>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="AB52" s="2" t="n">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="AC52" s="2" t="n">
-        <v>0.457364341085271</v>
+        <v>89</v>
       </c>
       <c r="AD52" s="2" t="n">
-        <v>50</v>
+        <v>0.359550561797753</v>
       </c>
       <c r="AE52" s="2" t="n">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AF52" s="2" t="n">
-        <v>0.378787878787879</v>
-      </c>
-      <c r="AG52" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AG52" s="2" t="n">
+        <v>0.235294117647059</v>
+      </c>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
@@ -6559,66 +6699,69 @@
       <c r="AQ52" s="2"/>
       <c r="AR52" s="2"/>
       <c r="AS52" s="2"/>
-      <c r="AT52" s="2" t="n">
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU52" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="AV52" s="2" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX52" s="2" t="n">
-        <v>12.3</v>
+        <v>79</v>
+      </c>
+      <c r="AX52" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="AY52" s="2" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="AZ52" s="2" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="BA52" s="2" t="n">
-        <v>51.9</v>
+        <v>12.1</v>
       </c>
       <c r="BB52" s="2" t="n">
-        <v>51.9</v>
+        <v>53.4350574712644</v>
       </c>
       <c r="BC52" s="2" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="BD52" s="2"/>
+        <v>52.8</v>
+      </c>
+      <c r="BD52" s="2" t="n">
+        <v>54.1</v>
+      </c>
       <c r="BE52" s="2"/>
-      <c r="BF52" s="2" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="BF52" s="2"/>
       <c r="BG52" s="2" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="BH52" s="2"/>
+        <v>12.1</v>
+      </c>
+      <c r="BH52" s="2" t="n">
+        <v>53.4350574712644</v>
+      </c>
       <c r="BI52" s="2"/>
+      <c r="BJ52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -6636,28 +6779,28 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
-      <c r="Z53" s="2" t="s">
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB53" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC53" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="AA53" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AB53" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="AC53" s="2" t="n">
-        <v>0.627906976744186</v>
-      </c>
       <c r="AD53" s="2" t="n">
-        <v>69</v>
+        <v>0.471910112359551</v>
       </c>
       <c r="AE53" s="2" t="n">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AF53" s="2" t="n">
-        <v>0.522727272727273</v>
-      </c>
-      <c r="AG53" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AG53" s="2" t="n">
+        <v>0.447058823529412</v>
+      </c>
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
@@ -6670,89 +6813,116 @@
       <c r="AQ53" s="2"/>
       <c r="AR53" s="2"/>
       <c r="AS53" s="2"/>
-      <c r="AT53" s="2" t="n">
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AU53" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="AV53" s="2" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX53" s="2"/>
-      <c r="AY53" s="2" t="n">
-        <v>12.3</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AX53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY53" s="2"/>
       <c r="AZ53" s="2" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2" t="n">
-        <v>51.9</v>
-      </c>
+        <v>12.1</v>
+      </c>
+      <c r="BA53" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BB53" s="2"/>
       <c r="BC53" s="2" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="BD53" s="2"/>
+        <v>52.8</v>
+      </c>
+      <c r="BD53" s="2" t="n">
+        <v>54.1</v>
+      </c>
       <c r="BE53" s="2"/>
       <c r="BF53" s="2"/>
       <c r="BG53" s="2"/>
       <c r="BH53" s="2"/>
       <c r="BI53" s="2"/>
+      <c r="BJ53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>68</v>
+      </c>
       <c r="E54" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>54.5</v>
+      </c>
       <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="K54" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <v>56.6</v>
+      </c>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="N54" s="2" t="n">
+        <v>133</v>
+      </c>
       <c r="O54" s="2"/>
-      <c r="P54" s="2" t="n">
-        <v>36</v>
-      </c>
+      <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="2" t="n">
-        <v>21</v>
-      </c>
+      <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
+      <c r="U54" s="2" t="n">
+        <v>-21.9</v>
+      </c>
       <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
+      <c r="W54" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="X54" s="2" t="n">
+        <v>-20.2</v>
+      </c>
       <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
+      <c r="Z54" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB54" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC54" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="AD54" s="2" t="n">
+        <v>0.457364341085271</v>
+      </c>
+      <c r="AE54" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF54" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="AG54" s="2" t="n">
+        <v>0.378787878787879</v>
+      </c>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
@@ -6762,55 +6932,72 @@
       <c r="AN54" s="2"/>
       <c r="AO54" s="2"/>
       <c r="AP54" s="2"/>
-      <c r="AQ54" s="2" t="n">
-        <v>108</v>
-      </c>
+      <c r="AQ54" s="2"/>
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
+      <c r="AU54" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="AV54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="AW54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY54" s="2" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AZ54" s="2" t="n">
+        <v>12.3</v>
+      </c>
       <c r="BA54" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
+        <v>12.3</v>
+      </c>
+      <c r="BB54" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="BC54" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="BD54" s="2" t="n">
+        <v>51.9</v>
+      </c>
       <c r="BE54" s="2"/>
       <c r="BF54" s="2"/>
-      <c r="BG54" s="2"/>
-      <c r="BH54" s="2"/>
+      <c r="BG54" s="2" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="BH54" s="2" t="n">
+        <v>51.9</v>
+      </c>
       <c r="BI54" s="2"/>
+      <c r="BJ54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>69</v>
+      </c>
       <c r="E55" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H55" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6818,14 +7005,10 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="2" t="n">
-        <v>36</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="2" t="n">
-        <v>21</v>
-      </c>
+      <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -6833,13 +7016,27 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
+      <c r="AA55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB55" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC55" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="AD55" s="2" t="n">
+        <v>0.627906976744186</v>
+      </c>
+      <c r="AE55" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="AF55" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="AG55" s="2" t="n">
+        <v>0.522727272727273</v>
+      </c>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
@@ -6849,152 +7046,344 @@
       <c r="AN55" s="2"/>
       <c r="AO55" s="2"/>
       <c r="AP55" s="2"/>
-      <c r="AQ55" s="2" t="n">
-        <v>107</v>
-      </c>
+      <c r="AQ55" s="2"/>
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
-      <c r="AU55" s="2"/>
+      <c r="AU55" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="AV55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW55" s="2"/>
-      <c r="AX55" s="2" t="n">
-        <v>14.54</v>
+        <v>176</v>
+      </c>
+      <c r="AW55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX55" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="AY55" s="2"/>
-      <c r="AZ55" s="2"/>
+      <c r="AZ55" s="2" t="n">
+        <v>12.3</v>
+      </c>
       <c r="BA55" s="2" t="n">
-        <v>59</v>
+        <v>12.3</v>
       </c>
       <c r="BB55" s="2"/>
-      <c r="BC55" s="2"/>
-      <c r="BD55" s="2"/>
+      <c r="BC55" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="BD55" s="2" t="n">
+        <v>51.9</v>
+      </c>
       <c r="BE55" s="2"/>
       <c r="BF55" s="2"/>
       <c r="BG55" s="2"/>
       <c r="BH55" s="2"/>
       <c r="BI55" s="2"/>
+      <c r="BJ55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="3" t="n">
+      <c r="C56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" s="2"/>
+      <c r="AP56" s="2"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2"/>
+      <c r="AV56" s="2"/>
+      <c r="AW56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="AZ56" s="2"/>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="2"/>
+      <c r="BE56" s="2"/>
+      <c r="BF56" s="2"/>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="2"/>
+      <c r="BI56" s="2"/>
+      <c r="BJ56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="AS57" s="2"/>
+      <c r="AT57" s="2"/>
+      <c r="AU57" s="2"/>
+      <c r="AV57" s="2"/>
+      <c r="AW57" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="AZ57" s="2"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="2"/>
+      <c r="BE57" s="2"/>
+      <c r="BF57" s="2"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="2"/>
+      <c r="BI57" s="2"/>
+      <c r="BJ57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" s="3" t="n">
         <v>17.44</v>
       </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3" t="n">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3" t="n">
         <v>104</v>
       </c>
-      <c r="K56" s="3" t="n">
+      <c r="L58" s="3" t="n">
         <v>16.72</v>
       </c>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3" t="n">
+      <c r="M58" s="3"/>
+      <c r="N58" s="3" t="n">
         <v>116</v>
       </c>
-      <c r="N56" s="3" t="n">
+      <c r="O58" s="3" t="n">
         <v>13.64</v>
       </c>
-      <c r="O56" s="3" t="n">
+      <c r="P58" s="3" t="n">
         <v>9.01</v>
       </c>
-      <c r="P56" s="3" t="n">
+      <c r="Q58" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="Q56" s="3" t="n">
+      <c r="R58" s="3" t="n">
         <v>16.02</v>
       </c>
-      <c r="R56" s="3" t="n">
+      <c r="S58" s="3" t="n">
         <v>10.16</v>
       </c>
-      <c r="S56" s="3" t="n">
+      <c r="T58" s="3" t="n">
         <v>114</v>
       </c>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3" t="n">
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AH56" s="3" t="n">
+      <c r="AI58" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="AI56" s="3" t="n">
+      <c r="AJ58" s="3" t="n">
         <v>0.288461538461538</v>
       </c>
-      <c r="AJ56" s="3" t="n">
+      <c r="AK58" s="3" t="n">
         <v>0.293103448275862</v>
       </c>
-      <c r="AK56" s="3" t="n">
+      <c r="AL58" s="3" t="n">
         <v>0.297029702970297</v>
       </c>
-      <c r="AL56" s="3" t="n">
+      <c r="AM58" s="3" t="n">
         <v>0.298245614035088</v>
       </c>
-      <c r="AM56" s="3"/>
-      <c r="AN56" s="3"/>
-      <c r="AO56" s="3"/>
-      <c r="AP56" s="3"/>
-      <c r="AQ56" s="3" t="n">
+      <c r="AN58" s="3"/>
+      <c r="AO58" s="3"/>
+      <c r="AP58" s="3"/>
+      <c r="AQ58" s="3"/>
+      <c r="AR58" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="AR56" s="3" t="n">
+      <c r="AS58" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="AS56" s="3" t="n">
+      <c r="AT58" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AT56" s="3"/>
-      <c r="AU56" s="3"/>
-      <c r="AV56" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW56" s="3"/>
-      <c r="AX56" s="3" t="n">
+      <c r="AU58" s="3"/>
+      <c r="AV58" s="3"/>
+      <c r="AW58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX58" s="3"/>
+      <c r="AY58" s="3" t="n">
         <v>11.8</v>
       </c>
-      <c r="AY56" s="3"/>
-      <c r="AZ56" s="3"/>
-      <c r="BA56" s="3" t="n">
+      <c r="AZ58" s="3"/>
+      <c r="BA58" s="3"/>
+      <c r="BB58" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="BB56" s="3"/>
-      <c r="BC56" s="3"/>
-      <c r="BD56" s="3"/>
-      <c r="BE56" s="3"/>
-      <c r="BF56" s="3"/>
-      <c r="BG56" s="3"/>
-      <c r="BH56" s="3"/>
-      <c r="BI56" s="3"/>
+      <c r="BC58" s="3"/>
+      <c r="BD58" s="3"/>
+      <c r="BE58" s="3"/>
+      <c r="BF58" s="3"/>
+      <c r="BG58" s="3"/>
+      <c r="BH58" s="3"/>
+      <c r="BI58" s="3"/>
+      <c r="BJ58" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">psy_or_med</t>
   </si>
@@ -555,15 +555,6 @@
   </si>
   <si>
     <t xml:space="preserve">school counseling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yu, 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eas</t>
   </si>
 </sst>
 </file>
@@ -6008,18 +5999,38 @@
       <c r="H46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="I46" s="2" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>13.4</v>
+      </c>
       <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
+      <c r="Q46" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="R46" s="2" t="n">
+        <v>13.8</v>
+      </c>
       <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
+      <c r="T46" s="2" t="n">
+        <v>58</v>
+      </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
@@ -6060,7 +6071,7 @@
       <c r="AZ46" s="2"/>
       <c r="BA46" s="2"/>
       <c r="BB46" s="2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="BC46" s="2"/>
       <c r="BD46" s="2"/>
@@ -7174,216 +7185,94 @@
       <c r="BJ56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2" t="n">
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2" t="n">
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
-      <c r="AG57" s="2"/>
-      <c r="AH57" s="2"/>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
-      <c r="AM57" s="2"/>
-      <c r="AN57" s="2"/>
-      <c r="AO57" s="2"/>
-      <c r="AP57" s="2"/>
-      <c r="AQ57" s="2"/>
-      <c r="AR57" s="2" t="n">
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3"/>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
+      <c r="AM57" s="3"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
+      <c r="AP57" s="3"/>
+      <c r="AQ57" s="3"/>
+      <c r="AR57" s="3" t="n">
         <v>107</v>
       </c>
-      <c r="AS57" s="2"/>
-      <c r="AT57" s="2"/>
-      <c r="AU57" s="2"/>
-      <c r="AV57" s="2"/>
-      <c r="AW57" s="2" t="s">
+      <c r="AS57" s="3"/>
+      <c r="AT57" s="3"/>
+      <c r="AU57" s="3"/>
+      <c r="AV57" s="3"/>
+      <c r="AW57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AX57" s="2"/>
-      <c r="AY57" s="2" t="n">
+      <c r="AX57" s="3"/>
+      <c r="AY57" s="3" t="n">
         <v>14.54</v>
       </c>
-      <c r="AZ57" s="2"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="2" t="n">
+      <c r="AZ57" s="3"/>
+      <c r="BA57" s="3"/>
+      <c r="BB57" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="BC57" s="2"/>
-      <c r="BD57" s="2"/>
-      <c r="BE57" s="2"/>
-      <c r="BF57" s="2"/>
-      <c r="BG57" s="2"/>
-      <c r="BH57" s="2"/>
-      <c r="BI57" s="2"/>
-      <c r="BJ57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I58" s="3" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3" t="n">
-        <v>104</v>
-      </c>
-      <c r="L58" s="3" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3" t="n">
-        <v>116</v>
-      </c>
-      <c r="O58" s="3" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="P58" s="3" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="Q58" s="3" t="n">
-        <v>101</v>
-      </c>
-      <c r="R58" s="3" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="S58" s="3" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="T58" s="3" t="n">
-        <v>114</v>
-      </c>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI58" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ58" s="3" t="n">
-        <v>0.288461538461538</v>
-      </c>
-      <c r="AK58" s="3" t="n">
-        <v>0.293103448275862</v>
-      </c>
-      <c r="AL58" s="3" t="n">
-        <v>0.297029702970297</v>
-      </c>
-      <c r="AM58" s="3" t="n">
-        <v>0.298245614035088</v>
-      </c>
-      <c r="AN58" s="3"/>
-      <c r="AO58" s="3"/>
-      <c r="AP58" s="3"/>
-      <c r="AQ58" s="3"/>
-      <c r="AR58" s="3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS58" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AT58" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AU58" s="3"/>
-      <c r="AV58" s="3"/>
-      <c r="AW58" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AX58" s="3"/>
-      <c r="AY58" s="3" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="AZ58" s="3"/>
-      <c r="BA58" s="3"/>
-      <c r="BB58" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="BC58" s="3"/>
-      <c r="BD58" s="3"/>
-      <c r="BE58" s="3"/>
-      <c r="BF58" s="3"/>
-      <c r="BG58" s="3"/>
-      <c r="BH58" s="3"/>
-      <c r="BI58" s="3"/>
-      <c r="BJ58" s="3"/>
+      <c r="BC57" s="3"/>
+      <c r="BD57" s="3"/>
+      <c r="BE57" s="3"/>
+      <c r="BF57" s="3"/>
+      <c r="BG57" s="3"/>
+      <c r="BH57" s="3"/>
+      <c r="BI57" s="3"/>
+      <c r="BJ57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -446,7 +446,7 @@
     <t xml:space="preserve">The High School Transition Program (HSTP)</t>
   </si>
   <si>
-    <t xml:space="preserve">mfq</t>
+    <t xml:space="preserve">smfq</t>
   </si>
   <si>
     <t xml:space="preserve">March, 2004</t>

--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t xml:space="preserve">psy_or_med</t>
   </si>
@@ -146,6 +146,9 @@
     <t xml:space="preserve">...1</t>
   </si>
   <si>
+    <t xml:space="preserve">percent_women</t>
+  </si>
+  <si>
     <t xml:space="preserve">cuij_responders_active</t>
   </si>
   <si>
@@ -164,34 +167,49 @@
     <t xml:space="preserve">age_group</t>
   </si>
   <si>
+    <t xml:space="preserve">age_m_active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_sd_active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_m_control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_sd_control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_m_overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_sd_overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active_percent_women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">control_percent_women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comorbid_mental?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall_percent_women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall_mean_age</t>
+  </si>
+  <si>
     <t xml:space="preserve">mean_age</t>
   </si>
   <si>
-    <t xml:space="preserve">active_mean_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_mean_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent_women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active_percent_women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control_percent_women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comorbid_mental?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overall_mean_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overall_percent_women</t>
+    <t xml:space="preserve">pooled_sd_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_age</t>
   </si>
   <si>
     <t xml:space="preserve">cohens_d_active</t>
@@ -239,7 +257,7 @@
     <t xml:space="preserve">Atkinson</t>
   </si>
   <si>
-    <t xml:space="preserve">2014</t>
+    <t xml:space="preserve">2014.0</t>
   </si>
   <si>
     <t xml:space="preserve">Placebo</t>
@@ -260,225 +278,234 @@
     <t xml:space="preserve">Berard</t>
   </si>
   <si>
+    <t xml:space="preserve">2006.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% improvement from baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety disorders (specific phobia, separation anxiety disorder, panic disorder, social phobia, GAD) and ADHD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International (Belgium, Italy, Spain, UK&lt; The Netherlands, Canada, South Africa, UAE, Argentina, Mexico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 to 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change from baseline BDI score.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ksads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGI scale improvement rating of 1 or 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bristol-Myers Squibb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDA Trial - Poor reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hamd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emslie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dysthymia, anxiety disordes, ADHD, oppositional/conduct disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADHD, oppositional defiant disorder, conduct disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 to 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 to 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adhd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA + Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adhd was the most prevalent psychiatric condition, but others were not listed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007 (combined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% improvement from baseline score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Did not report secondary outcome measures per trial. Instead they reported MADRS &amp; HAM-D scores for the combined population, hence why n is larger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35% improvement from baseline score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*In this study, there were two trials (two groups of fluox, two groups of placebo). CDRS scores were reported per trial (fluox v placebo; fluox v placebo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Did not report demographics (e.g. mean age, % of women) per trial. Instead, demographics were reported for the two trials combined, hence the (combined)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40% improvement from baseline score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADHD, enuresis, GAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has two response criteria (40% improvement, and CGI-I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% improvement from baseline scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA, Mexico, Canada, Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Had four conditions (duloxetine 60mg, duloxetine 30mg, fluoxetine 20mg, placebo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance-related disorder, ADHD, PTSD, conduct disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hughes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% reduction in CDRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety-related disorders (Group1) and Conduct or oppositional disorders (group2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 to 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety disorders (e.g. separation anxiety, social anxiety disorder) and externalising disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 to 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety disorders and behaviour disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 to 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 to 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makover, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The High School Transition Program (HSTP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smfq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety, disruptive behaviour, obsessive-compulsice/tic, substance use, attention-deficit/hyperactivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDA trial - poor reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paxil (GlaxoSmithKline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanford, 2006</t>
+  </si>
+  <si>
     <t xml:space="preserve">2006</t>
   </si>
   <si>
-    <t xml:space="preserve">madrs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% improvement from baseline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiety disorders (specific phobia, separation anxiety disorder, panic disorder, social phobia, GAD) and ADHD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International (Belgium, Italy, Spain, UK&lt; The Netherlands, Canada, South Africa, UAE, Argentina, Mexico)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 to 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change from baseline BDI score.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ksads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cgi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGI scale improvement rating of 1 or 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bristol-Myers Squibb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDA Trial - Poor reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emslie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dysthymia, anxiety disordes, ADHD, oppositional/conduct disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADHD, oppositional defiant disorder, conduct disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 to 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 to 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adhd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA + Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adhd was the most prevalent psychiatric condition, but others were not listed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007 (combined)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% improvement from baseline score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Did not report secondary outcome measures per trial. Instead they reported MADRS &amp; HAM-D scores for the combined population, hence why n is larger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35% improvement from baseline score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*In this study, there were two trials (two groups of fluox, two groups of placebo). CDRS scores were reported per trial (fluox v placebo; fluox v placebo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Did not report demographics (e.g. mean age, % of women) per trial. Instead, demographics were reported for the two trials combined, hence the (combined)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40% improvement from baseline score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADHD, enuresis, GAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has two response criteria (40% improvement, and CGI-I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% improvement from baseline scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA, Mexico, Canada, Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Had four conditions (duloxetine 60mg, duloxetine 30mg, fluoxetine 20mg, placebo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance-related disorder, ADHD, PTSD, conduct disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hughes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% reduction in CDRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiety-related disorders (Group1) and Conduct or oppositional disorders (group2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 to 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiety disorders (e.g. separation anxiety, social anxiety disorder) and externalising disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 to 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiety disorders and behaviour disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 to 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kutcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 to 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makover, 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The High School Transition Program (HSTP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">smfq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March, 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiety, disruptive behaviour, obsessive-compulsice/tic, substance use, attention-deficit/hyperactivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDA trial - poor reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paxil (GlaxoSmithKline)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanford, 2006</t>
-  </si>
-  <si>
     <t xml:space="preserve">Family Psychoeducation (FPE) + cau</t>
   </si>
   <si>
@@ -521,7 +548,7 @@
     <t xml:space="preserve">Wagner</t>
   </si>
   <si>
-    <t xml:space="preserve">2003</t>
+    <t xml:space="preserve">2003.0</t>
   </si>
   <si>
     <t xml:space="preserve">40% improvement</t>
@@ -1111,26 +1138,44 @@
       <c r="BJ1" t="s">
         <v>61</v>
       </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1171,53 +1216,61 @@
       <c r="AR2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AS2" s="1"/>
+      <c r="AS2" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-      <c r="AW2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX2" s="1"/>
-      <c r="AY2" s="1" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="1" t="n">
-        <v>51</v>
-      </c>
+      <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
+      <c r="BD2" s="1" t="n">
+        <v>14.5</v>
+      </c>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1269,20 +1322,20 @@
       <c r="AR3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AS3" s="2"/>
+      <c r="AS3" s="2" t="n">
+        <v>65</v>
+      </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
-      <c r="AW3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
-      <c r="BB3" s="2" t="n">
-        <v>65</v>
-      </c>
+      <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
@@ -1291,27 +1344,33 @@
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>59.2</v>
@@ -1352,7 +1411,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -1375,67 +1434,81 @@
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
+      <c r="AS4" s="2" t="n">
+        <v>52.2654545454546</v>
+      </c>
       <c r="AT4" s="2"/>
-      <c r="AU4" s="2" t="n">
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AW4" s="2"/>
       <c r="AX4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY4" s="2" t="n">
-        <v>13.1</v>
+        <v>85</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ4" s="2" t="n">
         <v>13.1</v>
       </c>
       <c r="BA4" s="2" t="n">
-        <v>13.1</v>
+        <v>3</v>
       </c>
       <c r="BB4" s="2" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="BC4" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="BG4" s="2" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2" t="n">
         <v>52.2654545454546</v>
       </c>
-      <c r="BC4" s="2" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="BD4" s="2" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="BH4" s="2" t="n">
-        <v>52.2654545454546</v>
-      </c>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2" t="n">
+        <v>13.1936363636364</v>
+      </c>
+      <c r="BL4" s="2" t="n">
+        <v>13.1936363636364</v>
+      </c>
+      <c r="BM4" s="2" t="n">
+        <v>3.04719753938544</v>
+      </c>
+      <c r="BN4" s="2" t="n">
+        <v>3.04719753938544</v>
+      </c>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>58.8</v>
@@ -1476,7 +1549,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -1499,67 +1572,81 @@
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
+      <c r="AS5" s="2" t="n">
+        <v>50.8827272727273</v>
+      </c>
       <c r="AT5" s="2"/>
-      <c r="AU5" s="2" t="n">
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AW5" s="2"/>
       <c r="AX5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY5" s="2" t="n">
-        <v>13.1</v>
+        <v>85</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ5" s="2" t="n">
         <v>13.1</v>
       </c>
       <c r="BA5" s="2" t="n">
-        <v>13.1</v>
+        <v>3.3</v>
       </c>
       <c r="BB5" s="2" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="BG5" s="2" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2" t="n">
         <v>50.8827272727273</v>
       </c>
-      <c r="BC5" s="2" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="BD5" s="2" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="BH5" s="2" t="n">
-        <v>50.8827272727273</v>
-      </c>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2" t="n">
+        <v>13.1936363636364</v>
+      </c>
+      <c r="BL5" s="2" t="n">
+        <v>13.1936363636364</v>
+      </c>
+      <c r="BM5" s="2" t="n">
+        <v>3.20797458179319</v>
+      </c>
+      <c r="BN5" s="2" t="n">
+        <v>3.20797458179319</v>
+      </c>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>25.9</v>
@@ -1608,7 +1695,7 @@
         <v>91</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AB6" s="2" t="n">
         <v>107</v>
@@ -1639,69 +1726,83 @@
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
+      <c r="AS6" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="AT6" s="2"/>
-      <c r="AU6" s="2" t="n">
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AV6" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AW6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY6" s="2" t="n">
-        <v>15.6014545454545</v>
+        <v>92</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="AZ6" s="2" t="n">
         <v>15.5</v>
       </c>
       <c r="BA6" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB6" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="BB6" s="2" t="n">
+      <c r="BC6" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BC6" s="2" t="n">
+      <c r="BG6" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD6" s="2" t="n">
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2" t="n">
+      <c r="BK6" s="2" t="n">
         <v>15.6014545454545</v>
       </c>
-      <c r="BH6" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
+      <c r="BL6" s="2" t="n">
+        <v>15.6014545454545</v>
+      </c>
+      <c r="BM6" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN6" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>23</v>
@@ -1750,7 +1851,7 @@
         <v>90</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -1769,69 +1870,83 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
+      <c r="AS7" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="AT7" s="2"/>
-      <c r="AU7" s="2" t="n">
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AV7" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AW7" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY7" s="2" t="n">
-        <v>15.6014545454545</v>
+        <v>92</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="AZ7" s="2" t="n">
         <v>15.5</v>
       </c>
       <c r="BA7" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB7" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="BB7" s="2" t="n">
+      <c r="BC7" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BC7" s="2" t="n">
+      <c r="BG7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD7" s="2" t="n">
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2" t="n">
+      <c r="BK7" s="2" t="n">
         <v>15.6014545454545</v>
       </c>
-      <c r="BH7" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
+      <c r="BL7" s="2" t="n">
+        <v>15.6014545454545</v>
+      </c>
+      <c r="BM7" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN7" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1889,69 +2004,83 @@
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
+      <c r="AS8" s="2" t="n">
+        <v>67</v>
+      </c>
       <c r="AT8" s="2"/>
-      <c r="AU8" s="2" t="n">
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AV8" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AW8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY8" s="2" t="n">
-        <v>15.6014545454545</v>
+        <v>92</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="AZ8" s="2" t="n">
         <v>15.5</v>
       </c>
       <c r="BA8" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB8" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="BB8" s="2" t="n">
+      <c r="BC8" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BC8" s="2" t="n">
+      <c r="BG8" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD8" s="2" t="n">
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2" t="n">
+      <c r="BK8" s="2" t="n">
         <v>15.6014545454545</v>
       </c>
-      <c r="BH8" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BI8" s="2"/>
-      <c r="BJ8" s="2"/>
+      <c r="BL8" s="2" t="n">
+        <v>15.6014545454545</v>
+      </c>
+      <c r="BM8" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN8" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1972,7 +2101,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB9" s="2" t="n">
         <v>119</v>
@@ -2005,59 +2134,69 @@
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
-      <c r="AU9" s="2" t="n">
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AV9" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="AW9" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY9" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="AZ9" s="2" t="n">
         <v>15.5</v>
       </c>
       <c r="BA9" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB9" s="2" t="n">
         <v>15.8</v>
       </c>
-      <c r="BB9" s="2"/>
       <c r="BC9" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD9" s="2" t="n">
+      <c r="BG9" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2101,53 +2240,59 @@
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
-      <c r="AU10" s="2" t="n">
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV10" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="AW10" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AX10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY10" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY10" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
       <c r="BC10" s="2"/>
       <c r="BD10" s="2"/>
-      <c r="BE10" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
+      <c r="BH10" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="BI10" s="2"/>
       <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2191,19 +2336,19 @@
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
-      <c r="AU11" s="2" t="n">
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV11" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="AW11" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
@@ -2215,27 +2360,33 @@
       <c r="BH11" s="2"/>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2256,7 +2407,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -2281,19 +2432,19 @@
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
-      <c r="AU12" s="2" t="n">
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV12" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="AW12" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY12" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
@@ -2305,27 +2456,33 @@
       <c r="BH12" s="2"/>
       <c r="BI12" s="2"/>
       <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>61.2</v>
@@ -2362,7 +2519,7 @@
         <v>93</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -2383,19 +2540,19 @@
       <c r="AR13" s="2"/>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
-      <c r="AU13" s="2" t="n">
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV13" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="AW13" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AX13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AY13" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY13" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
@@ -2407,27 +2564,33 @@
       <c r="BH13" s="2"/>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2448,7 +2611,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB14" s="2" t="n">
         <v>27</v>
@@ -2481,59 +2644,69 @@
       <c r="AR14" s="2"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
-      <c r="AU14" s="2" t="n">
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV14" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="AW14" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="AX14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY14" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY14" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="AZ14" s="2" t="n">
         <v>12.2</v>
       </c>
       <c r="BA14" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BB14" s="2" t="n">
         <v>12.5</v>
       </c>
-      <c r="BB14" s="2"/>
       <c r="BC14" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="BD14" s="2" t="n">
+      <c r="BG14" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
       <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2554,7 +2727,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB15" s="2" t="n">
         <v>57</v>
@@ -2583,59 +2756,69 @@
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
-      <c r="AU15" s="2" t="n">
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AV15" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="AW15" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AX15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY15" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY15" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="AZ15" s="2" t="n">
         <v>12.7</v>
       </c>
       <c r="BA15" s="2" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="BB15" s="2"/>
+        <v>2.46</v>
+      </c>
+      <c r="BB15" s="2" t="n">
+        <v>12.69</v>
+      </c>
       <c r="BC15" s="2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2" t="n">
         <v>49.5</v>
       </c>
-      <c r="BD15" s="2" t="n">
+      <c r="BG15" s="2" t="n">
         <v>49.5</v>
       </c>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
-      <c r="BG15" s="2"/>
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2691,17 +2874,17 @@
       <c r="AR16" s="2"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
-      <c r="AU16" s="2" t="n">
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AW16" s="2"/>
       <c r="AX16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY16" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY16" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
@@ -2713,27 +2896,33 @@
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
       <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2781,17 +2970,17 @@
       <c r="AR17" s="2"/>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
-      <c r="AU17" s="2" t="n">
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AW17" s="2"/>
       <c r="AX17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY17" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
@@ -2803,27 +2992,33 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
       <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2844,7 +3039,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB18" s="2" t="n">
         <v>61</v>
@@ -2877,17 +3072,17 @@
       <c r="AR18" s="2"/>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
-      <c r="AU18" s="2" t="n">
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AW18" s="2"/>
       <c r="AX18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY18" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
@@ -2899,27 +3094,33 @@
       <c r="BH18" s="2"/>
       <c r="BI18" s="2"/>
       <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>60.7</v>
@@ -2985,71 +3186,89 @@
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
+      <c r="AS19" s="2" t="n">
+        <v>46.8</v>
+      </c>
       <c r="AT19" s="2"/>
-      <c r="AU19" s="2" t="n">
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV19" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="AW19" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY19" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ19" s="2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="BA19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB19" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BC19" s="2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BD19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AZ19" s="2" t="n">
+      <c r="BE19" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BF19" s="2" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="BG19" s="2" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="BK19" s="2" t="n">
+        <v>12.0004926108374</v>
+      </c>
+      <c r="BL19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="BA19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB19" s="2" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="BC19" s="2" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="BD19" s="2" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="BE19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BH19" s="2" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="BI19" s="2"/>
-      <c r="BJ19" s="2"/>
+      <c r="BM19" s="2" t="n">
+        <v>2.97498066384452</v>
+      </c>
+      <c r="BN19" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3070,7 +3289,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB20" s="2" t="n">
         <v>49</v>
@@ -3103,59 +3322,77 @@
       <c r="AR20" s="2"/>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
-      <c r="AU20" s="2" t="n">
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV20" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="AW20" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY20" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="AZ20" s="2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="BA20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB20" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BC20" s="2" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BD20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="BA20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2" t="n">
+      <c r="BE20" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BF20" s="2" t="n">
         <v>46.8</v>
       </c>
-      <c r="BD20" s="2" t="n">
+      <c r="BG20" s="2" t="n">
         <v>46.8</v>
       </c>
-      <c r="BE20" s="2"/>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
       <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>18.2</v>
@@ -3192,7 +3429,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AB21" s="2" t="n">
         <v>85</v>
@@ -3223,67 +3460,81 @@
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
-      <c r="AS21" s="2"/>
+      <c r="AS21" s="2" t="n">
+        <v>45.5044510385757</v>
+      </c>
       <c r="AT21" s="2"/>
-      <c r="AU21" s="2" t="n">
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AW21" s="2"/>
       <c r="AX21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY21" s="2" t="n">
-        <v>12.2501483679525</v>
+        <v>85</v>
+      </c>
+      <c r="AY21" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ21" s="2" t="n">
         <v>12.2</v>
       </c>
       <c r="BA21" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BB21" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BB21" s="2" t="n">
+      <c r="BC21" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="BG21" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2" t="n">
         <v>45.5044510385757</v>
       </c>
-      <c r="BC21" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="BD21" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="BE21" s="2"/>
-      <c r="BF21" s="2"/>
-      <c r="BG21" s="2" t="n">
+      <c r="BK21" s="2" t="n">
         <v>12.2501483679525</v>
       </c>
-      <c r="BH21" s="2" t="n">
-        <v>45.5044510385757</v>
-      </c>
-      <c r="BI21" s="2"/>
-      <c r="BJ21" s="2"/>
+      <c r="BL21" s="2" t="n">
+        <v>12.2501483679525</v>
+      </c>
+      <c r="BM21" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN21" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>25.6</v>
@@ -3320,7 +3571,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AB22" s="2" t="n">
         <v>81</v>
@@ -3351,69 +3602,83 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
+      <c r="AS22" s="2" t="n">
+        <v>45.5044510385757</v>
+      </c>
       <c r="AT22" s="2"/>
-      <c r="AU22" s="2" t="n">
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AW22" s="2"/>
       <c r="AX22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY22" s="2" t="n">
-        <v>12.2501483679525</v>
+        <v>85</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ22" s="2" t="n">
         <v>12.2</v>
       </c>
       <c r="BA22" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BB22" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BB22" s="2" t="n">
+      <c r="BC22" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="BG22" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="BH22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2" t="n">
         <v>45.5044510385757</v>
       </c>
-      <c r="BC22" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="BD22" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="BE22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2" t="n">
+      <c r="BK22" s="2" t="n">
         <v>12.2501483679525</v>
       </c>
-      <c r="BH22" s="2" t="n">
-        <v>45.5044510385757</v>
-      </c>
-      <c r="BI22" s="2"/>
-      <c r="BJ22" s="2"/>
+      <c r="BL22" s="2" t="n">
+        <v>12.2501483679525</v>
+      </c>
+      <c r="BM22" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN22" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>54.4</v>
@@ -3454,7 +3719,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AB23" s="2" t="n">
         <v>43</v>
@@ -3507,51 +3772,65 @@
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
-      <c r="AU23" s="2" t="n">
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AW23" s="2"/>
       <c r="AX23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY23" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY23" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
+      <c r="BA23" s="2" t="n">
+        <v>2.6</v>
+      </c>
       <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
+      <c r="BC23" s="2" t="n">
+        <v>2.6</v>
+      </c>
       <c r="BD23" s="2"/>
-      <c r="BE23" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
+      <c r="BH23" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="BI23" s="2"/>
       <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN23" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>57.3</v>
@@ -3592,7 +3871,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AB24" s="2" t="n">
         <v>77</v>
@@ -3645,51 +3924,65 @@
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
-      <c r="AU24" s="2" t="n">
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="AW24" s="2"/>
       <c r="AX24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY24" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY24" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
+      <c r="BA24" s="2" t="n">
+        <v>2.6</v>
+      </c>
       <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
+      <c r="BC24" s="2" t="n">
+        <v>2.6</v>
+      </c>
       <c r="BD24" s="2"/>
-      <c r="BE24" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="BE24" s="2"/>
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
+      <c r="BH24" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN24" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>57.6</v>
@@ -3734,7 +4027,7 @@
         <v>157</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AB25" s="2" t="n">
         <v>91</v>
@@ -3765,71 +4058,85 @@
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
+      <c r="AS25" s="2" t="n">
+        <v>58.9961414790997</v>
+      </c>
       <c r="AT25" s="2"/>
-      <c r="AU25" s="2" t="n">
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV25" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="AW25" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="AX25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY25" s="2" t="n">
-        <v>14.5990353697749</v>
+        <v>85</v>
+      </c>
+      <c r="AY25" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="AZ25" s="2" t="n">
         <v>14.7</v>
       </c>
       <c r="BA25" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB25" s="2" t="n">
         <v>14.5</v>
       </c>
-      <c r="BB25" s="2" t="n">
+      <c r="BC25" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="BG25" s="2" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="BH25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2" t="n">
         <v>58.9961414790997</v>
       </c>
-      <c r="BC25" s="2" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="BD25" s="2" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="BE25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2" t="n">
+      <c r="BK25" s="2" t="n">
         <v>14.5990353697749</v>
       </c>
-      <c r="BH25" s="2" t="n">
-        <v>58.9961414790997</v>
-      </c>
-      <c r="BI25" s="2"/>
-      <c r="BJ25" s="2"/>
+      <c r="BL25" s="2" t="n">
+        <v>14.5990353697749</v>
+      </c>
+      <c r="BM25" s="2" t="n">
+        <v>1.5503209814845</v>
+      </c>
+      <c r="BN25" s="2" t="n">
+        <v>1.5503209814845</v>
+      </c>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3850,7 +4157,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB26" s="2" t="n">
         <v>99</v>
@@ -3883,59 +4190,69 @@
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
-      <c r="AU26" s="2" t="n">
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV26" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="AW26" s="2" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="AX26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY26" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="AZ26" s="2" t="n">
         <v>14.7</v>
       </c>
       <c r="BA26" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB26" s="2" t="n">
         <v>14.5</v>
       </c>
-      <c r="BB26" s="2"/>
       <c r="BC26" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2" t="n">
         <v>59.4</v>
       </c>
-      <c r="BD26" s="2" t="n">
+      <c r="BG26" s="2" t="n">
         <v>58.6</v>
       </c>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="2"/>
       <c r="BH26" s="2"/>
       <c r="BI26" s="2"/>
       <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>59.3</v>
@@ -3984,7 +4301,7 @@
         <v>117</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -4007,69 +4324,83 @@
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
-      <c r="AS27" s="2"/>
+      <c r="AS27" s="2" t="n">
+        <v>56.1304347826087</v>
+      </c>
       <c r="AT27" s="2"/>
-      <c r="AU27" s="2" t="n">
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="AW27" s="2"/>
       <c r="AX27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY27" s="2" t="n">
-        <v>13.0060869565217</v>
+        <v>127</v>
+      </c>
+      <c r="AY27" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ27" s="2" t="n">
         <v>12.9</v>
       </c>
       <c r="BA27" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BB27" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BB27" s="2" t="n">
+      <c r="BC27" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="BG27" s="2" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="BH27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2" t="n">
         <v>56.1304347826087</v>
       </c>
-      <c r="BC27" s="2" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="BD27" s="2" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="BE27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2" t="n">
+      <c r="BK27" s="2" t="n">
         <v>13.0060869565217</v>
       </c>
-      <c r="BH27" s="2" t="n">
-        <v>56.1304347826087</v>
-      </c>
-      <c r="BI27" s="2"/>
-      <c r="BJ27" s="2"/>
+      <c r="BL27" s="2" t="n">
+        <v>13.0060869565217</v>
+      </c>
+      <c r="BM27" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN27" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>59.8</v>
@@ -4118,7 +4449,7 @@
         <v>117</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -4141,67 +4472,81 @@
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
+      <c r="AS28" s="2" t="n">
+        <v>48.7529411764706</v>
+      </c>
       <c r="AT28" s="2"/>
-      <c r="AU28" s="2" t="n">
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="AW28" s="2"/>
       <c r="AX28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY28" s="2" t="n">
-        <v>13.0025210084034</v>
+        <v>127</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ28" s="2" t="n">
         <v>12.9</v>
       </c>
       <c r="BA28" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BB28" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BB28" s="2" t="n">
+      <c r="BC28" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="BG28" s="2" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2" t="n">
         <v>48.7529411764706</v>
       </c>
-      <c r="BC28" s="2" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="BD28" s="2" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2" t="n">
+      <c r="BK28" s="2" t="n">
         <v>13.0025210084034</v>
       </c>
-      <c r="BH28" s="2" t="n">
-        <v>48.7529411764706</v>
-      </c>
-      <c r="BI28" s="2"/>
-      <c r="BJ28" s="2"/>
+      <c r="BL28" s="2" t="n">
+        <v>13.0025210084034</v>
+      </c>
+      <c r="BM28" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN28" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>57.9</v>
@@ -4250,7 +4595,7 @@
         <v>117</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -4273,67 +4618,81 @@
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
+      <c r="AS29" s="2" t="n">
+        <v>54.3970711297071</v>
+      </c>
       <c r="AT29" s="2"/>
-      <c r="AU29" s="2" t="n">
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="AW29" s="2"/>
       <c r="AX29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY29" s="2" t="n">
-        <v>13.0510460251046</v>
+        <v>127</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ29" s="2" t="n">
         <v>13</v>
       </c>
       <c r="BA29" s="2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BB29" s="2" t="n">
         <v>13.1</v>
       </c>
-      <c r="BB29" s="2" t="n">
+      <c r="BC29" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="BG29" s="2" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2" t="n">
         <v>54.3970711297071</v>
       </c>
-      <c r="BC29" s="2" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="BD29" s="2" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2" t="n">
+      <c r="BK29" s="2" t="n">
         <v>13.0510460251046</v>
       </c>
-      <c r="BH29" s="2" t="n">
-        <v>54.3970711297071</v>
-      </c>
-      <c r="BI29" s="2"/>
-      <c r="BJ29" s="2"/>
+      <c r="BL29" s="2" t="n">
+        <v>13.0510460251046</v>
+      </c>
+      <c r="BM29" s="2" t="n">
+        <v>3.05052392262897</v>
+      </c>
+      <c r="BN29" s="2" t="n">
+        <v>3.05052392262897</v>
+      </c>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -4354,7 +4713,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB30" s="2" t="n">
         <v>9</v>
@@ -4387,59 +4746,77 @@
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
-      <c r="AU30" s="2" t="n">
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV30" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="AW30" s="2" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="AX30" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY30" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY30" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="AZ30" s="2" t="n">
         <v>16.55</v>
       </c>
       <c r="BA30" s="2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB30" s="2" t="n">
         <v>16.35</v>
       </c>
-      <c r="BB30" s="2"/>
       <c r="BC30" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BD30" s="2" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="BE30" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BF30" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="BD30" s="2" t="n">
+      <c r="BG30" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="BE30" s="2"/>
-      <c r="BF30" s="2"/>
-      <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
       <c r="BI30" s="2"/>
       <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -4460,7 +4837,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AB31" s="2" t="n">
         <v>4</v>
@@ -4493,17 +4870,17 @@
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
-      <c r="AU31" s="2" t="n">
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AV31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY31" s="2"/>
+      <c r="AW31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
       <c r="BB31" s="2"/>
@@ -4515,27 +4892,33 @@
       <c r="BH31" s="2"/>
       <c r="BI31" s="2"/>
       <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -4556,7 +4939,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AB32" s="2" t="n">
         <v>2</v>
@@ -4589,17 +4972,17 @@
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
-      <c r="AU32" s="2" t="n">
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AV32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW32" s="2"/>
-      <c r="AX32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY32" s="2"/>
+      <c r="AW32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
       <c r="BB32" s="2"/>
@@ -4611,27 +4994,33 @@
       <c r="BH32" s="2"/>
       <c r="BI32" s="2"/>
       <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4652,7 +5041,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB33" s="2" t="n">
         <v>49</v>
@@ -4685,59 +5074,69 @@
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
-      <c r="AU33" s="2" t="n">
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV33" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="AW33" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="AX33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY33" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AY33" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="AZ33" s="2" t="n">
         <v>14.9</v>
       </c>
       <c r="BA33" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB33" s="2" t="n">
         <v>15.1</v>
       </c>
-      <c r="BB33" s="2"/>
       <c r="BC33" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2" t="n">
         <v>58.9</v>
       </c>
-      <c r="BD33" s="2" t="n">
+      <c r="BG33" s="2" t="n">
         <v>65.5</v>
       </c>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4758,7 +5157,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>59</v>
@@ -4791,59 +5190,69 @@
       <c r="AR34" s="2"/>
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
-      <c r="AU34" s="2" t="n">
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV34" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="AW34" s="2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="AX34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY34" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AY34" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="AZ34" s="2" t="n">
         <v>14.8</v>
       </c>
       <c r="BA34" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB34" s="2" t="n">
         <v>15.1</v>
       </c>
-      <c r="BB34" s="2"/>
       <c r="BC34" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2" t="n">
         <v>62.4</v>
       </c>
-      <c r="BD34" s="2" t="n">
+      <c r="BG34" s="2" t="n">
         <v>65.5</v>
       </c>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
       <c r="BH34" s="2"/>
       <c r="BI34" s="2"/>
       <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4864,7 +5273,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB35" s="2" t="n">
         <v>12</v>
@@ -4897,59 +5306,69 @@
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
-      <c r="AU35" s="2" t="n">
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AV35" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="AW35" s="2" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AX35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AY35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2" t="n">
         <v>15.66</v>
       </c>
-      <c r="BA35" s="2" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="2" t="n">
+      <c r="BE35" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BF35" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BD35" s="2" t="n">
+      <c r="BG35" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BE35" s="2"/>
-      <c r="BF35" s="2"/>
-      <c r="BG35" s="2"/>
       <c r="BH35" s="2"/>
       <c r="BI35" s="2"/>
       <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4999,69 +5418,71 @@
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
-      <c r="AS36" s="2"/>
+      <c r="AS36" s="2" t="n">
+        <v>70</v>
+      </c>
       <c r="AT36" s="2"/>
-      <c r="AU36" s="2" t="n">
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="AV36" s="2"/>
-      <c r="AW36" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="AW36" s="2"/>
       <c r="AX36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY36" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="AY36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2" t="n">
         <v>17.8</v>
       </c>
-      <c r="AZ36" s="2" t="n">
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="BG36" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2" t="n">
         <v>17.8</v>
       </c>
-      <c r="BA36" s="2" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="BB36" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="BC36" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="BD36" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="BE36" s="2"/>
-      <c r="BF36" s="2"/>
-      <c r="BG36" s="2" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="BH36" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="BI36" s="2"/>
-      <c r="BJ36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -5101,49 +5522,57 @@
       <c r="AR37" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="AS37" s="2"/>
+      <c r="AS37" s="2" t="n">
+        <v>61</v>
+      </c>
       <c r="AT37" s="2"/>
       <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
-      <c r="AW37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX37" s="2"/>
-      <c r="AY37" s="2" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
-      <c r="BB37" s="2" t="n">
-        <v>61</v>
-      </c>
+      <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
-      <c r="BD37" s="2"/>
+      <c r="BD37" s="2" t="n">
+        <v>13.5</v>
+      </c>
       <c r="BE37" s="2"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="2"/>
       <c r="BH37" s="2"/>
       <c r="BI37" s="2"/>
       <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>59.64</v>
@@ -5202,52 +5631,64 @@
         <v>55</v>
       </c>
       <c r="AS38" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="AT38" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AT38" s="2"/>
       <c r="AU38" s="2"/>
       <c r="AV38" s="2"/>
-      <c r="AW38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX38" s="2"/>
-      <c r="AY38" s="2" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY38" s="2"/>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
-      <c r="BB38" s="2" t="n">
-        <v>54</v>
-      </c>
+      <c r="BB38" s="2"/>
       <c r="BC38" s="2"/>
-      <c r="BD38" s="2"/>
-      <c r="BE38" s="2"/>
+      <c r="BD38" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="BE38" s="2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="BF38" s="2"/>
       <c r="BG38" s="2"/>
       <c r="BH38" s="2"/>
-      <c r="BI38" s="2" t="n">
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO38" s="2" t="n">
         <v>-2.56642335766423</v>
       </c>
-      <c r="BJ38" s="2"/>
+      <c r="BP38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>78.69</v>
@@ -5305,53 +5746,65 @@
       <c r="AR39" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="AS39" s="2"/>
+      <c r="AS39" s="2" t="n">
+        <v>54</v>
+      </c>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
-      <c r="AW39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY39" s="2"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="2"/>
-      <c r="BB39" s="2" t="n">
-        <v>54</v>
-      </c>
+      <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
+      <c r="BD39" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="BE39" s="2" t="n">
+        <v>1.5</v>
+      </c>
       <c r="BF39" s="2"/>
       <c r="BG39" s="2"/>
       <c r="BH39" s="2"/>
-      <c r="BI39" s="2" t="n">
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO39" s="2" t="n">
         <v>-0.866370609608398</v>
       </c>
-      <c r="BJ39" s="2"/>
+      <c r="BP39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -5372,7 +5825,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB40" s="2" t="n">
         <v>66</v>
@@ -5405,59 +5858,69 @@
       <c r="AR40" s="2"/>
       <c r="AS40" s="2"/>
       <c r="AT40" s="2"/>
-      <c r="AU40" s="2" t="n">
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AV40" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="AW40" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="AX40" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY40" s="2"/>
-      <c r="AZ40" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AY40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="BA40" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2" t="n">
+      <c r="BE40" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BF40" s="2" t="n">
         <v>54.4</v>
       </c>
-      <c r="BD40" s="2" t="n">
+      <c r="BG40" s="2" t="n">
         <v>54.4</v>
       </c>
-      <c r="BE40" s="2"/>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
       <c r="BH40" s="2"/>
       <c r="BI40" s="2"/>
       <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -5490,7 +5953,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
@@ -5509,67 +5972,73 @@
       <c r="AP41" s="2"/>
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
+      <c r="AS41" s="2" t="n">
+        <v>50.8126984126984</v>
+      </c>
       <c r="AT41" s="2"/>
-      <c r="AU41" s="2" t="n">
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV41" s="2"/>
       <c r="AW41" s="2"/>
-      <c r="AX41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY41" s="2" t="n">
-        <v>12.3349206349206</v>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ41" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BA41" s="2" t="n">
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2" t="n">
         <v>12.4</v>
       </c>
-      <c r="BB41" s="2" t="n">
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="BG41" s="2" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="BH41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2" t="n">
         <v>50.8126984126984</v>
       </c>
-      <c r="BC41" s="2" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="BD41" s="2" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="BE41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2" t="n">
+      <c r="BK41" s="2" t="n">
         <v>12.3349206349206</v>
       </c>
-      <c r="BH41" s="2" t="n">
-        <v>50.8126984126984</v>
-      </c>
-      <c r="BI41" s="2"/>
-      <c r="BJ41" s="2"/>
+      <c r="BL41" s="2" t="n">
+        <v>12.3349206349206</v>
+      </c>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -5602,7 +6071,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
@@ -5621,65 +6090,71 @@
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
-      <c r="AS42" s="2"/>
+      <c r="AS42" s="2" t="n">
+        <v>50.1730769230769</v>
+      </c>
       <c r="AT42" s="2"/>
-      <c r="AU42" s="2" t="n">
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV42" s="2"/>
       <c r="AW42" s="2"/>
-      <c r="AX42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY42" s="2" t="n">
-        <v>12.0384615384615</v>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ42" s="2" t="n">
         <v>11.9</v>
       </c>
-      <c r="BA42" s="2" t="n">
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BB42" s="2" t="n">
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG42" s="2" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2" t="n">
         <v>50.1730769230769</v>
       </c>
-      <c r="BC42" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="BD42" s="2" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="BE42" s="2"/>
-      <c r="BF42" s="2"/>
-      <c r="BG42" s="2" t="n">
+      <c r="BK42" s="2" t="n">
         <v>12.0384615384615</v>
       </c>
-      <c r="BH42" s="2" t="n">
-        <v>50.1730769230769</v>
-      </c>
-      <c r="BI42" s="2"/>
-      <c r="BJ42" s="2"/>
+      <c r="BL42" s="2" t="n">
+        <v>12.0384615384615</v>
+      </c>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -5737,67 +6212,81 @@
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
-      <c r="AS43" s="2"/>
+      <c r="AS43" s="2" t="n">
+        <v>60.7446428571429</v>
+      </c>
       <c r="AT43" s="2"/>
-      <c r="AU43" s="2" t="n">
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV43" s="2"/>
-      <c r="AW43" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="AW43" s="2"/>
       <c r="AX43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY43" s="2" t="n">
-        <v>14.5928571428571</v>
+        <v>161</v>
+      </c>
+      <c r="AY43" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ43" s="2" t="n">
         <v>14.4</v>
       </c>
       <c r="BA43" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BB43" s="2" t="n">
         <v>14.8</v>
       </c>
-      <c r="BB43" s="2" t="n">
+      <c r="BC43" s="2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="BG43" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2" t="n">
         <v>60.7446428571429</v>
       </c>
-      <c r="BC43" s="2" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="BD43" s="2" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="BE43" s="2"/>
-      <c r="BF43" s="2"/>
-      <c r="BG43" s="2" t="n">
+      <c r="BK43" s="2" t="n">
         <v>14.5928571428571</v>
       </c>
-      <c r="BH43" s="2" t="n">
-        <v>60.7446428571429</v>
-      </c>
-      <c r="BI43" s="2"/>
-      <c r="BJ43" s="2"/>
+      <c r="BL43" s="2" t="n">
+        <v>14.5928571428571</v>
+      </c>
+      <c r="BM43" s="2" t="n">
+        <v>2.31483620730856</v>
+      </c>
+      <c r="BN43" s="2" t="n">
+        <v>2.31483620730856</v>
+      </c>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -5818,7 +6307,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB44" s="2" t="n">
         <v>15</v>
@@ -5851,59 +6340,69 @@
       <c r="AR44" s="2"/>
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
-      <c r="AU44" s="2" t="n">
+      <c r="AU44" s="2"/>
+      <c r="AV44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV44" s="2"/>
-      <c r="AW44" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="AW44" s="2"/>
       <c r="AX44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY44" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="AY44" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="AZ44" s="2" t="n">
         <v>14.4</v>
       </c>
       <c r="BA44" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BB44" s="2" t="n">
         <v>14.8</v>
       </c>
-      <c r="BB44" s="2"/>
       <c r="BC44" s="2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BD44" s="2"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2" t="n">
         <v>55.2</v>
       </c>
-      <c r="BD44" s="2" t="n">
+      <c r="BG44" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="BE44" s="2"/>
-      <c r="BF44" s="2"/>
-      <c r="BG44" s="2"/>
       <c r="BH44" s="2"/>
       <c r="BI44" s="2"/>
       <c r="BJ44" s="2"/>
+      <c r="BK44" s="2"/>
+      <c r="BL44" s="2"/>
+      <c r="BM44" s="2"/>
+      <c r="BN44" s="2"/>
+      <c r="BO44" s="2"/>
+      <c r="BP44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -5951,23 +6450,29 @@
       <c r="AR45" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="AS45" s="2"/>
+      <c r="AS45" s="2" t="n">
+        <v>65</v>
+      </c>
       <c r="AT45" s="2"/>
       <c r="AU45" s="2"/>
       <c r="AV45" s="2"/>
-      <c r="AW45" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX45" s="2"/>
-      <c r="AY45" s="2" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="AZ45" s="2"/>
-      <c r="BA45" s="2"/>
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="BA45" s="2" t="n">
+        <v>1.1</v>
+      </c>
       <c r="BB45" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="BC45" s="2"/>
+        <v>16.1</v>
+      </c>
+      <c r="BC45" s="2" t="n">
+        <v>1.6</v>
+      </c>
       <c r="BD45" s="2"/>
       <c r="BE45" s="2"/>
       <c r="BF45" s="2"/>
@@ -5975,29 +6480,43 @@
       <c r="BH45" s="2"/>
       <c r="BI45" s="2"/>
       <c r="BJ45" s="2"/>
+      <c r="BK45" s="2" t="n">
+        <v>15.841935483871</v>
+      </c>
+      <c r="BL45" s="2" t="n">
+        <v>15.841935483871</v>
+      </c>
+      <c r="BM45" s="2" t="n">
+        <v>1.36445012291803</v>
+      </c>
+      <c r="BN45" s="2" t="n">
+        <v>1.36445012291803</v>
+      </c>
+      <c r="BO45" s="2"/>
+      <c r="BP45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>25.3</v>
@@ -6057,23 +6576,29 @@
       <c r="AR46" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="AS46" s="2"/>
+      <c r="AS46" s="2" t="n">
+        <v>100</v>
+      </c>
       <c r="AT46" s="2"/>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
-      <c r="AW46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX46" s="2"/>
-      <c r="AY46" s="2" t="n">
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AZ46" s="2"/>
-      <c r="BA46" s="2"/>
+      <c r="BA46" s="2" t="n">
+        <v>1.6</v>
+      </c>
       <c r="BB46" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC46" s="2"/>
+        <v>15.1</v>
+      </c>
+      <c r="BC46" s="2" t="n">
+        <v>1.6</v>
+      </c>
       <c r="BD46" s="2"/>
       <c r="BE46" s="2"/>
       <c r="BF46" s="2"/>
@@ -6081,29 +6606,43 @@
       <c r="BH46" s="2"/>
       <c r="BI46" s="2"/>
       <c r="BJ46" s="2"/>
+      <c r="BK46" s="2" t="n">
+        <v>15.0487394957983</v>
+      </c>
+      <c r="BL46" s="2" t="n">
+        <v>15.0487394957983</v>
+      </c>
+      <c r="BM46" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN46" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO46" s="2"/>
+      <c r="BP46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -6143,51 +6682,71 @@
       <c r="AR47" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="AS47" s="2"/>
+      <c r="AS47" s="2" t="n">
+        <v>82</v>
+      </c>
       <c r="AT47" s="2"/>
       <c r="AU47" s="2"/>
       <c r="AV47" s="2"/>
-      <c r="AW47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX47" s="2"/>
-      <c r="AY47" s="2" t="n">
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="BA47" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BB47" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="BC47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD47" s="2" t="n">
         <v>16.6</v>
       </c>
-      <c r="AZ47" s="2"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="BC47" s="2"/>
-      <c r="BD47" s="2"/>
-      <c r="BE47" s="2"/>
+      <c r="BE47" s="2" t="n">
+        <v>2.1</v>
+      </c>
       <c r="BF47" s="2"/>
       <c r="BG47" s="2"/>
       <c r="BH47" s="2"/>
       <c r="BI47" s="2"/>
       <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="2" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>30</v>
@@ -6224,7 +6783,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
@@ -6249,59 +6808,77 @@
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
-      <c r="AU48" s="2" t="n">
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AV48" s="2"/>
-      <c r="AW48" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="AW48" s="2"/>
       <c r="AX48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY48" s="2" t="n">
-        <v>16</v>
+        <v>174</v>
+      </c>
+      <c r="AY48" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="AZ48" s="2" t="n">
         <v>16</v>
       </c>
       <c r="BA48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB48" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="BB48" s="2"/>
-      <c r="BC48" s="2"/>
-      <c r="BD48" s="2"/>
-      <c r="BE48" s="2" t="s">
-        <v>166</v>
+      <c r="BC48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD48" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BE48" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="BF48" s="2"/>
-      <c r="BG48" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="BH48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="BI48" s="2"/>
       <c r="BJ48" s="2"/>
+      <c r="BK48" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BL48" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BM48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO48" s="2"/>
+      <c r="BP48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>32</v>
@@ -6338,7 +6915,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
@@ -6363,57 +6940,75 @@
       <c r="AR49" s="2"/>
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
-      <c r="AU49" s="2" t="n">
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="AV49" s="2"/>
-      <c r="AW49" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="AW49" s="2"/>
       <c r="AX49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY49" s="2" t="n">
-        <v>16</v>
+        <v>174</v>
+      </c>
+      <c r="AY49" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="AZ49" s="2" t="n">
         <v>16</v>
       </c>
       <c r="BA49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="2"/>
-      <c r="BD49" s="2"/>
-      <c r="BE49" s="2"/>
+      <c r="BC49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BE49" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="BF49" s="2"/>
-      <c r="BG49" s="2" t="n">
-        <v>16</v>
-      </c>
+      <c r="BG49" s="2"/>
       <c r="BH49" s="2"/>
       <c r="BI49" s="2"/>
       <c r="BJ49" s="2"/>
+      <c r="BK49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BL49" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BM49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO49" s="2"/>
+      <c r="BP49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>64</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>64.3</v>
@@ -6454,7 +7049,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AB50" s="2" t="n">
         <v>128</v>
@@ -6485,61 +7080,67 @@
       <c r="AP50" s="2"/>
       <c r="AQ50" s="2"/>
       <c r="AR50" s="2"/>
-      <c r="AS50" s="2"/>
+      <c r="AS50" s="2" t="n">
+        <v>51.0324468085106</v>
+      </c>
       <c r="AT50" s="2"/>
-      <c r="AU50" s="2" t="n">
+      <c r="AU50" s="2"/>
+      <c r="AV50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AV50" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="AW50" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AX50" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AY50" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="AY50" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
-      <c r="BB50" s="2" t="n">
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="2"/>
+      <c r="BE50" s="2"/>
+      <c r="BF50" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="BG50" s="2" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="BH50" s="2"/>
+      <c r="BI50" s="2"/>
+      <c r="BJ50" s="2" t="n">
         <v>51.0324468085106</v>
       </c>
-      <c r="BC50" s="2" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="BD50" s="2" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="BE50" s="2"/>
-      <c r="BF50" s="2"/>
-      <c r="BG50" s="2"/>
-      <c r="BH50" s="2" t="n">
-        <v>51.0324468085106</v>
-      </c>
-      <c r="BI50" s="2"/>
-      <c r="BJ50" s="2"/>
+      <c r="BK50" s="2"/>
+      <c r="BL50" s="2"/>
+      <c r="BM50" s="2"/>
+      <c r="BN50" s="2"/>
+      <c r="BO50" s="2"/>
+      <c r="BP50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -6560,7 +7161,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB51" s="2" t="n">
         <v>117</v>
@@ -6593,55 +7194,61 @@
       <c r="AR51" s="2"/>
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
-      <c r="AU51" s="2" t="n">
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AV51" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="AW51" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AX51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY51" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="AY51" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
       <c r="BB51" s="2"/>
-      <c r="BC51" s="2" t="n">
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2"/>
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="BD51" s="2" t="n">
+      <c r="BG51" s="2" t="n">
         <v>44.9</v>
       </c>
-      <c r="BE51" s="2"/>
-      <c r="BF51" s="2"/>
-      <c r="BG51" s="2"/>
       <c r="BH51" s="2"/>
       <c r="BI51" s="2"/>
       <c r="BJ51" s="2"/>
+      <c r="BK51" s="2"/>
+      <c r="BL51" s="2"/>
+      <c r="BM51" s="2"/>
+      <c r="BN51" s="2"/>
+      <c r="BO51" s="2"/>
+      <c r="BP51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>66</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>58.8</v>
@@ -6678,7 +7285,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AB52" s="2" t="n">
         <v>32</v>
@@ -6709,69 +7316,85 @@
       <c r="AP52" s="2"/>
       <c r="AQ52" s="2"/>
       <c r="AR52" s="2"/>
-      <c r="AS52" s="2"/>
+      <c r="AS52" s="2" t="n">
+        <v>53.4350574712644</v>
+      </c>
       <c r="AT52" s="2"/>
-      <c r="AU52" s="2" t="n">
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV52" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="AW52" s="2" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AX52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY52" s="2" t="n">
-        <v>12.1</v>
+        <v>85</v>
+      </c>
+      <c r="AY52" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="AZ52" s="2" t="n">
         <v>12.1</v>
       </c>
       <c r="BA52" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BB52" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="BB52" s="2" t="n">
+      <c r="BC52" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD52" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BE52" s="2"/>
+      <c r="BF52" s="2" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="BG52" s="2" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="2"/>
+      <c r="BJ52" s="2" t="n">
         <v>53.4350574712644</v>
       </c>
-      <c r="BC52" s="2" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="BD52" s="2" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="BE52" s="2"/>
-      <c r="BF52" s="2"/>
-      <c r="BG52" s="2" t="n">
+      <c r="BK52" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="BH52" s="2" t="n">
-        <v>53.4350574712644</v>
-      </c>
-      <c r="BI52" s="2"/>
-      <c r="BJ52" s="2"/>
+      <c r="BL52" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BM52" s="2" t="n">
+        <v>2.95729291673125</v>
+      </c>
+      <c r="BN52" s="2" t="n">
+        <v>2.95729291673125</v>
+      </c>
+      <c r="BO52" s="2"/>
+      <c r="BP52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>67</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -6792,7 +7415,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB53" s="2" t="n">
         <v>42</v>
@@ -6825,59 +7448,73 @@
       <c r="AR53" s="2"/>
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
-      <c r="AU53" s="2" t="n">
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV53" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="AW53" s="2" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AX53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY53" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY53" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="AZ53" s="2" t="n">
         <v>12.1</v>
       </c>
       <c r="BA53" s="2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BB53" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="BB53" s="2"/>
       <c r="BC53" s="2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD53" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2" t="n">
         <v>52.8</v>
       </c>
-      <c r="BD53" s="2" t="n">
+      <c r="BG53" s="2" t="n">
         <v>54.1</v>
       </c>
-      <c r="BE53" s="2"/>
-      <c r="BF53" s="2"/>
-      <c r="BG53" s="2"/>
       <c r="BH53" s="2"/>
       <c r="BI53" s="2"/>
       <c r="BJ53" s="2"/>
+      <c r="BK53" s="2"/>
+      <c r="BL53" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="BM53" s="2"/>
+      <c r="BN53" s="2"/>
+      <c r="BO53" s="2"/>
+      <c r="BP53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>68</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>54.5</v>
@@ -6914,7 +7551,7 @@
         <v>132</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AB54" s="2" t="n">
         <v>59</v>
@@ -6945,69 +7582,87 @@
       <c r="AP54" s="2"/>
       <c r="AQ54" s="2"/>
       <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
+      <c r="AS54" s="2" t="n">
+        <v>51.9</v>
+      </c>
       <c r="AT54" s="2"/>
-      <c r="AU54" s="2" t="n">
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV54" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="AW54" s="2" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AX54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AY54" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AY54" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ54" s="2" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="BA54" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BB54" s="2" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="BC54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD54" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="AZ54" s="2" t="n">
+      <c r="BE54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF54" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="BG54" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
+      <c r="BJ54" s="2" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="BK54" s="2" t="n">
+        <v>12.3007575757576</v>
+      </c>
+      <c r="BL54" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BA54" s="2" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="BB54" s="2" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="BC54" s="2" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="BD54" s="2" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="BE54" s="2"/>
-      <c r="BF54" s="2"/>
-      <c r="BG54" s="2" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="BH54" s="2" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="BI54" s="2"/>
-      <c r="BJ54" s="2"/>
+      <c r="BM54" s="2" t="n">
+        <v>2.95080529828671</v>
+      </c>
+      <c r="BN54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO54" s="2"/>
+      <c r="BP54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>69</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -7028,7 +7683,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AB55" s="2" t="n">
         <v>81</v>
@@ -7061,61 +7716,79 @@
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
       <c r="AT55" s="2"/>
-      <c r="AU55" s="2" t="n">
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AV55" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="AW55" s="2" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AX55" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AY55" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AY55" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="AZ55" s="2" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="BA55" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BB55" s="2" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="BC55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD55" s="2" t="n">
         <v>12.3</v>
       </c>
-      <c r="BA55" s="2" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="BB55" s="2"/>
-      <c r="BC55" s="2" t="n">
+      <c r="BE55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF55" s="2" t="n">
         <v>51.9</v>
       </c>
-      <c r="BD55" s="2" t="n">
+      <c r="BG55" s="2" t="n">
         <v>51.9</v>
       </c>
-      <c r="BE55" s="2"/>
-      <c r="BF55" s="2"/>
-      <c r="BG55" s="2"/>
       <c r="BH55" s="2"/>
       <c r="BI55" s="2"/>
       <c r="BJ55" s="2"/>
+      <c r="BK55" s="2"/>
+      <c r="BL55" s="2" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="BM55" s="2"/>
+      <c r="BN55" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO55" s="2"/>
+      <c r="BP55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -7159,53 +7832,73 @@
       <c r="AR56" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="AS56" s="2"/>
+      <c r="AS56" s="2" t="n">
+        <v>59</v>
+      </c>
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
-      <c r="AW56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX56" s="2"/>
-      <c r="AY56" s="2" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="AZ56" s="2"/>
-      <c r="BA56" s="2"/>
+      <c r="AW56" s="2"/>
+      <c r="AX56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="2" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="BA56" s="2" t="n">
+        <v>0.68</v>
+      </c>
       <c r="BB56" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="BC56" s="2"/>
-      <c r="BD56" s="2"/>
-      <c r="BE56" s="2"/>
+        <v>14.52</v>
+      </c>
+      <c r="BC56" s="2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="BD56" s="2" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="BE56" s="2" t="n">
+        <v>0.76</v>
+      </c>
       <c r="BF56" s="2"/>
       <c r="BG56" s="2"/>
       <c r="BH56" s="2"/>
       <c r="BI56" s="2"/>
       <c r="BJ56" s="2"/>
+      <c r="BK56" s="2"/>
+      <c r="BL56" s="2" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="BM56" s="2"/>
+      <c r="BN56" s="2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BO56" s="2"/>
+      <c r="BP56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -7249,30 +7942,50 @@
       <c r="AR57" s="3" t="n">
         <v>107</v>
       </c>
-      <c r="AS57" s="3"/>
+      <c r="AS57" s="3" t="n">
+        <v>59</v>
+      </c>
       <c r="AT57" s="3"/>
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
-      <c r="AW57" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX57" s="3"/>
-      <c r="AY57" s="3" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="AZ57" s="3"/>
-      <c r="BA57" s="3"/>
+      <c r="AW57" s="3"/>
+      <c r="AX57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY57" s="3"/>
+      <c r="AZ57" s="3" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="BA57" s="3" t="n">
+        <v>0.68</v>
+      </c>
       <c r="BB57" s="3" t="n">
-        <v>59</v>
-      </c>
-      <c r="BC57" s="3"/>
-      <c r="BD57" s="3"/>
-      <c r="BE57" s="3"/>
+        <v>14.52</v>
+      </c>
+      <c r="BC57" s="3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="BD57" s="3" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="BE57" s="3" t="n">
+        <v>0.76</v>
+      </c>
       <c r="BF57" s="3"/>
       <c r="BG57" s="3"/>
       <c r="BH57" s="3"/>
       <c r="BI57" s="3"/>
       <c r="BJ57" s="3"/>
+      <c r="BK57" s="3"/>
+      <c r="BL57" s="3" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="BM57" s="3"/>
+      <c r="BN57" s="3" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BO57" s="3"/>
+      <c r="BP57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">psy_or_med</t>
   </si>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">Atkinson</t>
   </si>
   <si>
-    <t xml:space="preserve">2014.0</t>
+    <t xml:space="preserve">2014</t>
   </si>
   <si>
     <t xml:space="preserve">Placebo</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">Berard</t>
   </si>
   <si>
-    <t xml:space="preserve">2006.0</t>
+    <t xml:space="preserve">2006</t>
   </si>
   <si>
     <t xml:space="preserve">madrs</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">Emslie</t>
   </si>
   <si>
-    <t xml:space="preserve">1997.0</t>
+    <t xml:space="preserve">1997</t>
   </si>
   <si>
     <t xml:space="preserve">Dysthymia, anxiety disordes, ADHD, oppositional/conduct disorder</t>
@@ -380,9 +380,6 @@
     <t xml:space="preserve">*Did not report demographics (e.g. mean age, % of women) per trial. Instead, demographics were reported for the two trials combined, hence the (combined)</t>
   </si>
   <si>
-    <t xml:space="preserve">2009.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">40% improvement from baseline score</t>
   </si>
   <si>
@@ -410,7 +407,7 @@
     <t xml:space="preserve">Hughes</t>
   </si>
   <si>
-    <t xml:space="preserve">1990.0</t>
+    <t xml:space="preserve">1990</t>
   </si>
   <si>
     <t xml:space="preserve">50% reduction in CDRS</t>
@@ -425,7 +422,7 @@
     <t xml:space="preserve">Keller</t>
   </si>
   <si>
-    <t xml:space="preserve">2001.0</t>
+    <t xml:space="preserve">2001</t>
   </si>
   <si>
     <t xml:space="preserve">Anxiety disorders (e.g. separation anxiety, social anxiety disorder) and externalising disorders</t>
@@ -437,7 +434,7 @@
     <t xml:space="preserve">Klein</t>
   </si>
   <si>
-    <t xml:space="preserve">1998.0</t>
+    <t xml:space="preserve">1998</t>
   </si>
   <si>
     <t xml:space="preserve">Anxiety disorders and behaviour disorders</t>
@@ -449,7 +446,7 @@
     <t xml:space="preserve">Kutcher</t>
   </si>
   <si>
-    <t xml:space="preserve">1994.0</t>
+    <t xml:space="preserve">1994</t>
   </si>
   <si>
     <t xml:space="preserve">Canada</t>
@@ -482,9 +479,6 @@
     <t xml:space="preserve">March</t>
   </si>
   <si>
-    <t xml:space="preserve">2004.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anxiety, disruptive behaviour, obsessive-compulsice/tic, substance use, attention-deficit/hyperactivity</t>
   </si>
   <si>
@@ -503,9 +497,6 @@
     <t xml:space="preserve">Sanford, 2006</t>
   </si>
   <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
     <t xml:space="preserve">Family Psychoeducation (FPE) + cau</t>
   </si>
   <si>
@@ -548,7 +539,7 @@
     <t xml:space="preserve">Wagner</t>
   </si>
   <si>
-    <t xml:space="preserve">2003.0</t>
+    <t xml:space="preserve">2003</t>
   </si>
   <si>
     <t xml:space="preserve">40% improvement</t>
@@ -3971,7 +3962,7 @@
         <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>28</v>
@@ -4027,7 +4018,7 @@
         <v>157</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AB25" s="2" t="n">
         <v>91</v>
@@ -4067,7 +4058,7 @@
         <v>8</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>85</v>
@@ -4096,7 +4087,7 @@
         <v>58.6</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BI25" s="2"/>
       <c r="BJ25" s="2" t="n">
@@ -4125,7 +4116,7 @@
         <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>29</v>
@@ -4195,7 +4186,7 @@
         <v>8</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX26" s="2" t="s">
         <v>85</v>
@@ -4301,7 +4292,7 @@
         <v>117</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -4334,7 +4325,7 @@
       </c>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY27" s="2" t="s">
         <v>86</v>
@@ -4360,7 +4351,7 @@
         <v>56.6</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BI27" s="2"/>
       <c r="BJ27" s="2" t="n">
@@ -4449,7 +4440,7 @@
         <v>117</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -4482,7 +4473,7 @@
       </c>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY28" s="2" t="s">
         <v>86</v>
@@ -4595,7 +4586,7 @@
         <v>117</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -4628,7 +4619,7 @@
       </c>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY29" s="2" t="s">
         <v>86</v>
@@ -4678,10 +4669,10 @@
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>35</v>
@@ -4751,7 +4742,7 @@
         <v>8</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX30" s="2" t="s">
         <v>85</v>
@@ -4802,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>40</v>
@@ -4837,7 +4828,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB31" s="2" t="n">
         <v>4</v>
@@ -4875,11 +4866,11 @@
         <v>6</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX31" s="2"/>
       <c r="AY31" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
@@ -4904,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>41</v>
@@ -4939,7 +4930,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB32" s="2" t="n">
         <v>2</v>
@@ -4977,11 +4968,11 @@
         <v>6</v>
       </c>
       <c r="AW32" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX32" s="2"/>
       <c r="AY32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
@@ -5006,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>47</v>
@@ -5079,13 +5070,13 @@
         <v>8</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AX33" s="2" t="s">
         <v>112</v>
       </c>
       <c r="AY33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AZ33" s="2" t="n">
         <v>14.9</v>
@@ -5122,10 +5113,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>44</v>
@@ -5195,13 +5186,13 @@
         <v>8</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AX34" s="2" t="s">
         <v>112</v>
       </c>
       <c r="AY34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AZ34" s="2" t="n">
         <v>14.8</v>
@@ -5238,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>50</v>
@@ -5311,13 +5302,13 @@
         <v>6</v>
       </c>
       <c r="AW35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AX35" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AY35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ35" s="2"/>
       <c r="BA35" s="2"/>
@@ -5354,10 +5345,10 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>53</v>
@@ -5428,10 +5419,10 @@
       </c>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY36" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="AY36" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="2"/>
@@ -5466,23 +5457,23 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -5560,10 +5551,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5676,10 +5667,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5688,7 +5679,7 @@
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>78.69</v>
@@ -5790,10 +5781,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>58</v>
@@ -5863,7 +5854,7 @@
         <v>12</v>
       </c>
       <c r="AW40" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AX40" s="2" t="s">
         <v>85</v>
@@ -5906,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>100</v>
@@ -6002,7 +5993,7 @@
         <v>56.8</v>
       </c>
       <c r="BH41" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BI41" s="2"/>
       <c r="BJ41" s="2" t="n">
@@ -6024,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>104</v>
@@ -6140,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>59</v>
@@ -6222,7 +6213,7 @@
       </c>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AY43" s="2" t="s">
         <v>86</v>
@@ -6272,10 +6263,10 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>60</v>
@@ -6346,7 +6337,7 @@
       </c>
       <c r="AW44" s="2"/>
       <c r="AX44" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AY44" s="2" t="s">
         <v>86</v>
@@ -6386,23 +6377,23 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -6458,7 +6449,7 @@
       <c r="AV45" s="2"/>
       <c r="AW45" s="2"/>
       <c r="AX45" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AY45" s="2"/>
       <c r="AZ45" s="2" t="n">
@@ -6500,23 +6491,23 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>25.3</v>
@@ -6626,10 +6617,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
@@ -6732,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>88</v>
@@ -6814,10 +6805,10 @@
       </c>
       <c r="AW48" s="2"/>
       <c r="AX48" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AY48" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ48" s="2" t="n">
         <v>16</v>
@@ -6840,7 +6831,7 @@
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
       <c r="BH48" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="BI48" s="2"/>
       <c r="BJ48" s="2"/>
@@ -6864,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>88</v>
@@ -6915,7 +6906,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
@@ -6946,10 +6937,10 @@
       </c>
       <c r="AW49" s="2"/>
       <c r="AX49" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AY49" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AZ49" s="2" t="n">
         <v>16</v>
@@ -6994,10 +6985,10 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>64</v>
@@ -7049,7 +7040,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AB50" s="2" t="n">
         <v>128</v>
@@ -7089,13 +7080,13 @@
         <v>10</v>
       </c>
       <c r="AW50" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AX50" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AY50" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
@@ -7126,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>65</v>
@@ -7199,10 +7190,10 @@
         <v>10</v>
       </c>
       <c r="AW51" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AX51" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AY51" s="2" t="s">
         <v>86</v>
@@ -7234,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>66</v>
@@ -7285,7 +7276,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AB52" s="2" t="n">
         <v>32</v>
@@ -7325,7 +7316,7 @@
         <v>8</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AX52" s="2" t="s">
         <v>85</v>
@@ -7380,10 +7371,10 @@
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>67</v>
@@ -7453,7 +7444,7 @@
         <v>8</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AX53" s="2" t="s">
         <v>85</v>
@@ -7500,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>88</v>
@@ -7551,7 +7542,7 @@
         <v>132</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AB54" s="2" t="n">
         <v>59</v>
@@ -7591,13 +7582,13 @@
         <v>8</v>
       </c>
       <c r="AW54" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AX54" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AY54" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AZ54" s="2" t="n">
         <v>12.2</v>
@@ -7648,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>88</v>
@@ -7721,13 +7712,13 @@
         <v>8</v>
       </c>
       <c r="AW55" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AX55" s="2" t="s">
         <v>85</v>
       </c>
       <c r="AY55" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AZ55" s="2" t="n">
         <v>12.2</v>
@@ -7772,20 +7763,20 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>83</v>
@@ -7882,23 +7873,23 @@
         <v>1</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>

--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t xml:space="preserve">psy_or_med</t>
   </si>
@@ -195,21 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve">comorbid_mental?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overall_percent_women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overall_mean_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pooled_sd_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_age</t>
   </si>
   <si>
     <t xml:space="preserve">cohens_d_active</t>
@@ -1132,41 +1117,26 @@
       <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1215,7 +1185,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
@@ -1232,36 +1202,29 @@
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
-      <c r="BL2" s="1" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1321,7 +1284,7 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
@@ -1336,32 +1299,27 @@
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
       <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>59.2</v>
@@ -1402,7 +1360,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -1425,9 +1383,7 @@
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="2"/>
-      <c r="AS4" s="2" t="n">
-        <v>52.2654545454546</v>
-      </c>
+      <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2" t="n">
@@ -1435,10 +1391,10 @@
       </c>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ4" s="2" t="n">
         <v>13.1</v>
@@ -1462,44 +1418,29 @@
       </c>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
-      <c r="BJ4" s="2" t="n">
-        <v>52.2654545454546</v>
-      </c>
-      <c r="BK4" s="2" t="n">
-        <v>13.1936363636364</v>
-      </c>
-      <c r="BL4" s="2" t="n">
-        <v>13.1936363636364</v>
-      </c>
-      <c r="BM4" s="2" t="n">
-        <v>3.04719753938544</v>
-      </c>
-      <c r="BN4" s="2" t="n">
-        <v>3.04719753938544</v>
-      </c>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>58.8</v>
@@ -1540,7 +1481,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -1563,9 +1504,7 @@
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
-      <c r="AS5" s="2" t="n">
-        <v>50.8827272727273</v>
-      </c>
+      <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2" t="n">
@@ -1573,10 +1512,10 @@
       </c>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ5" s="2" t="n">
         <v>13.1</v>
@@ -1600,44 +1539,29 @@
       </c>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
-      <c r="BJ5" s="2" t="n">
-        <v>50.8827272727273</v>
-      </c>
-      <c r="BK5" s="2" t="n">
-        <v>13.1936363636364</v>
-      </c>
-      <c r="BL5" s="2" t="n">
-        <v>13.1936363636364</v>
-      </c>
-      <c r="BM5" s="2" t="n">
-        <v>3.20797458179319</v>
-      </c>
-      <c r="BN5" s="2" t="n">
-        <v>3.20797458179319</v>
-      </c>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>25.9</v>
@@ -1686,7 +1610,7 @@
         <v>91</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB6" s="2" t="n">
         <v>107</v>
@@ -1717,22 +1641,20 @@
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
-      <c r="AS6" s="2" t="n">
-        <v>67</v>
-      </c>
+      <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2" t="n">
         <v>12</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AZ6" s="2" t="n">
         <v>15.5</v>
@@ -1756,44 +1678,29 @@
       </c>
       <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
-      <c r="BJ6" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BK6" s="2" t="n">
-        <v>15.6014545454545</v>
-      </c>
-      <c r="BL6" s="2" t="n">
-        <v>15.6014545454545</v>
-      </c>
-      <c r="BM6" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BN6" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>23</v>
@@ -1842,7 +1749,7 @@
         <v>90</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -1861,22 +1768,20 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="2" t="n">
-        <v>67</v>
-      </c>
+      <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2" t="n">
         <v>12</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AZ7" s="2" t="n">
         <v>15.5</v>
@@ -1900,44 +1805,29 @@
       </c>
       <c r="BH7" s="2"/>
       <c r="BI7" s="2"/>
-      <c r="BJ7" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BK7" s="2" t="n">
-        <v>15.6014545454545</v>
-      </c>
-      <c r="BL7" s="2" t="n">
-        <v>15.6014545454545</v>
-      </c>
-      <c r="BM7" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BN7" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BO7" s="2"/>
-      <c r="BP7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1995,22 +1885,20 @@
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
-      <c r="AS8" s="2" t="n">
-        <v>67</v>
-      </c>
+      <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2" t="n">
         <v>12</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AZ8" s="2" t="n">
         <v>15.5</v>
@@ -2034,44 +1922,29 @@
       </c>
       <c r="BH8" s="2"/>
       <c r="BI8" s="2"/>
-      <c r="BJ8" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BK8" s="2" t="n">
-        <v>15.6014545454545</v>
-      </c>
-      <c r="BL8" s="2" t="n">
-        <v>15.6014545454545</v>
-      </c>
-      <c r="BM8" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BN8" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BO8" s="2"/>
-      <c r="BP8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2092,7 +1965,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB9" s="2" t="n">
         <v>119</v>
@@ -2130,13 +2003,13 @@
         <v>12</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AZ9" s="2" t="n">
         <v>15.5</v>
@@ -2162,32 +2035,27 @@
       <c r="BI9" s="2"/>
       <c r="BJ9" s="2"/>
       <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2236,13 +2104,13 @@
         <v>8</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AX10" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY10" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
@@ -2253,37 +2121,32 @@
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="BI10" s="2"/>
       <c r="BJ10" s="2"/>
       <c r="BK10" s="2"/>
-      <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2"/>
-      <c r="BP10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2332,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY11" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
@@ -2352,32 +2215,27 @@
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
       <c r="BK11" s="2"/>
-      <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
-      <c r="BN11" s="2"/>
-      <c r="BO11" s="2"/>
-      <c r="BP11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2398,7 +2256,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -2428,13 +2286,13 @@
         <v>8</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY12" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
@@ -2448,32 +2306,27 @@
       <c r="BI12" s="2"/>
       <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
-      <c r="BL12" s="2"/>
-      <c r="BM12" s="2"/>
-      <c r="BN12" s="2"/>
-      <c r="BO12" s="2"/>
-      <c r="BP12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>61.2</v>
@@ -2510,7 +2363,7 @@
         <v>93</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -2536,13 +2389,13 @@
         <v>8</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AX13" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY13" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
@@ -2556,32 +2409,27 @@
       <c r="BI13" s="2"/>
       <c r="BJ13" s="2"/>
       <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
-      <c r="BO13" s="2"/>
-      <c r="BP13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2602,7 +2450,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB14" s="2" t="n">
         <v>27</v>
@@ -2640,13 +2488,13 @@
         <v>8</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AX14" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY14" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ14" s="2" t="n">
         <v>12.2</v>
@@ -2672,32 +2520,27 @@
       <c r="BI14" s="2"/>
       <c r="BJ14" s="2"/>
       <c r="BK14" s="2"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
-      <c r="BO14" s="2"/>
-      <c r="BP14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2718,7 +2561,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB15" s="2" t="n">
         <v>57</v>
@@ -2752,13 +2595,13 @@
         <v>9</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AX15" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY15" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AZ15" s="2" t="n">
         <v>12.7</v>
@@ -2784,32 +2627,27 @@
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
-      <c r="BL15" s="2"/>
-      <c r="BM15" s="2"/>
-      <c r="BN15" s="2"/>
-      <c r="BO15" s="2"/>
-      <c r="BP15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2871,10 +2709,10 @@
       </c>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY16" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
@@ -2888,32 +2726,27 @@
       <c r="BI16" s="2"/>
       <c r="BJ16" s="2"/>
       <c r="BK16" s="2"/>
-      <c r="BL16" s="2"/>
-      <c r="BM16" s="2"/>
-      <c r="BN16" s="2"/>
-      <c r="BO16" s="2"/>
-      <c r="BP16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2967,10 +2800,10 @@
       </c>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY17" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
@@ -2984,32 +2817,27 @@
       <c r="BI17" s="2"/>
       <c r="BJ17" s="2"/>
       <c r="BK17" s="2"/>
-      <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
-      <c r="BN17" s="2"/>
-      <c r="BO17" s="2"/>
-      <c r="BP17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -3030,7 +2858,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB18" s="2" t="n">
         <v>61</v>
@@ -3069,10 +2897,10 @@
       </c>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY18" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
@@ -3086,32 +2914,27 @@
       <c r="BI18" s="2"/>
       <c r="BJ18" s="2"/>
       <c r="BK18" s="2"/>
-      <c r="BL18" s="2"/>
-      <c r="BM18" s="2"/>
-      <c r="BN18" s="2"/>
-      <c r="BO18" s="2"/>
-      <c r="BP18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>60.7</v>
@@ -3177,22 +3000,20 @@
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
-      <c r="AS19" s="2" t="n">
-        <v>46.8</v>
-      </c>
+      <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2" t="n">
         <v>8</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ19" s="2" t="n">
         <v>11.9</v>
@@ -3219,47 +3040,32 @@
         <v>46.8</v>
       </c>
       <c r="BH19" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="BI19" s="2"/>
-      <c r="BJ19" s="2" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="BK19" s="2" t="n">
-        <v>12.0004926108374</v>
-      </c>
-      <c r="BL19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BM19" s="2" t="n">
-        <v>2.97498066384452</v>
-      </c>
-      <c r="BN19" s="2" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3280,7 +3086,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB20" s="2" t="n">
         <v>49</v>
@@ -3318,13 +3124,13 @@
         <v>8</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ20" s="2" t="n">
         <v>11.9</v>
@@ -3354,36 +3160,27 @@
       <c r="BI20" s="2"/>
       <c r="BJ20" s="2"/>
       <c r="BK20" s="2"/>
-      <c r="BL20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BM20" s="2"/>
-      <c r="BN20" s="2" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="BO20" s="2"/>
-      <c r="BP20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>18.2</v>
@@ -3420,7 +3217,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AB21" s="2" t="n">
         <v>85</v>
@@ -3451,9 +3248,7 @@
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
-      <c r="AS21" s="2" t="n">
-        <v>45.5044510385757</v>
-      </c>
+      <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2" t="n">
@@ -3461,10 +3256,10 @@
       </c>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY21" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ21" s="2" t="n">
         <v>12.2</v>
@@ -3488,44 +3283,29 @@
       </c>
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
-      <c r="BJ21" s="2" t="n">
-        <v>45.5044510385757</v>
-      </c>
-      <c r="BK21" s="2" t="n">
-        <v>12.2501483679525</v>
-      </c>
-      <c r="BL21" s="2" t="n">
-        <v>12.2501483679525</v>
-      </c>
-      <c r="BM21" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BN21" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BO21" s="2"/>
-      <c r="BP21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>25.6</v>
@@ -3562,7 +3342,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AB22" s="2" t="n">
         <v>81</v>
@@ -3593,9 +3373,7 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
-      <c r="AS22" s="2" t="n">
-        <v>45.5044510385757</v>
-      </c>
+      <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2" t="n">
@@ -3603,10 +3381,10 @@
       </c>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY22" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ22" s="2" t="n">
         <v>12.2</v>
@@ -3629,47 +3407,32 @@
         <v>47</v>
       </c>
       <c r="BH22" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="BI22" s="2"/>
-      <c r="BJ22" s="2" t="n">
-        <v>45.5044510385757</v>
-      </c>
-      <c r="BK22" s="2" t="n">
-        <v>12.2501483679525</v>
-      </c>
-      <c r="BL22" s="2" t="n">
-        <v>12.2501483679525</v>
-      </c>
-      <c r="BM22" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BN22" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BO22" s="2"/>
-      <c r="BP22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>54.4</v>
@@ -3710,7 +3473,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AB23" s="2" t="n">
         <v>43</v>
@@ -3769,10 +3532,10 @@
       </c>
       <c r="AW23" s="2"/>
       <c r="AX23" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY23" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2" t="n">
@@ -3787,41 +3550,32 @@
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
       <c r="BH23" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="BI23" s="2"/>
       <c r="BJ23" s="2"/>
       <c r="BK23" s="2"/>
-      <c r="BL23" s="2"/>
-      <c r="BM23" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BN23" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BO23" s="2"/>
-      <c r="BP23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>57.3</v>
@@ -3862,7 +3616,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AB24" s="2" t="n">
         <v>77</v>
@@ -3921,10 +3675,10 @@
       </c>
       <c r="AW24" s="2"/>
       <c r="AX24" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY24" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ24" s="2"/>
       <c r="BA24" s="2" t="n">
@@ -3939,41 +3693,32 @@
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
       <c r="BK24" s="2"/>
-      <c r="BL24" s="2"/>
-      <c r="BM24" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BN24" s="2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BO24" s="2"/>
-      <c r="BP24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>57.6</v>
@@ -4018,7 +3763,7 @@
         <v>157</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AB25" s="2" t="n">
         <v>91</v>
@@ -4049,22 +3794,20 @@
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
-      <c r="AS25" s="2" t="n">
-        <v>58.9961414790997</v>
-      </c>
+      <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2" t="n">
         <v>8</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AX25" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY25" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AZ25" s="2" t="n">
         <v>14.7</v>
@@ -4087,47 +3830,32 @@
         <v>58.6</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BI25" s="2"/>
-      <c r="BJ25" s="2" t="n">
-        <v>58.9961414790997</v>
-      </c>
-      <c r="BK25" s="2" t="n">
-        <v>14.5990353697749</v>
-      </c>
-      <c r="BL25" s="2" t="n">
-        <v>14.5990353697749</v>
-      </c>
-      <c r="BM25" s="2" t="n">
-        <v>1.5503209814845</v>
-      </c>
-      <c r="BN25" s="2" t="n">
-        <v>1.5503209814845</v>
-      </c>
-      <c r="BO25" s="2"/>
-      <c r="BP25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -4148,7 +3876,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB26" s="2" t="n">
         <v>99</v>
@@ -4186,13 +3914,13 @@
         <v>8</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AX26" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY26" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AZ26" s="2" t="n">
         <v>14.7</v>
@@ -4218,32 +3946,27 @@
       <c r="BI26" s="2"/>
       <c r="BJ26" s="2"/>
       <c r="BK26" s="2"/>
-      <c r="BL26" s="2"/>
-      <c r="BM26" s="2"/>
-      <c r="BN26" s="2"/>
-      <c r="BO26" s="2"/>
-      <c r="BP26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>59.3</v>
@@ -4292,7 +4015,7 @@
         <v>117</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -4315,9 +4038,7 @@
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
-      <c r="AS27" s="2" t="n">
-        <v>56.1304347826087</v>
-      </c>
+      <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
       <c r="AV27" s="2" t="n">
@@ -4325,10 +4046,10 @@
       </c>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AY27" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ27" s="2" t="n">
         <v>12.9</v>
@@ -4351,47 +4072,32 @@
         <v>56.6</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="BI27" s="2"/>
-      <c r="BJ27" s="2" t="n">
-        <v>56.1304347826087</v>
-      </c>
-      <c r="BK27" s="2" t="n">
-        <v>13.0060869565217</v>
-      </c>
-      <c r="BL27" s="2" t="n">
-        <v>13.0060869565217</v>
-      </c>
-      <c r="BM27" s="2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BN27" s="2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BO27" s="2"/>
-      <c r="BP27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>59.8</v>
@@ -4440,7 +4146,7 @@
         <v>117</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -4463,9 +4169,7 @@
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
-      <c r="AS28" s="2" t="n">
-        <v>48.7529411764706</v>
-      </c>
+      <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2" t="n">
@@ -4473,10 +4177,10 @@
       </c>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AY28" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ28" s="2" t="n">
         <v>12.9</v>
@@ -4500,44 +4204,29 @@
       </c>
       <c r="BH28" s="2"/>
       <c r="BI28" s="2"/>
-      <c r="BJ28" s="2" t="n">
-        <v>48.7529411764706</v>
-      </c>
-      <c r="BK28" s="2" t="n">
-        <v>13.0025210084034</v>
-      </c>
-      <c r="BL28" s="2" t="n">
-        <v>13.0025210084034</v>
-      </c>
-      <c r="BM28" s="2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BN28" s="2" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BO28" s="2"/>
-      <c r="BP28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>57.9</v>
@@ -4586,7 +4275,7 @@
         <v>117</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -4609,9 +4298,7 @@
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
-      <c r="AS29" s="2" t="n">
-        <v>54.3970711297071</v>
-      </c>
+      <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2" t="n">
@@ -4619,10 +4306,10 @@
       </c>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AY29" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ29" s="2" t="n">
         <v>13</v>
@@ -4646,44 +4333,29 @@
       </c>
       <c r="BH29" s="2"/>
       <c r="BI29" s="2"/>
-      <c r="BJ29" s="2" t="n">
-        <v>54.3970711297071</v>
-      </c>
-      <c r="BK29" s="2" t="n">
-        <v>13.0510460251046</v>
-      </c>
-      <c r="BL29" s="2" t="n">
-        <v>13.0510460251046</v>
-      </c>
-      <c r="BM29" s="2" t="n">
-        <v>3.05052392262897</v>
-      </c>
-      <c r="BN29" s="2" t="n">
-        <v>3.05052392262897</v>
-      </c>
-      <c r="BO29" s="2"/>
-      <c r="BP29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -4704,7 +4376,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB30" s="2" t="n">
         <v>9</v>
@@ -4742,13 +4414,13 @@
         <v>8</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AX30" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY30" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AZ30" s="2" t="n">
         <v>16.55</v>
@@ -4778,36 +4450,27 @@
       <c r="BI30" s="2"/>
       <c r="BJ30" s="2"/>
       <c r="BK30" s="2"/>
-      <c r="BL30" s="2" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="BM30" s="2"/>
-      <c r="BN30" s="2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="BO30" s="2"/>
-      <c r="BP30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -4828,7 +4491,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AB31" s="2" t="n">
         <v>4</v>
@@ -4866,11 +4529,11 @@
         <v>6</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AX31" s="2"/>
       <c r="AY31" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
@@ -4884,32 +4547,27 @@
       <c r="BI31" s="2"/>
       <c r="BJ31" s="2"/>
       <c r="BK31" s="2"/>
-      <c r="BL31" s="2"/>
-      <c r="BM31" s="2"/>
-      <c r="BN31" s="2"/>
-      <c r="BO31" s="2"/>
-      <c r="BP31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -4930,7 +4588,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AB32" s="2" t="n">
         <v>2</v>
@@ -4968,11 +4626,11 @@
         <v>6</v>
       </c>
       <c r="AW32" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AX32" s="2"/>
       <c r="AY32" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
@@ -4986,32 +4644,27 @@
       <c r="BI32" s="2"/>
       <c r="BJ32" s="2"/>
       <c r="BK32" s="2"/>
-      <c r="BL32" s="2"/>
-      <c r="BM32" s="2"/>
-      <c r="BN32" s="2"/>
-      <c r="BO32" s="2"/>
-      <c r="BP32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -5032,7 +4685,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB33" s="2" t="n">
         <v>49</v>
@@ -5070,13 +4723,13 @@
         <v>8</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AX33" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AY33" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AZ33" s="2" t="n">
         <v>14.9</v>
@@ -5102,32 +4755,27 @@
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
       <c r="BK33" s="2"/>
-      <c r="BL33" s="2"/>
-      <c r="BM33" s="2"/>
-      <c r="BN33" s="2"/>
-      <c r="BO33" s="2"/>
-      <c r="BP33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -5148,7 +4796,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>59</v>
@@ -5186,13 +4834,13 @@
         <v>8</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AX34" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AY34" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AZ34" s="2" t="n">
         <v>14.8</v>
@@ -5218,32 +4866,27 @@
       <c r="BI34" s="2"/>
       <c r="BJ34" s="2"/>
       <c r="BK34" s="2"/>
-      <c r="BL34" s="2"/>
-      <c r="BM34" s="2"/>
-      <c r="BN34" s="2"/>
-      <c r="BO34" s="2"/>
-      <c r="BP34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -5264,7 +4907,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB35" s="2" t="n">
         <v>12</v>
@@ -5302,13 +4945,13 @@
         <v>6</v>
       </c>
       <c r="AW35" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AX35" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY35" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AZ35" s="2"/>
       <c r="BA35" s="2"/>
@@ -5330,36 +4973,27 @@
       <c r="BI35" s="2"/>
       <c r="BJ35" s="2"/>
       <c r="BK35" s="2"/>
-      <c r="BL35" s="2" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="BM35" s="2"/>
-      <c r="BN35" s="2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BO35" s="2"/>
-      <c r="BP35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -5409,9 +5043,7 @@
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
-      <c r="AS36" s="2" t="n">
-        <v>70</v>
-      </c>
+      <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2" t="n">
@@ -5419,10 +5051,10 @@
       </c>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AY36" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="2"/>
@@ -5440,40 +5072,31 @@
       </c>
       <c r="BH36" s="2"/>
       <c r="BI36" s="2"/>
-      <c r="BJ36" s="2" t="n">
-        <v>70</v>
-      </c>
+      <c r="BJ36" s="2"/>
       <c r="BK36" s="2"/>
-      <c r="BL36" s="2" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="BM36" s="2"/>
-      <c r="BN36" s="2"/>
-      <c r="BO36" s="2"/>
-      <c r="BP36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -5521,7 +5144,7 @@
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
@@ -5538,32 +5161,25 @@
       <c r="BI37" s="2"/>
       <c r="BJ37" s="2"/>
       <c r="BK37" s="2"/>
-      <c r="BL37" s="2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BM37" s="2"/>
-      <c r="BN37" s="2"/>
-      <c r="BO37" s="2"/>
-      <c r="BP37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>59.64</v>
@@ -5631,7 +5247,7 @@
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
       <c r="AX38" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY38" s="2"/>
       <c r="AZ38" s="2"/>
@@ -5648,38 +5264,29 @@
       <c r="BG38" s="2"/>
       <c r="BH38" s="2"/>
       <c r="BI38" s="2"/>
-      <c r="BJ38" s="2"/>
+      <c r="BJ38" s="2" t="n">
+        <v>-2.56642335766423</v>
+      </c>
       <c r="BK38" s="2"/>
-      <c r="BL38" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="BM38" s="2"/>
-      <c r="BN38" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO38" s="2" t="n">
-        <v>-2.56642335766423</v>
-      </c>
-      <c r="BP38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>78.69</v>
@@ -5745,7 +5352,7 @@
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
       <c r="AX39" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY39" s="2"/>
       <c r="AZ39" s="2"/>
@@ -5762,40 +5369,31 @@
       <c r="BG39" s="2"/>
       <c r="BH39" s="2"/>
       <c r="BI39" s="2"/>
-      <c r="BJ39" s="2"/>
+      <c r="BJ39" s="2" t="n">
+        <v>-0.866370609608398</v>
+      </c>
       <c r="BK39" s="2"/>
-      <c r="BL39" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="BM39" s="2"/>
-      <c r="BN39" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO39" s="2" t="n">
-        <v>-0.866370609608398</v>
-      </c>
-      <c r="BP39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -5816,7 +5414,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB40" s="2" t="n">
         <v>66</v>
@@ -5854,13 +5452,13 @@
         <v>12</v>
       </c>
       <c r="AW40" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AX40" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY40" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
@@ -5882,36 +5480,27 @@
       <c r="BI40" s="2"/>
       <c r="BJ40" s="2"/>
       <c r="BK40" s="2"/>
-      <c r="BL40" s="2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="BM40" s="2"/>
-      <c r="BN40" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO40" s="2"/>
-      <c r="BP40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -5944,7 +5533,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
@@ -5963,9 +5552,7 @@
       <c r="AP41" s="2"/>
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
-      <c r="AS41" s="2" t="n">
-        <v>50.8126984126984</v>
-      </c>
+      <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2" t="n">
@@ -5974,7 +5561,7 @@
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
       <c r="AY41" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ41" s="2" t="n">
         <v>12.3</v>
@@ -5993,43 +5580,32 @@
         <v>56.8</v>
       </c>
       <c r="BH41" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="BI41" s="2"/>
-      <c r="BJ41" s="2" t="n">
-        <v>50.8126984126984</v>
-      </c>
-      <c r="BK41" s="2" t="n">
-        <v>12.3349206349206</v>
-      </c>
-      <c r="BL41" s="2" t="n">
-        <v>12.3349206349206</v>
-      </c>
-      <c r="BM41" s="2"/>
-      <c r="BN41" s="2"/>
-      <c r="BO41" s="2"/>
-      <c r="BP41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -6062,7 +5638,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
@@ -6081,9 +5657,7 @@
       <c r="AP42" s="2"/>
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
-      <c r="AS42" s="2" t="n">
-        <v>50.1730769230769</v>
-      </c>
+      <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2" t="n">
@@ -6092,7 +5666,7 @@
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
       <c r="AY42" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ42" s="2" t="n">
         <v>11.9</v>
@@ -6112,40 +5686,29 @@
       </c>
       <c r="BH42" s="2"/>
       <c r="BI42" s="2"/>
-      <c r="BJ42" s="2" t="n">
-        <v>50.1730769230769</v>
-      </c>
-      <c r="BK42" s="2" t="n">
-        <v>12.0384615384615</v>
-      </c>
-      <c r="BL42" s="2" t="n">
-        <v>12.0384615384615</v>
-      </c>
-      <c r="BM42" s="2"/>
-      <c r="BN42" s="2"/>
-      <c r="BO42" s="2"/>
-      <c r="BP42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -6203,9 +5766,7 @@
       <c r="AP43" s="2"/>
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
-      <c r="AS43" s="2" t="n">
-        <v>60.7446428571429</v>
-      </c>
+      <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
       <c r="AU43" s="2"/>
       <c r="AV43" s="2" t="n">
@@ -6213,10 +5774,10 @@
       </c>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AY43" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ43" s="2" t="n">
         <v>14.4</v>
@@ -6240,44 +5801,29 @@
       </c>
       <c r="BH43" s="2"/>
       <c r="BI43" s="2"/>
-      <c r="BJ43" s="2" t="n">
-        <v>60.7446428571429</v>
-      </c>
-      <c r="BK43" s="2" t="n">
-        <v>14.5928571428571</v>
-      </c>
-      <c r="BL43" s="2" t="n">
-        <v>14.5928571428571</v>
-      </c>
-      <c r="BM43" s="2" t="n">
-        <v>2.31483620730856</v>
-      </c>
-      <c r="BN43" s="2" t="n">
-        <v>2.31483620730856</v>
-      </c>
-      <c r="BO43" s="2"/>
-      <c r="BP43" s="2"/>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -6298,7 +5844,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB44" s="2" t="n">
         <v>15</v>
@@ -6337,10 +5883,10 @@
       </c>
       <c r="AW44" s="2"/>
       <c r="AX44" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AY44" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ44" s="2" t="n">
         <v>14.4</v>
@@ -6366,34 +5912,29 @@
       <c r="BI44" s="2"/>
       <c r="BJ44" s="2"/>
       <c r="BK44" s="2"/>
-      <c r="BL44" s="2"/>
-      <c r="BM44" s="2"/>
-      <c r="BN44" s="2"/>
-      <c r="BO44" s="2"/>
-      <c r="BP44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -6449,7 +5990,7 @@
       <c r="AV45" s="2"/>
       <c r="AW45" s="2"/>
       <c r="AX45" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AY45" s="2"/>
       <c r="AZ45" s="2" t="n">
@@ -6471,43 +6012,30 @@
       <c r="BH45" s="2"/>
       <c r="BI45" s="2"/>
       <c r="BJ45" s="2"/>
-      <c r="BK45" s="2" t="n">
-        <v>15.841935483871</v>
-      </c>
-      <c r="BL45" s="2" t="n">
-        <v>15.841935483871</v>
-      </c>
-      <c r="BM45" s="2" t="n">
-        <v>1.36445012291803</v>
-      </c>
-      <c r="BN45" s="2" t="n">
-        <v>1.36445012291803</v>
-      </c>
-      <c r="BO45" s="2"/>
-      <c r="BP45" s="2"/>
+      <c r="BK45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>25.3</v>
@@ -6575,7 +6103,7 @@
       <c r="AV46" s="2"/>
       <c r="AW46" s="2"/>
       <c r="AX46" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY46" s="2"/>
       <c r="AZ46" s="2" t="n">
@@ -6597,43 +6125,30 @@
       <c r="BH46" s="2"/>
       <c r="BI46" s="2"/>
       <c r="BJ46" s="2"/>
-      <c r="BK46" s="2" t="n">
-        <v>15.0487394957983</v>
-      </c>
-      <c r="BL46" s="2" t="n">
-        <v>15.0487394957983</v>
-      </c>
-      <c r="BM46" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BN46" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BO46" s="2"/>
-      <c r="BP46" s="2"/>
+      <c r="BK46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -6681,7 +6196,7 @@
       <c r="AV47" s="2"/>
       <c r="AW47" s="2"/>
       <c r="AX47" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AY47" s="2"/>
       <c r="AZ47" s="2" t="n">
@@ -6708,36 +6223,27 @@
       <c r="BI47" s="2"/>
       <c r="BJ47" s="2"/>
       <c r="BK47" s="2"/>
-      <c r="BL47" s="2" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="BM47" s="2"/>
-      <c r="BN47" s="2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BO47" s="2"/>
-      <c r="BP47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>30</v>
@@ -6774,7 +6280,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
@@ -6805,10 +6311,10 @@
       </c>
       <c r="AW48" s="2"/>
       <c r="AX48" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AY48" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AZ48" s="2" t="n">
         <v>16</v>
@@ -6831,45 +6337,32 @@
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
       <c r="BH48" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="BI48" s="2"/>
       <c r="BJ48" s="2"/>
-      <c r="BK48" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="BL48" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="BM48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO48" s="2"/>
-      <c r="BP48" s="2"/>
+      <c r="BK48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>32</v>
@@ -6906,7 +6399,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
@@ -6937,10 +6430,10 @@
       </c>
       <c r="AW49" s="2"/>
       <c r="AX49" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AY49" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AZ49" s="2" t="n">
         <v>16</v>
@@ -6965,41 +6458,28 @@
       <c r="BH49" s="2"/>
       <c r="BI49" s="2"/>
       <c r="BJ49" s="2"/>
-      <c r="BK49" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="BL49" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="BM49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO49" s="2"/>
-      <c r="BP49" s="2"/>
+      <c r="BK49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>64</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>64.3</v>
@@ -7040,7 +6520,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="AB50" s="2" t="n">
         <v>128</v>
@@ -7071,22 +6551,20 @@
       <c r="AP50" s="2"/>
       <c r="AQ50" s="2"/>
       <c r="AR50" s="2"/>
-      <c r="AS50" s="2" t="n">
-        <v>51.0324468085106</v>
-      </c>
+      <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
       <c r="AU50" s="2"/>
       <c r="AV50" s="2" t="n">
         <v>10</v>
       </c>
       <c r="AW50" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AX50" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AY50" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
@@ -7102,36 +6580,29 @@
       </c>
       <c r="BH50" s="2"/>
       <c r="BI50" s="2"/>
-      <c r="BJ50" s="2" t="n">
-        <v>51.0324468085106</v>
-      </c>
+      <c r="BJ50" s="2"/>
       <c r="BK50" s="2"/>
-      <c r="BL50" s="2"/>
-      <c r="BM50" s="2"/>
-      <c r="BN50" s="2"/>
-      <c r="BO50" s="2"/>
-      <c r="BP50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -7152,7 +6623,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB51" s="2" t="n">
         <v>117</v>
@@ -7190,13 +6661,13 @@
         <v>10</v>
       </c>
       <c r="AW51" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AX51" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AY51" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
@@ -7214,32 +6685,27 @@
       <c r="BI51" s="2"/>
       <c r="BJ51" s="2"/>
       <c r="BK51" s="2"/>
-      <c r="BL51" s="2"/>
-      <c r="BM51" s="2"/>
-      <c r="BN51" s="2"/>
-      <c r="BO51" s="2"/>
-      <c r="BP51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>66</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>58.8</v>
@@ -7276,7 +6742,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AB52" s="2" t="n">
         <v>32</v>
@@ -7307,22 +6773,20 @@
       <c r="AP52" s="2"/>
       <c r="AQ52" s="2"/>
       <c r="AR52" s="2"/>
-      <c r="AS52" s="2" t="n">
-        <v>53.4350574712644</v>
-      </c>
+      <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
       <c r="AV52" s="2" t="n">
         <v>8</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AX52" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY52" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ52" s="2" t="n">
         <v>12.1</v>
@@ -7348,44 +6812,29 @@
       </c>
       <c r="BH52" s="2"/>
       <c r="BI52" s="2"/>
-      <c r="BJ52" s="2" t="n">
-        <v>53.4350574712644</v>
-      </c>
-      <c r="BK52" s="2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="BL52" s="2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="BM52" s="2" t="n">
-        <v>2.95729291673125</v>
-      </c>
-      <c r="BN52" s="2" t="n">
-        <v>2.95729291673125</v>
-      </c>
-      <c r="BO52" s="2"/>
-      <c r="BP52" s="2"/>
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>67</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -7406,7 +6855,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB53" s="2" t="n">
         <v>42</v>
@@ -7444,13 +6893,13 @@
         <v>8</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AX53" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY53" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AZ53" s="2" t="n">
         <v>12.1</v>
@@ -7478,34 +6927,27 @@
       <c r="BI53" s="2"/>
       <c r="BJ53" s="2"/>
       <c r="BK53" s="2"/>
-      <c r="BL53" s="2" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="BM53" s="2"/>
-      <c r="BN53" s="2"/>
-      <c r="BO53" s="2"/>
-      <c r="BP53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>68</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>54.5</v>
@@ -7542,7 +6984,7 @@
         <v>132</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AB54" s="2" t="n">
         <v>59</v>
@@ -7573,22 +7015,20 @@
       <c r="AP54" s="2"/>
       <c r="AQ54" s="2"/>
       <c r="AR54" s="2"/>
-      <c r="AS54" s="2" t="n">
-        <v>51.9</v>
-      </c>
+      <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
       <c r="AV54" s="2" t="n">
         <v>8</v>
       </c>
       <c r="AW54" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AX54" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY54" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AZ54" s="2" t="n">
         <v>12.2</v>
@@ -7616,44 +7056,29 @@
       </c>
       <c r="BH54" s="2"/>
       <c r="BI54" s="2"/>
-      <c r="BJ54" s="2" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="BK54" s="2" t="n">
-        <v>12.3007575757576</v>
-      </c>
-      <c r="BL54" s="2" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="BM54" s="2" t="n">
-        <v>2.95080529828671</v>
-      </c>
-      <c r="BN54" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO54" s="2"/>
-      <c r="BP54" s="2"/>
+      <c r="BJ54" s="2"/>
+      <c r="BK54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>69</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -7674,7 +7099,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AB55" s="2" t="n">
         <v>81</v>
@@ -7712,13 +7137,13 @@
         <v>8</v>
       </c>
       <c r="AW55" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AX55" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AY55" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AZ55" s="2" t="n">
         <v>12.2</v>
@@ -7748,38 +7173,29 @@
       <c r="BI55" s="2"/>
       <c r="BJ55" s="2"/>
       <c r="BK55" s="2"/>
-      <c r="BL55" s="2" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="BM55" s="2"/>
-      <c r="BN55" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO55" s="2"/>
-      <c r="BP55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -7831,7 +7247,7 @@
       <c r="AV56" s="2"/>
       <c r="AW56" s="2"/>
       <c r="AX56" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY56" s="2"/>
       <c r="AZ56" s="2" t="n">
@@ -7858,38 +7274,29 @@
       <c r="BI56" s="2"/>
       <c r="BJ56" s="2"/>
       <c r="BK56" s="2"/>
-      <c r="BL56" s="2" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="BM56" s="2"/>
-      <c r="BN56" s="2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="BO56" s="2"/>
-      <c r="BP56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -7941,7 +7348,7 @@
       <c r="AV57" s="3"/>
       <c r="AW57" s="3"/>
       <c r="AX57" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AY57" s="3"/>
       <c r="AZ57" s="3" t="n">
@@ -7968,15 +7375,6 @@
       <c r="BI57" s="3"/>
       <c r="BJ57" s="3"/>
       <c r="BK57" s="3"/>
-      <c r="BL57" s="3" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="BM57" s="3"/>
-      <c r="BN57" s="3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="BO57" s="3"/>
-      <c r="BP57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/columns_with_missing_values.xlsx
+++ b/columns_with_missing_values.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t xml:space="preserve">psy_or_med</t>
   </si>
@@ -191,6 +191,9 @@
     <t xml:space="preserve">control_percent_women</t>
   </si>
   <si>
+    <t xml:space="preserve">no_sites</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
@@ -260,6 +263,9 @@
     <t xml:space="preserve">7 to 17</t>
   </si>
   <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
     <t xml:space="preserve">Berard</t>
   </si>
   <si>
@@ -281,6 +287,9 @@
     <t xml:space="preserve">12 to 19</t>
   </si>
   <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
     <t xml:space="preserve">bdi</t>
   </si>
   <si>
@@ -305,7 +314,7 @@
     <t xml:space="preserve">missing</t>
   </si>
   <si>
-    <t xml:space="preserve">FDA Trial - Poor reporting</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">hamd</t>
@@ -323,6 +332,9 @@
     <t xml:space="preserve">Dysthymia, anxiety disordes, ADHD, oppositional/conduct disorder</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADHD, oppositional defiant disorder, conduct disorder</t>
   </si>
   <si>
@@ -338,7 +350,7 @@
     <t xml:space="preserve">USA + Canada</t>
   </si>
   <si>
-    <t xml:space="preserve">adhd was the most prevalent psychiatric condition, but others were not listed.</t>
+    <t xml:space="preserve">40</t>
   </si>
   <si>
     <t xml:space="preserve">2007 (combined)</t>
@@ -347,7 +359,7 @@
     <t xml:space="preserve">50% improvement from baseline score</t>
   </si>
   <si>
-    <t xml:space="preserve">*Did not report secondary outcome measures per trial. Instead they reported MADRS &amp; HAM-D scores for the combined population, hence why n is larger.</t>
+    <t xml:space="preserve">50</t>
   </si>
   <si>
     <t xml:space="preserve">2007a</t>
@@ -356,31 +368,22 @@
     <t xml:space="preserve">35% improvement from baseline score</t>
   </si>
   <si>
-    <t xml:space="preserve">*In this study, there were two trials (two groups of fluox, two groups of placebo). CDRS scores were reported per trial (fluox v placebo; fluox v placebo)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2007b</t>
   </si>
   <si>
-    <t xml:space="preserve">*Did not report demographics (e.g. mean age, % of women) per trial. Instead, demographics were reported for the two trials combined, hence the (combined)</t>
-  </si>
-  <si>
     <t xml:space="preserve">40% improvement from baseline score</t>
   </si>
   <si>
     <t xml:space="preserve">ADHD, enuresis, GAD</t>
   </si>
   <si>
-    <t xml:space="preserve">Has two response criteria (40% improvement, and CGI-I)</t>
-  </si>
-  <si>
     <t xml:space="preserve">50% improvement from baseline scores</t>
   </si>
   <si>
     <t xml:space="preserve">USA, Mexico, Canada, Argentina</t>
   </si>
   <si>
-    <t xml:space="preserve">*Had four conditions (duloxetine 60mg, duloxetine 30mg, fluoxetine 20mg, placebo)</t>
+    <t xml:space="preserve">60</t>
   </si>
   <si>
     <t xml:space="preserve">Findling</t>
@@ -416,6 +419,9 @@
     <t xml:space="preserve">12 to 18</t>
   </si>
   <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klein</t>
   </si>
   <si>
@@ -467,10 +473,13 @@
     <t xml:space="preserve">Anxiety, disruptive behaviour, obsessive-compulsice/tic, substance use, attention-deficit/hyperactivity</t>
   </si>
   <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Organon</t>
   </si>
   <si>
-    <t xml:space="preserve">FDA trial - poor reporting</t>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">Paxil (GlaxoSmithKline)</t>
@@ -515,7 +524,7 @@
     <t xml:space="preserve">European, multi-centered (31 recruitment sites)</t>
   </si>
   <si>
-    <t xml:space="preserve">*Ask Charlotte to check paper</t>
+    <t xml:space="preserve">31</t>
   </si>
   <si>
     <t xml:space="preserve">K-SADS depression and anhedonia scores ≤2</t>
@@ -539,13 +548,22 @@
     <t xml:space="preserve">6 to 17</t>
   </si>
   <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
     <t xml:space="preserve">CDRS score ≤28</t>
   </si>
   <si>
     <t xml:space="preserve">Dysthmia, enuresis</t>
   </si>
   <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anxiety disorders (e.g. GAD, panic disorder, social phobia, specific phobia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
   </si>
   <si>
     <t xml:space="preserve">Young, 2010</t>
@@ -1117,26 +1135,29 @@
       <c r="BK1" t="s">
         <v>62</v>
       </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1185,7 +1206,7 @@
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
@@ -1202,29 +1223,30 @@
       <c r="BI2" s="1"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1284,7 +1306,7 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
@@ -1299,27 +1321,28 @@
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
       <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>59.2</v>
@@ -1360,7 +1383,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -1391,10 +1414,10 @@
       </c>
       <c r="AW4" s="2"/>
       <c r="AX4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ4" s="2" t="n">
         <v>13.1</v>
@@ -1416,31 +1439,34 @@
       <c r="BG4" s="2" t="n">
         <v>49.5</v>
       </c>
-      <c r="BH4" s="2"/>
+      <c r="BH4" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>58.8</v>
@@ -1481,7 +1507,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -1512,10 +1538,10 @@
       </c>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ5" s="2" t="n">
         <v>13.1</v>
@@ -1537,31 +1563,34 @@
       <c r="BG5" s="2" t="n">
         <v>49.5</v>
       </c>
-      <c r="BH5" s="2"/>
+      <c r="BH5" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="BI5" s="2"/>
       <c r="BJ5" s="2"/>
       <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>25.9</v>
@@ -1610,7 +1639,7 @@
         <v>91</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB6" s="2" t="n">
         <v>107</v>
@@ -1648,13 +1677,13 @@
         <v>12</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ6" s="2" t="n">
         <v>15.5</v>
@@ -1676,31 +1705,34 @@
       <c r="BG6" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BH6" s="2"/>
+      <c r="BH6" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="BI6" s="2"/>
       <c r="BJ6" s="2"/>
       <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>23</v>
@@ -1749,7 +1781,7 @@
         <v>90</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -1775,13 +1807,13 @@
         <v>12</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ7" s="2" t="n">
         <v>15.5</v>
@@ -1803,31 +1835,34 @@
       <c r="BG7" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BH7" s="2"/>
+      <c r="BH7" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="BI7" s="2"/>
       <c r="BJ7" s="2"/>
       <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1892,13 +1927,13 @@
         <v>12</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ8" s="2" t="n">
         <v>15.5</v>
@@ -1920,31 +1955,34 @@
       <c r="BG8" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BH8" s="2"/>
+      <c r="BH8" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1965,7 +2003,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB9" s="2" t="n">
         <v>119</v>
@@ -2003,13 +2041,13 @@
         <v>12</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AX9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AZ9" s="2" t="n">
         <v>15.5</v>
@@ -2031,31 +2069,34 @@
       <c r="BG9" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BH9" s="2"/>
+      <c r="BH9" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="2"/>
       <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2104,13 +2145,13 @@
         <v>8</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AX10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
@@ -2121,32 +2162,33 @@
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BI10" s="2"/>
       <c r="BJ10" s="2"/>
       <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2195,13 +2237,13 @@
         <v>8</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
@@ -2211,31 +2253,34 @@
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
+      <c r="BH11" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
       <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2256,7 +2301,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -2286,13 +2331,13 @@
         <v>8</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AX12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY12" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
@@ -2302,31 +2347,34 @@
       <c r="BE12" s="2"/>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2"/>
-      <c r="BH12" s="2"/>
+      <c r="BH12" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="BI12" s="2"/>
       <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>61.2</v>
@@ -2363,7 +2411,7 @@
         <v>93</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -2389,13 +2437,13 @@
         <v>8</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AX13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY13" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
@@ -2405,31 +2453,34 @@
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
       <c r="BG13" s="2"/>
-      <c r="BH13" s="2"/>
+      <c r="BH13" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="2"/>
       <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2450,7 +2501,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB14" s="2" t="n">
         <v>27</v>
@@ -2488,13 +2539,13 @@
         <v>8</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AX14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ14" s="2" t="n">
         <v>12.2</v>
@@ -2516,31 +2567,34 @@
       <c r="BG14" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="BH14" s="2"/>
+      <c r="BH14" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="BI14" s="2"/>
       <c r="BJ14" s="2"/>
       <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2561,7 +2615,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB15" s="2" t="n">
         <v>57</v>
@@ -2595,13 +2649,13 @@
         <v>9</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AX15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY15" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AZ15" s="2" t="n">
         <v>12.7</v>
@@ -2623,31 +2677,34 @@
       <c r="BG15" s="2" t="n">
         <v>49.5</v>
       </c>
-      <c r="BH15" s="2"/>
+      <c r="BH15" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2709,10 +2766,10 @@
       </c>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY16" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
@@ -2722,31 +2779,34 @@
       <c r="BE16" s="2"/>
       <c r="BF16" s="2"/>
       <c r="BG16" s="2"/>
-      <c r="BH16" s="2"/>
+      <c r="BH16" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="BI16" s="2"/>
       <c r="BJ16" s="2"/>
       <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>20</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2800,10 +2860,10 @@
       </c>
       <c r="AW17" s="2"/>
       <c r="AX17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY17" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
@@ -2813,31 +2873,34 @@
       <c r="BE17" s="2"/>
       <c r="BF17" s="2"/>
       <c r="BG17" s="2"/>
-      <c r="BH17" s="2"/>
+      <c r="BH17" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="BI17" s="2"/>
       <c r="BJ17" s="2"/>
       <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>21</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2858,7 +2921,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB18" s="2" t="n">
         <v>61</v>
@@ -2897,10 +2960,10 @@
       </c>
       <c r="AW18" s="2"/>
       <c r="AX18" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY18" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
@@ -2910,31 +2973,34 @@
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
       <c r="BG18" s="2"/>
-      <c r="BH18" s="2"/>
+      <c r="BH18" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="BI18" s="2"/>
       <c r="BJ18" s="2"/>
       <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>60.7</v>
@@ -3007,13 +3073,13 @@
         <v>8</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AX19" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AY19" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ19" s="2" t="n">
         <v>11.9</v>
@@ -3040,32 +3106,33 @@
         <v>46.8</v>
       </c>
       <c r="BH19" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BI19" s="2"/>
       <c r="BJ19" s="2"/>
       <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>23</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -3086,7 +3153,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB20" s="2" t="n">
         <v>49</v>
@@ -3124,13 +3191,13 @@
         <v>8</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AX20" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AY20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ20" s="2" t="n">
         <v>11.9</v>
@@ -3156,31 +3223,34 @@
       <c r="BG20" s="2" t="n">
         <v>46.8</v>
       </c>
-      <c r="BH20" s="2"/>
+      <c r="BH20" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="BI20" s="2"/>
       <c r="BJ20" s="2"/>
       <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>18.2</v>
@@ -3217,7 +3287,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB21" s="2" t="n">
         <v>85</v>
@@ -3256,10 +3326,10 @@
       </c>
       <c r="AW21" s="2"/>
       <c r="AX21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ21" s="2" t="n">
         <v>12.2</v>
@@ -3281,31 +3351,34 @@
       <c r="BG21" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="BH21" s="2"/>
+      <c r="BH21" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="BI21" s="2"/>
       <c r="BJ21" s="2"/>
       <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>25.6</v>
@@ -3342,7 +3415,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AB22" s="2" t="n">
         <v>81</v>
@@ -3381,10 +3454,10 @@
       </c>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ22" s="2" t="n">
         <v>12.2</v>
@@ -3407,32 +3480,33 @@
         <v>47</v>
       </c>
       <c r="BH22" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="BI22" s="2"/>
       <c r="BJ22" s="2"/>
       <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>54.4</v>
@@ -3473,7 +3547,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AB23" s="2" t="n">
         <v>43</v>
@@ -3532,10 +3606,10 @@
       </c>
       <c r="AW23" s="2"/>
       <c r="AX23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2" t="n">
@@ -3550,32 +3624,33 @@
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
       <c r="BH23" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BI23" s="2"/>
       <c r="BJ23" s="2"/>
       <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>25</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>57.3</v>
@@ -3616,7 +3691,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AB24" s="2" t="n">
         <v>77</v>
@@ -3675,10 +3750,10 @@
       </c>
       <c r="AW24" s="2"/>
       <c r="AX24" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ24" s="2"/>
       <c r="BA24" s="2" t="n">
@@ -3693,32 +3768,33 @@
       <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
       <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>57.6</v>
@@ -3763,7 +3839,7 @@
         <v>157</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AB25" s="2" t="n">
         <v>91</v>
@@ -3801,13 +3877,13 @@
         <v>8</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AX25" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY25" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AZ25" s="2" t="n">
         <v>14.7</v>
@@ -3830,32 +3906,33 @@
         <v>58.6</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="BI25" s="2"/>
       <c r="BJ25" s="2"/>
       <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3876,7 +3953,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB26" s="2" t="n">
         <v>99</v>
@@ -3914,13 +3991,13 @@
         <v>8</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AX26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY26" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AZ26" s="2" t="n">
         <v>14.7</v>
@@ -3942,31 +4019,34 @@
       <c r="BG26" s="2" t="n">
         <v>58.6</v>
       </c>
-      <c r="BH26" s="2"/>
+      <c r="BH26" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="BI26" s="2"/>
       <c r="BJ26" s="2"/>
       <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>59.3</v>
@@ -4015,7 +4095,7 @@
         <v>117</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -4046,10 +4126,10 @@
       </c>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ27" s="2" t="n">
         <v>12.9</v>
@@ -4072,32 +4152,33 @@
         <v>56.6</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BI27" s="2"/>
       <c r="BJ27" s="2"/>
       <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>59.8</v>
@@ -4146,7 +4227,7 @@
         <v>117</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -4177,10 +4258,10 @@
       </c>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ28" s="2" t="n">
         <v>12.9</v>
@@ -4202,31 +4283,34 @@
       <c r="BG28" s="2" t="n">
         <v>56.6</v>
       </c>
-      <c r="BH28" s="2"/>
+      <c r="BH28" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="BI28" s="2"/>
       <c r="BJ28" s="2"/>
       <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>57.9</v>
@@ -4275,7 +4359,7 @@
         <v>117</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -4306,10 +4390,10 @@
       </c>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AY29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ29" s="2" t="n">
         <v>13</v>
@@ -4331,31 +4415,34 @@
       <c r="BG29" s="2" t="n">
         <v>56.6</v>
       </c>
-      <c r="BH29" s="2"/>
+      <c r="BH29" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="BI29" s="2"/>
       <c r="BJ29" s="2"/>
       <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -4376,7 +4463,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB30" s="2" t="n">
         <v>9</v>
@@ -4414,13 +4501,13 @@
         <v>8</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AX30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY30" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AZ30" s="2" t="n">
         <v>16.55</v>
@@ -4446,31 +4533,34 @@
       <c r="BG30" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="BH30" s="2"/>
+      <c r="BH30" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="BI30" s="2"/>
       <c r="BJ30" s="2"/>
       <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -4491,7 +4581,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB31" s="2" t="n">
         <v>4</v>
@@ -4529,11 +4619,11 @@
         <v>6</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AX31" s="2"/>
       <c r="AY31" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
@@ -4543,31 +4633,34 @@
       <c r="BE31" s="2"/>
       <c r="BF31" s="2"/>
       <c r="BG31" s="2"/>
-      <c r="BH31" s="2"/>
+      <c r="BH31" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="BI31" s="2"/>
       <c r="BJ31" s="2"/>
       <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -4588,7 +4681,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AB32" s="2" t="n">
         <v>2</v>
@@ -4626,11 +4719,11 @@
         <v>6</v>
       </c>
       <c r="AW32" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AX32" s="2"/>
       <c r="AY32" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AZ32" s="2"/>
       <c r="BA32" s="2"/>
@@ -4640,31 +4733,34 @@
       <c r="BE32" s="2"/>
       <c r="BF32" s="2"/>
       <c r="BG32" s="2"/>
-      <c r="BH32" s="2"/>
+      <c r="BH32" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="BI32" s="2"/>
       <c r="BJ32" s="2"/>
       <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4685,7 +4781,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB33" s="2" t="n">
         <v>49</v>
@@ -4723,13 +4819,13 @@
         <v>8</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX33" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AY33" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ33" s="2" t="n">
         <v>14.9</v>
@@ -4751,31 +4847,34 @@
       <c r="BG33" s="2" t="n">
         <v>65.5</v>
       </c>
-      <c r="BH33" s="2"/>
+      <c r="BH33" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
       <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4796,7 +4895,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>59</v>
@@ -4834,13 +4933,13 @@
         <v>8</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AX34" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AY34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AZ34" s="2" t="n">
         <v>14.8</v>
@@ -4862,31 +4961,34 @@
       <c r="BG34" s="2" t="n">
         <v>65.5</v>
       </c>
-      <c r="BH34" s="2"/>
+      <c r="BH34" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="BI34" s="2"/>
       <c r="BJ34" s="2"/>
       <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4907,7 +5009,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB35" s="2" t="n">
         <v>12</v>
@@ -4945,13 +5047,13 @@
         <v>6</v>
       </c>
       <c r="AW35" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AX35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY35" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AZ35" s="2"/>
       <c r="BA35" s="2"/>
@@ -4969,31 +5071,34 @@
       <c r="BG35" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="BH35" s="2"/>
+      <c r="BH35" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="BI35" s="2"/>
       <c r="BJ35" s="2"/>
       <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -5051,10 +5156,10 @@
       </c>
       <c r="AW36" s="2"/>
       <c r="AX36" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AY36" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="2"/>
@@ -5070,33 +5175,36 @@
       <c r="BG36" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="BH36" s="2"/>
+      <c r="BH36" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="BI36" s="2"/>
       <c r="BJ36" s="2"/>
       <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -5144,7 +5252,7 @@
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY37" s="2"/>
       <c r="AZ37" s="2"/>
@@ -5161,25 +5269,26 @@
       <c r="BI37" s="2"/>
       <c r="BJ37" s="2"/>
       <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>59.64</v>
@@ -5247,7 +5356,7 @@
       <c r="AV38" s="2"/>
       <c r="AW38" s="2"/>
       <c r="AX38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY38" s="2"/>
       <c r="AZ38" s="2"/>
@@ -5264,29 +5373,30 @@
       <c r="BG38" s="2"/>
       <c r="BH38" s="2"/>
       <c r="BI38" s="2"/>
-      <c r="BJ38" s="2" t="n">
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2" t="n">
         <v>-2.56642335766423</v>
       </c>
-      <c r="BK38" s="2"/>
+      <c r="BL38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>78.69</v>
@@ -5352,7 +5462,7 @@
       <c r="AV39" s="2"/>
       <c r="AW39" s="2"/>
       <c r="AX39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY39" s="2"/>
       <c r="AZ39" s="2"/>
@@ -5369,31 +5479,32 @@
       <c r="BG39" s="2"/>
       <c r="BH39" s="2"/>
       <c r="BI39" s="2"/>
-      <c r="BJ39" s="2" t="n">
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2" t="n">
         <v>-0.866370609608398</v>
       </c>
-      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -5414,7 +5525,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB40" s="2" t="n">
         <v>66</v>
@@ -5452,13 +5563,13 @@
         <v>12</v>
       </c>
       <c r="AW40" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AX40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY40" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
@@ -5476,31 +5587,34 @@
       <c r="BG40" s="2" t="n">
         <v>54.4</v>
       </c>
-      <c r="BH40" s="2"/>
+      <c r="BH40" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="BI40" s="2"/>
       <c r="BJ40" s="2"/>
       <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -5533,7 +5647,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
@@ -5561,7 +5675,7 @@
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
       <c r="AY41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ41" s="2" t="n">
         <v>12.3</v>
@@ -5580,37 +5694,38 @@
         <v>56.8</v>
       </c>
       <c r="BH41" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BI41" s="2"/>
       <c r="BJ41" s="2"/>
       <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -5638,7 +5753,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
@@ -5666,7 +5781,7 @@
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
       <c r="AY42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ42" s="2" t="n">
         <v>11.9</v>
@@ -5684,31 +5799,34 @@
       <c r="BG42" s="2" t="n">
         <v>50.5</v>
       </c>
-      <c r="BH42" s="2"/>
+      <c r="BH42" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="BI42" s="2"/>
       <c r="BJ42" s="2"/>
       <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -5774,10 +5892,10 @@
       </c>
       <c r="AW43" s="2"/>
       <c r="AX43" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AY43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ43" s="2" t="n">
         <v>14.4</v>
@@ -5799,31 +5917,34 @@
       <c r="BG43" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="BH43" s="2"/>
+      <c r="BH43" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="BI43" s="2"/>
       <c r="BJ43" s="2"/>
       <c r="BK43" s="2"/>
+      <c r="BL43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>60</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -5844,7 +5965,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB44" s="2" t="n">
         <v>15</v>
@@ -5883,10 +6004,10 @@
       </c>
       <c r="AW44" s="2"/>
       <c r="AX44" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AY44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ44" s="2" t="n">
         <v>14.4</v>
@@ -5908,33 +6029,36 @@
       <c r="BG44" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="BH44" s="2"/>
+      <c r="BH44" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="BI44" s="2"/>
       <c r="BJ44" s="2"/>
       <c r="BK44" s="2"/>
+      <c r="BL44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -5990,7 +6114,7 @@
       <c r="AV45" s="2"/>
       <c r="AW45" s="2"/>
       <c r="AX45" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AY45" s="2"/>
       <c r="AZ45" s="2" t="n">
@@ -6013,29 +6137,30 @@
       <c r="BI45" s="2"/>
       <c r="BJ45" s="2"/>
       <c r="BK45" s="2"/>
+      <c r="BL45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>25.3</v>
@@ -6103,7 +6228,7 @@
       <c r="AV46" s="2"/>
       <c r="AW46" s="2"/>
       <c r="AX46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY46" s="2"/>
       <c r="AZ46" s="2" t="n">
@@ -6126,29 +6251,30 @@
       <c r="BI46" s="2"/>
       <c r="BJ46" s="2"/>
       <c r="BK46" s="2"/>
+      <c r="BL46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H47" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -6196,7 +6322,7 @@
       <c r="AV47" s="2"/>
       <c r="AW47" s="2"/>
       <c r="AX47" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AY47" s="2"/>
       <c r="AZ47" s="2" t="n">
@@ -6223,27 +6349,28 @@
       <c r="BI47" s="2"/>
       <c r="BJ47" s="2"/>
       <c r="BK47" s="2"/>
+      <c r="BL47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>30</v>
@@ -6280,7 +6407,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
@@ -6311,10 +6438,10 @@
       </c>
       <c r="AW48" s="2"/>
       <c r="AX48" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AY48" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AZ48" s="2" t="n">
         <v>16</v>
@@ -6337,32 +6464,33 @@
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
       <c r="BH48" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BI48" s="2"/>
       <c r="BJ48" s="2"/>
       <c r="BK48" s="2"/>
+      <c r="BL48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I49" s="2" t="n">
         <v>32</v>
@@ -6399,7 +6527,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
@@ -6430,10 +6558,10 @@
       </c>
       <c r="AW49" s="2"/>
       <c r="AX49" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AY49" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AZ49" s="2" t="n">
         <v>16</v>
@@ -6455,31 +6583,34 @@
       </c>
       <c r="BF49" s="2"/>
       <c r="BG49" s="2"/>
-      <c r="BH49" s="2"/>
+      <c r="BH49" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="BI49" s="2"/>
       <c r="BJ49" s="2"/>
       <c r="BK49" s="2"/>
+      <c r="BL49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>64</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>64.3</v>
@@ -6520,7 +6651,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AB50" s="2" t="n">
         <v>128</v>
@@ -6558,13 +6689,13 @@
         <v>10</v>
       </c>
       <c r="AW50" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AX50" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AY50" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
@@ -6578,31 +6709,34 @@
       <c r="BG50" s="2" t="n">
         <v>44.9</v>
       </c>
-      <c r="BH50" s="2"/>
+      <c r="BH50" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="BI50" s="2"/>
       <c r="BJ50" s="2"/>
       <c r="BK50" s="2"/>
+      <c r="BL50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -6623,7 +6757,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB51" s="2" t="n">
         <v>117</v>
@@ -6661,13 +6795,13 @@
         <v>10</v>
       </c>
       <c r="AW51" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AX51" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AY51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
@@ -6681,31 +6815,34 @@
       <c r="BG51" s="2" t="n">
         <v>44.9</v>
       </c>
-      <c r="BH51" s="2"/>
+      <c r="BH51" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="BI51" s="2"/>
       <c r="BJ51" s="2"/>
       <c r="BK51" s="2"/>
+      <c r="BL51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>66</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>58.8</v>
@@ -6742,7 +6879,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AB52" s="2" t="n">
         <v>32</v>
@@ -6780,13 +6917,13 @@
         <v>8</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AX52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ52" s="2" t="n">
         <v>12.1</v>
@@ -6810,31 +6947,34 @@
       <c r="BG52" s="2" t="n">
         <v>54.1</v>
       </c>
-      <c r="BH52" s="2"/>
+      <c r="BH52" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="BI52" s="2"/>
       <c r="BJ52" s="2"/>
       <c r="BK52" s="2"/>
+      <c r="BL52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>67</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -6855,7 +6995,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB53" s="2" t="n">
         <v>42</v>
@@ -6893,13 +7033,13 @@
         <v>8</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AX53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AY53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AZ53" s="2" t="n">
         <v>12.1</v>
@@ -6923,31 +7063,34 @@
       <c r="BG53" s="2" t="n">
         <v>54.1</v>
       </c>
-      <c r="BH53" s="2"/>
+      <c r="BH53" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="BI53" s="2"/>
       <c r="BJ53" s="2"/>
       <c r="BK53" s="2"/>
+      <c r="BL53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>68</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>54.5</v>
@@ -6984,7 +7127,7 @@
         <v>132</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AB54" s="2" t="n">
         <v>59</v>
@@ -7022,13 +7165,13 @@
         <v>8</v>
       </c>
       <c r="AW54" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY54" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="AX54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY54" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="AZ54" s="2" t="n">
         <v>12.2</v>
@@ -7054,31 +7197,34 @@
       <c r="BG54" s="2" t="n">
         <v>51.9</v>
       </c>
-      <c r="BH54" s="2"/>
+      <c r="BH54" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="BI54" s="2"/>
       <c r="BJ54" s="2"/>
       <c r="BK54" s="2"/>
+      <c r="BL54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>69</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -7099,7 +7245,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AB55" s="2" t="n">
         <v>81</v>
@@ -7137,13 +7283,13 @@
         <v>8</v>
       </c>
       <c r="AW55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY55" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="AX55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY55" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="AZ55" s="2" t="n">
         <v>12.2</v>
@@ -7169,33 +7315,36 @@
       <c r="BG55" s="2" t="n">
         <v>51.9</v>
       </c>
-      <c r="BH55" s="2"/>
+      <c r="BH55" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="BI55" s="2"/>
       <c r="BJ55" s="2"/>
       <c r="BK55" s="2"/>
+      <c r="BL55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -7247,7 +7396,7 @@
       <c r="AV56" s="2"/>
       <c r="AW56" s="2"/>
       <c r="AX56" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY56" s="2"/>
       <c r="AZ56" s="2" t="n">
@@ -7274,29 +7423,30 @@
       <c r="BI56" s="2"/>
       <c r="BJ56" s="2"/>
       <c r="BK56" s="2"/>
+      <c r="BL56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -7348,7 +7498,7 @@
       <c r="AV57" s="3"/>
       <c r="AW57" s="3"/>
       <c r="AX57" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AY57" s="3"/>
       <c r="AZ57" s="3" t="n">
@@ -7375,6 +7525,7 @@
       <c r="BI57" s="3"/>
       <c r="BJ57" s="3"/>
       <c r="BK57" s="3"/>
+      <c r="BL57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
